--- a/src/attributions/attributions_saliency_traj_473.xlsx
+++ b/src/attributions/attributions_saliency_traj_473.xlsx
@@ -1004,571 +1004,571 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0003466914058662951</v>
+        <v>7.357122376561165e-05</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0001198489335365593</v>
+        <v>0.0899248793721199</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001975195948034525</v>
+        <v>0.003999200183898211</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0001802410406526178</v>
+        <v>0.01554527040570974</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0005622178432531655</v>
+        <v>0.009407026693224907</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0002699895412661135</v>
+        <v>0.01953125</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0003055628621950746</v>
+        <v>0.001839408185333014</v>
       </c>
       <c r="H2" t="n">
-        <v>0.001126430230215192</v>
+        <v>0.0305619016289711</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0004764914920087904</v>
+        <v>0.03122711554169655</v>
       </c>
       <c r="J2" t="n">
-        <v>6.161746568977833e-06</v>
+        <v>0.01101547479629517</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0007061550859361887</v>
+        <v>0.07943259179592133</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001710603479295969</v>
+        <v>0.002334943041205406</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0009176909807138145</v>
+        <v>0.02973032370209694</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0006252424791455269</v>
+        <v>0.01213826145976782</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0004877998726442456</v>
+        <v>0.02709801495075226</v>
       </c>
       <c r="P2" t="n">
-        <v>4.716176772490144e-05</v>
+        <v>0.005618789233267307</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.001534656388685107</v>
+        <v>0.01935276761651039</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0009326464496552944</v>
+        <v>0.031721331179142</v>
       </c>
       <c r="S2" t="n">
-        <v>7.678508700337261e-05</v>
+        <v>0.004072926472872496</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0009811240015551448</v>
+        <v>0.009995612315833569</v>
       </c>
       <c r="U2" t="n">
-        <v>4.790556704392657e-05</v>
+        <v>0.004645414184778929</v>
       </c>
       <c r="V2" t="n">
-        <v>7.19973468221724e-05</v>
+        <v>0.005451432429254055</v>
       </c>
       <c r="W2" t="n">
-        <v>0.0002991550718434155</v>
+        <v>0.00227859546430409</v>
       </c>
       <c r="X2" t="n">
-        <v>0.0002445453719701618</v>
+        <v>0.01023837737739086</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.0003294302732683718</v>
+        <v>0.000936535419896245</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.0004366888315416873</v>
+        <v>0.004791656974703074</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.0001564786216476932</v>
+        <v>0.009383457712829113</v>
       </c>
       <c r="AB2" t="n">
-        <v>7.87529643275775e-06</v>
+        <v>0.01057174801826477</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.0001701605797279626</v>
+        <v>0.005233970005065203</v>
       </c>
       <c r="AD2" t="n">
-        <v>4.565989729599096e-05</v>
+        <v>0.01669182628393173</v>
       </c>
       <c r="AE2" t="n">
-        <v>0.0002108192420564592</v>
+        <v>0.004797903820872307</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.0003093444393016398</v>
+        <v>0.009265253320336342</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.0001077117703971453</v>
+        <v>0.01818874105811119</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.0002484098367858678</v>
+        <v>0.008099423721432686</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.0004017668252345175</v>
+        <v>0.0117949265986681</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.0007669647457078099</v>
+        <v>0.009968377649784088</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.0001138625084422529</v>
+        <v>0.005744209513068199</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.000324933062074706</v>
+        <v>0.007620786316692829</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.0004457752220332623</v>
+        <v>0.004184856079518795</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.0001495315082138404</v>
+        <v>0.003616216126829386</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.0004962912062183022</v>
+        <v>0.008997726254165173</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.0001972038589883596</v>
+        <v>0.004038736689835787</v>
       </c>
       <c r="AQ2" t="n">
-        <v>7.399595779133961e-05</v>
+        <v>0.003570010652765632</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.000232783451792784</v>
+        <v>0.002562496578320861</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.0001698904816294089</v>
+        <v>0.004804855678230524</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.565502654761076e-06</v>
+        <v>0.002630452159792185</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.0003449167124927044</v>
+        <v>0.06033052131533623</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.001082512200810015</v>
+        <v>0.02037765458226204</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.0006546914228238165</v>
+        <v>0.003842911217361689</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.0003650148864835501</v>
+        <v>0.02591210044920444</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.0002530969213694334</v>
+        <v>0.01492757815867662</v>
       </c>
       <c r="AZ2" t="n">
-        <v>9.206507093040273e-05</v>
+        <v>0.01244801469147205</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.000611449358984828</v>
+        <v>0.007650477811694145</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.0001884886441985145</v>
+        <v>0.008377136662602425</v>
       </c>
       <c r="BC2" t="n">
-        <v>2.588574352557771e-05</v>
+        <v>0.008226853795349598</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.0003381296119187027</v>
+        <v>0.02605352178215981</v>
       </c>
       <c r="BE2" t="n">
-        <v>0.0004916366306133568</v>
+        <v>0.01272231340408325</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.0003087051445618272</v>
+        <v>0.0008121206192299724</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.0005106122698634863</v>
+        <v>0.01025198213756084</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.0001733304961817339</v>
+        <v>0.0266961082816124</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.0003491022216621786</v>
+        <v>0.002363809384405613</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.0006626611575484276</v>
+        <v>0.003039574716240168</v>
       </c>
       <c r="BK2" t="n">
-        <v>8.592379163019359e-05</v>
+        <v>0.02498683705925941</v>
       </c>
       <c r="BL2" t="n">
-        <v>0.0001221700658788905</v>
+        <v>0.007305683102458715</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.00025415193522349</v>
+        <v>0.003247200977057219</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.0004154710622970015</v>
+        <v>5.649635568261147e-05</v>
       </c>
       <c r="BO2" t="n">
-        <v>4.170246393186972e-05</v>
+        <v>0.0002074722433462739</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.000120291551866103</v>
+        <v>0.03574893623590469</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.0003541550249792635</v>
+        <v>0.02023016102612019</v>
       </c>
       <c r="BR2" t="n">
-        <v>4.13115085393656e-05</v>
+        <v>0.009705851785838604</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.0004632000345736742</v>
+        <v>0.0001153550110757351</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.0004286365292500705</v>
+        <v>0.01881394535303116</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.0001892736036097631</v>
+        <v>0.00284298206679523</v>
       </c>
       <c r="BV2" t="n">
-        <v>1.201227132696658e-05</v>
+        <v>0.0337647907435894</v>
       </c>
       <c r="BW2" t="n">
-        <v>0.0008468894520774484</v>
+        <v>0.003797921584919095</v>
       </c>
       <c r="BX2" t="n">
-        <v>6.274944462347776e-05</v>
+        <v>0.00563907902687788</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.0006036615232005715</v>
+        <v>0.008786052465438843</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.0001722909510135651</v>
+        <v>0.01059830002486706</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.000132356770336628</v>
+        <v>0.002328139962628484</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.0002623592154122889</v>
+        <v>0.003098588436841965</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.0002542825532145798</v>
+        <v>0.00695987232029438</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.000246527255512774</v>
+        <v>6.20272294327151e-06</v>
       </c>
       <c r="CE2" t="n">
-        <v>5.381595838116482e-05</v>
+        <v>0.01290839444845915</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.0003424815367907286</v>
+        <v>0.001667315838858485</v>
       </c>
       <c r="CG2" t="n">
-        <v>7.175014616223052e-05</v>
+        <v>0.0006058875587768853</v>
       </c>
       <c r="CH2" t="n">
-        <v>9.247531124856323e-05</v>
+        <v>0.0007038868498057127</v>
       </c>
       <c r="CI2" t="n">
-        <v>3.125709918094799e-05</v>
+        <v>0.0001811656402423978</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.0001501997612649575</v>
+        <v>0.003468186128884554</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.0002601124288048595</v>
+        <v>0.001322351861745119</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.0001199764446937479</v>
+        <v>0.009713876992464066</v>
       </c>
       <c r="CM2" t="n">
-        <v>6.360450061038136e-05</v>
+        <v>0.01682363077998161</v>
       </c>
       <c r="CN2" t="n">
-        <v>0.0002402754471404478</v>
+        <v>0.01717822439968586</v>
       </c>
       <c r="CO2" t="n">
-        <v>4.230627382639796e-05</v>
+        <v>0.0005832230672240257</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.0003171233111061156</v>
+        <v>0.01686852239072323</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.0004950316506437957</v>
+        <v>0.02122783847153187</v>
       </c>
       <c r="CR2" t="n">
-        <v>2.479473914718255e-05</v>
+        <v>0.01530342828482389</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.0002102863509207964</v>
+        <v>0.008196223527193069</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.000458850379800424</v>
+        <v>0.02346509136259556</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.0007061861106194556</v>
+        <v>0.01385703776031733</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.0003433398087508976</v>
+        <v>7.730626384727657e-05</v>
       </c>
       <c r="CW2" t="n">
-        <v>2.998952186317183e-05</v>
+        <v>0.01339155994355679</v>
       </c>
       <c r="CX2" t="n">
-        <v>0.0003710901946760714</v>
+        <v>0.0008946066373027861</v>
       </c>
       <c r="CY2" t="n">
-        <v>3.893925168085843e-05</v>
+        <v>0.0007438084576278925</v>
       </c>
       <c r="CZ2" t="n">
-        <v>3.82049402105622e-05</v>
+        <v>0.0003520133905112743</v>
       </c>
       <c r="DA2" t="n">
-        <v>4.508421625359915e-05</v>
+        <v>0.001977106556296349</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.0001090315272449516</v>
+        <v>0.003432330675423145</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.0001611629850231111</v>
+        <v>0.0007074213353917003</v>
       </c>
       <c r="DD2" t="n">
-        <v>6.447223313443828e-06</v>
+        <v>0.006583780981600285</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.0005604910547845066</v>
+        <v>0.005709814373403788</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.000334680313244462</v>
+        <v>0.01313666999340057</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.0004358671139925718</v>
+        <v>0.004226560704410076</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.000891976582352072</v>
+        <v>0.01484269648790359</v>
       </c>
       <c r="DI2" t="n">
-        <v>0.0001758747093845159</v>
+        <v>0.001246081897988915</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.00046129385009408</v>
+        <v>0.004260616842657328</v>
       </c>
       <c r="DK2" t="n">
-        <v>7.291265501407906e-05</v>
+        <v>0.005344448611140251</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.0001136878854595125</v>
+        <v>0.01180215645581484</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.0001577728689881042</v>
+        <v>0.0002728509716689587</v>
       </c>
       <c r="DN2" t="n">
-        <v>7.883978832978755e-05</v>
+        <v>0.002975831273943186</v>
       </c>
       <c r="DO2" t="n">
-        <v>1.117909778258763e-05</v>
+        <v>0.00747155025601387</v>
       </c>
       <c r="DP2" t="n">
-        <v>0.000313532305881381</v>
+        <v>0.001731989206746221</v>
       </c>
       <c r="DQ2" t="n">
-        <v>6.104302883613855e-05</v>
+        <v>0.004992219153791666</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.0001901663054013625</v>
+        <v>0.01085771527141333</v>
       </c>
       <c r="DS2" t="n">
-        <v>0.0003965376236010343</v>
+        <v>0.0005112322978675365</v>
       </c>
       <c r="DT2" t="n">
-        <v>6.472094537457451e-05</v>
+        <v>0.007293445058166981</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.0002034114004345611</v>
+        <v>0.001066387398168445</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.0003530958492774516</v>
+        <v>0.01671450771391392</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.0002026261790888384</v>
+        <v>0.0005649587837979198</v>
       </c>
       <c r="DX2" t="n">
-        <v>8.675796561874449e-05</v>
+        <v>0.01914822869002819</v>
       </c>
       <c r="DY2" t="n">
-        <v>0.0001287201303057373</v>
+        <v>0.009337960742413998</v>
       </c>
       <c r="DZ2" t="n">
-        <v>9.578794561093673e-05</v>
+        <v>0.002484522992745042</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.0002112983929691836</v>
+        <v>0.003554007969796658</v>
       </c>
       <c r="EB2" t="n">
-        <v>7.149618613766506e-05</v>
+        <v>0.009727885946631432</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.0002227546938229352</v>
+        <v>0.004376744851469994</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.0004393755807541311</v>
+        <v>0.01052771788090467</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.0001472254079999402</v>
+        <v>1.569371670484543e-05</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.0002946055319625884</v>
+        <v>0.002709947992116213</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.0001055923567037098</v>
+        <v>0.01434692926704884</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.0001169516835943796</v>
+        <v>0.001678819418884814</v>
       </c>
       <c r="EI2" t="n">
-        <v>3.739586099982262e-05</v>
+        <v>0.006725072860717773</v>
       </c>
       <c r="EJ2" t="n">
-        <v>0.000525943236425519</v>
+        <v>0.008684082888066769</v>
       </c>
       <c r="EK2" t="n">
-        <v>2.093203875119798e-05</v>
+        <v>0.003934321459382772</v>
       </c>
       <c r="EL2" t="n">
-        <v>4.603839261108078e-05</v>
+        <v>0.005711705423891544</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.0002712572459131479</v>
+        <v>0.0006432816735468805</v>
       </c>
       <c r="EN2" t="n">
-        <v>3.737084625754505e-05</v>
+        <v>0.009885351173579693</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.0002312941942363977</v>
+        <v>0.003363573923707008</v>
       </c>
       <c r="EP2" t="n">
-        <v>8.897965744836256e-05</v>
+        <v>0.003875351510941982</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.0001808381493901834</v>
+        <v>0.006857362110167742</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.0003723189292941242</v>
+        <v>0.003955552354454994</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.0001253555674338713</v>
+        <v>0.007893584668636322</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.0001960173540282995</v>
+        <v>0.01355681195855141</v>
       </c>
       <c r="EU2" t="n">
-        <v>0.0001046381948981434</v>
+        <v>0.006150569766759872</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.0002860724052879959</v>
+        <v>0.003334248438477516</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.0004070637514814734</v>
+        <v>0.001983728492632508</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.0001853152352850884</v>
+        <v>0.001810610760003328</v>
       </c>
       <c r="EY2" t="n">
-        <v>4.536752021522261e-05</v>
+        <v>0.01451720669865608</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.0003435899270698428</v>
+        <v>0.0003928792721126229</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.0001299423311138526</v>
+        <v>0.002761682961136103</v>
       </c>
       <c r="FB2" t="n">
-        <v>2.993727684952319e-05</v>
+        <v>0.002273278310894966</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.0001131824319600128</v>
+        <v>0.004105075728148222</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.0001456076424801722</v>
+        <v>0.003945931792259216</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.0002303381043020636</v>
+        <v>1.213676296174526e-05</v>
       </c>
       <c r="FF2" t="n">
-        <v>3.076218126807362e-05</v>
+        <v>0.007333730347454548</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.0004771113453898579</v>
+        <v>0.002977576572448015</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.0002437900693621486</v>
+        <v>0.005605092737823725</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.0004324846377130598</v>
+        <v>0.0001231376081705093</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.0001744182955008</v>
+        <v>0.005130299367010593</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.0002139956050086766</v>
+        <v>0.01125579886138439</v>
       </c>
       <c r="FL2" t="n">
-        <v>0.0004064047534484416</v>
+        <v>0.003115242812782526</v>
       </c>
       <c r="FM2" t="n">
-        <v>0.0001218824181705713</v>
+        <v>0.0007190036703832448</v>
       </c>
       <c r="FN2" t="n">
-        <v>0.0001322983298450708</v>
+        <v>0.002857703482732177</v>
       </c>
       <c r="FO2" t="n">
-        <v>0.0002080183767247945</v>
+        <v>0.003370842430740595</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.001124931965023279</v>
+        <v>0.005514476448297501</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.0001613502972759306</v>
+        <v>0.01102209277451038</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.000689398730173707</v>
+        <v>0.0123247392475605</v>
       </c>
       <c r="FS2" t="n">
-        <v>2.702842175494879e-05</v>
+        <v>0.00287817744538188</v>
       </c>
       <c r="FT2" t="n">
-        <v>0.0001563411206007004</v>
+        <v>0.009951045736670494</v>
       </c>
       <c r="FU2" t="n">
-        <v>7.110909791663289e-05</v>
+        <v>0.002949969377368689</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.0003893464745488018</v>
+        <v>0.01742360554635525</v>
       </c>
       <c r="FW2" t="n">
-        <v>6.931812094990164e-05</v>
+        <v>0.009156359359622002</v>
       </c>
       <c r="FX2" t="n">
-        <v>0.0004759422154165804</v>
+        <v>0.004044436383992434</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.0003380328416824341</v>
+        <v>0.009136375971138477</v>
       </c>
       <c r="FZ2" t="n">
-        <v>8.032028563320637e-05</v>
+        <v>0.005818967707455158</v>
       </c>
       <c r="GA2" t="n">
-        <v>5.286670057103038e-05</v>
+        <v>0.007670542690902948</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.0004242420254740864</v>
+        <v>0.009027096442878246</v>
       </c>
       <c r="GC2" t="n">
-        <v>0.0002428918378427625</v>
+        <v>0.008709510788321495</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.0004277621919754893</v>
+        <v>0.01308161858469248</v>
       </c>
       <c r="GE2" t="n">
-        <v>0.0001011743224808015</v>
+        <v>0.0100208967924118</v>
       </c>
       <c r="GF2" t="n">
-        <v>0.0003486245987005532</v>
+        <v>0.005856953561306</v>
       </c>
       <c r="GG2" t="n">
-        <v>0.0001960116205736995</v>
+        <v>0.001995513215661049</v>
       </c>
     </row>
     <row r="3">
@@ -2711,571 +2711,571 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.01592894643545151</v>
+        <v>0.0005347459809854627</v>
       </c>
       <c r="B5" t="n">
-        <v>0.009953876025974751</v>
+        <v>0.009344153106212616</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1132561787962914</v>
+        <v>0.00140873622149229</v>
       </c>
       <c r="D5" t="n">
-        <v>0.04244754463434219</v>
+        <v>0.001898689661175013</v>
       </c>
       <c r="E5" t="n">
-        <v>0.02679972164332867</v>
+        <v>0.001911995816044509</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02302775159478188</v>
+        <v>0.000127497361972928</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01009249500930309</v>
+        <v>0.001485559507273138</v>
       </c>
       <c r="H5" t="n">
-        <v>0.006741151213645935</v>
+        <v>0.0006853323429822922</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01590721681714058</v>
+        <v>0.002380267949774861</v>
       </c>
       <c r="J5" t="n">
-        <v>0.02044086903333664</v>
+        <v>0.001953570870682597</v>
       </c>
       <c r="K5" t="n">
-        <v>0.005934339016675949</v>
+        <v>0.008168214932084084</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1128809750080109</v>
+        <v>0.001377194654196501</v>
       </c>
       <c r="M5" t="n">
-        <v>0.04769960045814514</v>
+        <v>0.003226307220757008</v>
       </c>
       <c r="N5" t="n">
-        <v>0.01385481655597687</v>
+        <v>0.002624931978061795</v>
       </c>
       <c r="O5" t="n">
-        <v>0.003492458257824183</v>
+        <v>0.001731678028590977</v>
       </c>
       <c r="P5" t="n">
-        <v>0.01079244446009398</v>
+        <v>0.001229211105965078</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.01719125732779503</v>
+        <v>0.0005531922215595841</v>
       </c>
       <c r="R5" t="n">
-        <v>0.02130250260233879</v>
+        <v>0.001936748973093927</v>
       </c>
       <c r="S5" t="n">
-        <v>0.008268360979855061</v>
+        <v>0.0009540654136799276</v>
       </c>
       <c r="T5" t="n">
-        <v>0.007855934090912342</v>
+        <v>0.001337426598183811</v>
       </c>
       <c r="U5" t="n">
-        <v>0.002549500670284033</v>
+        <v>0.0004379162273835391</v>
       </c>
       <c r="V5" t="n">
-        <v>0.00467895669862628</v>
+        <v>0.0003858167328871787</v>
       </c>
       <c r="W5" t="n">
-        <v>0.02747823484241962</v>
+        <v>0.001192330499179661</v>
       </c>
       <c r="X5" t="n">
-        <v>0.006054678466171026</v>
+        <v>0.001120002474635839</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.006872441619634628</v>
+        <v>0.0001455975143471733</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.01366577949374914</v>
+        <v>0.0008685347274877131</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.002892089076340199</v>
+        <v>0.0009829625487327576</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.006131155416369438</v>
+        <v>0.0008586545009166002</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.01217363774776459</v>
+        <v>0.0009352407651022077</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.005014780908823013</v>
+        <v>0.001174468430690467</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.0147427823394537</v>
+        <v>0.0003494034463074058</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.02246280387043953</v>
+        <v>0.0005982615402899683</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.006826716940850019</v>
+        <v>0.0002321788924746215</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.001482715597376227</v>
+        <v>0.0003874754183925688</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.003949192352592945</v>
+        <v>0.001440726104192436</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.02051076106727123</v>
+        <v>0.0001971332385437563</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.006553851533681154</v>
+        <v>0.0008540531853213906</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.004061661195009947</v>
+        <v>0.0008241767063736916</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.02266041934490204</v>
+        <v>0.0001588011073181406</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.001749125076457858</v>
+        <v>0.000363719038432464</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.007793822325766087</v>
+        <v>1.347350917058066e-05</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.02172785066068172</v>
+        <v>0.0004180189280305058</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.005506976041942835</v>
+        <v>0.0001147277289419435</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.0007111883023753762</v>
+        <v>1.752225216478109e-05</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.001869383966550231</v>
+        <v>0.0002551429788582027</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.008763924241065979</v>
+        <v>0.0008324311929754913</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.009483331814408302</v>
+        <v>0.005580901633948088</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.05849340558052063</v>
+        <v>0.001045926939696074</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.0002976232208311558</v>
+        <v>0.001118977903388441</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.008149622939527035</v>
+        <v>0.0005204660119488835</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.007557945791631937</v>
+        <v>0.0001423031790181994</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.01163220126181841</v>
+        <v>0.002094764029607177</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.0276351273059845</v>
+        <v>0.000296387413982302</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.02274826355278492</v>
+        <v>0.000155691581312567</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.001967304386198521</v>
+        <v>6.471341475844383e-05</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.00049460434820503</v>
+        <v>0.003813369898125529</v>
       </c>
       <c r="BE5" t="n">
-        <v>0.02961577475070953</v>
+        <v>0.002567010698840022</v>
       </c>
       <c r="BF5" t="n">
-        <v>0.02718297578394413</v>
+        <v>0.0009059446747414768</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.02541503496468067</v>
+        <v>0.00141061982139945</v>
       </c>
       <c r="BH5" t="n">
-        <v>0.01227519102394581</v>
+        <v>0.0006164180231280625</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.008344450034201145</v>
+        <v>0.0008328820113092661</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.01633600704371929</v>
+        <v>0.0004977654898539186</v>
       </c>
       <c r="BK5" t="n">
-        <v>0.007887042127549648</v>
+        <v>0.0001331910898443311</v>
       </c>
       <c r="BL5" t="n">
-        <v>0.00451226020231843</v>
+        <v>0.0001843632635427639</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.006814305204898119</v>
+        <v>4.121581150684506e-05</v>
       </c>
       <c r="BN5" t="n">
-        <v>0.02554609999060631</v>
+        <v>0.001078101806342602</v>
       </c>
       <c r="BO5" t="n">
-        <v>0.009078539907932281</v>
+        <v>0.0003086687065660954</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.01756485737860203</v>
+        <v>0.002385025843977928</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0.001052313135005534</v>
+        <v>0.0007885260274633765</v>
       </c>
       <c r="BR5" t="n">
-        <v>0.008804189041256905</v>
+        <v>0.000665338768158108</v>
       </c>
       <c r="BS5" t="n">
-        <v>0.0001377312000840902</v>
+        <v>0.001643320312723517</v>
       </c>
       <c r="BT5" t="n">
-        <v>0.004419597797095776</v>
+        <v>3.868143539875746e-05</v>
       </c>
       <c r="BU5" t="n">
-        <v>0.0002906527370214462</v>
+        <v>0.0001451318094041198</v>
       </c>
       <c r="BV5" t="n">
-        <v>0.007538697216659784</v>
+        <v>0.002377622062340379</v>
       </c>
       <c r="BW5" t="n">
-        <v>0.03268378973007202</v>
+        <v>0.0008640269516035914</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.006125401705503464</v>
+        <v>0.0004019818443339318</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.003807496046647429</v>
+        <v>0.0005158478743396699</v>
       </c>
       <c r="BZ5" t="n">
-        <v>0.02320504374802113</v>
+        <v>7.779522275086492e-05</v>
       </c>
       <c r="CA5" t="n">
-        <v>0.01166662201285362</v>
+        <v>0.0007181584951467812</v>
       </c>
       <c r="CB5" t="n">
-        <v>0.01480000466108322</v>
+        <v>0.0008523390861228108</v>
       </c>
       <c r="CC5" t="n">
-        <v>0.006824125070124865</v>
+        <v>0.0001077436900231987</v>
       </c>
       <c r="CD5" t="n">
-        <v>0.005433826241642237</v>
+        <v>0.0001207043023896404</v>
       </c>
       <c r="CE5" t="n">
-        <v>0.01528675388544798</v>
+        <v>0.001677386811934412</v>
       </c>
       <c r="CF5" t="n">
-        <v>0.02214319072663784</v>
+        <v>0.0006569349789060652</v>
       </c>
       <c r="CG5" t="n">
-        <v>0.008828074671328068</v>
+        <v>9.501887689111754e-05</v>
       </c>
       <c r="CH5" t="n">
-        <v>0.001027470920234919</v>
+        <v>3.068562364205718e-05</v>
       </c>
       <c r="CI5" t="n">
-        <v>0.007587810046970844</v>
+        <v>5.182038876228034e-06</v>
       </c>
       <c r="CJ5" t="n">
-        <v>0.00892315711826086</v>
+        <v>0.0004427946114446968</v>
       </c>
       <c r="CK5" t="n">
-        <v>0.002663127845153213</v>
+        <v>0.0002059012622339651</v>
       </c>
       <c r="CL5" t="n">
-        <v>0.003970252349972725</v>
+        <v>0.0004937582416459918</v>
       </c>
       <c r="CM5" t="n">
-        <v>0.0002192549873143435</v>
+        <v>0.001724534900858998</v>
       </c>
       <c r="CN5" t="n">
-        <v>0.01014063134789467</v>
+        <v>0.00191483972594142</v>
       </c>
       <c r="CO5" t="n">
-        <v>0.007588130421936512</v>
+        <v>0.0002020244719460607</v>
       </c>
       <c r="CP5" t="n">
-        <v>0.004213334061205387</v>
+        <v>0.002077191835269332</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.00263048498891294</v>
+        <v>0.002250361256301403</v>
       </c>
       <c r="CR5" t="n">
-        <v>0.005440250504761934</v>
+        <v>3.71196074411273e-06</v>
       </c>
       <c r="CS5" t="n">
-        <v>0.0004374233540147543</v>
+        <v>0.00037645164411515</v>
       </c>
       <c r="CT5" t="n">
-        <v>0.001812104252167046</v>
+        <v>0.0004521849332377315</v>
       </c>
       <c r="CU5" t="n">
-        <v>0.02011583372950554</v>
+        <v>0.001123017398640513</v>
       </c>
       <c r="CV5" t="n">
-        <v>0.00536351976916194</v>
+        <v>0.0001774720585672185</v>
       </c>
       <c r="CW5" t="n">
-        <v>0.01079251617193222</v>
+        <v>0.001507947919890285</v>
       </c>
       <c r="CX5" t="n">
-        <v>0.02240657806396484</v>
+        <v>0.0006263329996727407</v>
       </c>
       <c r="CY5" t="n">
-        <v>0.006850517354905605</v>
+        <v>0.0004457102913875133</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.003842943115159869</v>
+        <v>0.0003034255059901625</v>
       </c>
       <c r="DA5" t="n">
-        <v>0.006666029803454876</v>
+        <v>0.0001281664881389588</v>
       </c>
       <c r="DB5" t="n">
-        <v>0.007144998759031296</v>
+        <v>0.0005772557342424989</v>
       </c>
       <c r="DC5" t="n">
-        <v>0.002523702336475253</v>
+        <v>0.0001737756392685696</v>
       </c>
       <c r="DD5" t="n">
-        <v>0.004689009394496679</v>
+        <v>0.0005486300215125084</v>
       </c>
       <c r="DE5" t="n">
-        <v>0.00517503684386611</v>
+        <v>0.001182194100692868</v>
       </c>
       <c r="DF5" t="n">
-        <v>0.03831825405359268</v>
+        <v>1.318472277489491e-05</v>
       </c>
       <c r="DG5" t="n">
-        <v>0.007276128977537155</v>
+        <v>0.0006109388777986169</v>
       </c>
       <c r="DH5" t="n">
-        <v>0.008856773376464844</v>
+        <v>0.001020785188302398</v>
       </c>
       <c r="DI5" t="n">
-        <v>0.01393221784383059</v>
+        <v>0.00135058700107038</v>
       </c>
       <c r="DJ5" t="n">
-        <v>0.0005382784875109792</v>
+        <v>0.0002780510694719851</v>
       </c>
       <c r="DK5" t="n">
-        <v>0.01933719031512737</v>
+        <v>0.0008215798297896981</v>
       </c>
       <c r="DL5" t="n">
-        <v>0.006085842847824097</v>
+        <v>0.000957043026573956</v>
       </c>
       <c r="DM5" t="n">
-        <v>0.004941336344927549</v>
+        <v>0.00157693843357265</v>
       </c>
       <c r="DN5" t="n">
-        <v>0.001102396054193377</v>
+        <v>0.001017461414448917</v>
       </c>
       <c r="DO5" t="n">
-        <v>0.01889057084918022</v>
+        <v>0.0005856992211192846</v>
       </c>
       <c r="DP5" t="n">
-        <v>0.002561380388215184</v>
+        <v>0.0009563009953126311</v>
       </c>
       <c r="DQ5" t="n">
-        <v>0.007541600149124861</v>
+        <v>0.0001888420665636659</v>
       </c>
       <c r="DR5" t="n">
-        <v>0.005041055381298065</v>
+        <v>0.0008129468187689781</v>
       </c>
       <c r="DS5" t="n">
-        <v>0.009789533913135529</v>
+        <v>0.0003865831240545958</v>
       </c>
       <c r="DT5" t="n">
-        <v>0.01408782694488764</v>
+        <v>0.0001056661858456209</v>
       </c>
       <c r="DU5" t="n">
-        <v>0.006118045188486576</v>
+        <v>0.0004430781118571758</v>
       </c>
       <c r="DV5" t="n">
-        <v>5.951605271548033e-05</v>
+        <v>8.918580715544522e-05</v>
       </c>
       <c r="DW5" t="n">
-        <v>0.008067834191024303</v>
+        <v>0.0002543120936024934</v>
       </c>
       <c r="DX5" t="n">
-        <v>0.006729456596076488</v>
+        <v>0.001837566145695746</v>
       </c>
       <c r="DY5" t="n">
-        <v>0.01198676321655512</v>
+        <v>0.0002021250402322039</v>
       </c>
       <c r="DZ5" t="n">
-        <v>0.006762190721929073</v>
+        <v>0.0002195728302467614</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.0006722608231939375</v>
+        <v>0.0004511260194703937</v>
       </c>
       <c r="EB5" t="n">
-        <v>0.005096018314361572</v>
+        <v>0.0002651592076290399</v>
       </c>
       <c r="EC5" t="n">
-        <v>0.007161605171859264</v>
+        <v>0.0001144485504482873</v>
       </c>
       <c r="ED5" t="n">
-        <v>0.0001205798471346498</v>
+        <v>0.0003258514334447682</v>
       </c>
       <c r="EE5" t="n">
-        <v>0.00577181251719594</v>
+        <v>0.0003396142274141312</v>
       </c>
       <c r="EF5" t="n">
-        <v>0.007399903610348701</v>
+        <v>0.0001315532135777175</v>
       </c>
       <c r="EG5" t="n">
-        <v>0.006122597958892584</v>
+        <v>0.001391921192407608</v>
       </c>
       <c r="EH5" t="n">
-        <v>0.02417510747909546</v>
+        <v>0.0004016187740489841</v>
       </c>
       <c r="EI5" t="n">
-        <v>0.01463912799954414</v>
+        <v>0.0001463121006963775</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0.001552638714201748</v>
+        <v>0.0001132878824137151</v>
       </c>
       <c r="EK5" t="n">
-        <v>0.02708045952022076</v>
+        <v>2.750684507191181e-05</v>
       </c>
       <c r="EL5" t="n">
-        <v>0.00470673106610775</v>
+        <v>0.0009223419474437833</v>
       </c>
       <c r="EM5" t="n">
-        <v>0.001004999037832022</v>
+        <v>1.481210347265005e-06</v>
       </c>
       <c r="EN5" t="n">
-        <v>0.0008639022707939148</v>
+        <v>0.0002991502988152206</v>
       </c>
       <c r="EO5" t="n">
-        <v>0.0003331475891172886</v>
+        <v>0.0006958770682103932</v>
       </c>
       <c r="EP5" t="n">
-        <v>0.003666684962809086</v>
+        <v>0.000234754872508347</v>
       </c>
       <c r="EQ5" t="n">
-        <v>0.001148038543760777</v>
+        <v>0.0009363323915749788</v>
       </c>
       <c r="ER5" t="n">
-        <v>0.004722669720649719</v>
+        <v>0.0003439134452491999</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.001010416774079204</v>
+        <v>0.000470027734991163</v>
       </c>
       <c r="ET5" t="n">
-        <v>0.01449816767126322</v>
+        <v>6.792898057028651e-05</v>
       </c>
       <c r="EU5" t="n">
-        <v>0.009736333042383194</v>
+        <v>0.0005392537568695843</v>
       </c>
       <c r="EV5" t="n">
-        <v>0.003086364595219493</v>
+        <v>0.0009054298279806972</v>
       </c>
       <c r="EW5" t="n">
-        <v>0.01362818665802479</v>
+        <v>0.000336506636813283</v>
       </c>
       <c r="EX5" t="n">
-        <v>0.006599963642656803</v>
+        <v>0.0004457687609829009</v>
       </c>
       <c r="EY5" t="n">
-        <v>0.008299680426716805</v>
+        <v>0.001549413660541177</v>
       </c>
       <c r="EZ5" t="n">
-        <v>0.02047441527247429</v>
+        <v>0.0004122919635847211</v>
       </c>
       <c r="FA5" t="n">
-        <v>0.007316675968468189</v>
+        <v>4.024158988613635e-05</v>
       </c>
       <c r="FB5" t="n">
-        <v>0.003409569151699543</v>
+        <v>0.0003570267290342599</v>
       </c>
       <c r="FC5" t="n">
-        <v>0.004428377375006676</v>
+        <v>4.740261647384614e-05</v>
       </c>
       <c r="FD5" t="n">
-        <v>0.006835822947323322</v>
+        <v>0.0006717172218486667</v>
       </c>
       <c r="FE5" t="n">
-        <v>0.001094784471206367</v>
+        <v>0.0003475784906186163</v>
       </c>
       <c r="FF5" t="n">
-        <v>0.004649738315492868</v>
+        <v>0.0007096872432157397</v>
       </c>
       <c r="FG5" t="n">
-        <v>0.0007758529391139746</v>
+        <v>0.0002389237779425457</v>
       </c>
       <c r="FH5" t="n">
-        <v>0.01547517720609903</v>
+        <v>0.0001293317181989551</v>
       </c>
       <c r="FI5" t="n">
-        <v>0.02186115831136703</v>
+        <v>0.0005803445819765329</v>
       </c>
       <c r="FJ5" t="n">
-        <v>0.004496400710195303</v>
+        <v>0.0002876771613955498</v>
       </c>
       <c r="FK5" t="n">
-        <v>0.0141443582251668</v>
+        <v>0.0005737886531278491</v>
       </c>
       <c r="FL5" t="n">
-        <v>0.01529992558062077</v>
+        <v>0.001433374360203743</v>
       </c>
       <c r="FM5" t="n">
-        <v>0.005464211106300354</v>
+        <v>3.991595440311357e-05</v>
       </c>
       <c r="FN5" t="n">
-        <v>0.002532149199396372</v>
+        <v>0.0009660751093178988</v>
       </c>
       <c r="FO5" t="n">
-        <v>0.001667854841798544</v>
+        <v>0.001238832948729396</v>
       </c>
       <c r="FP5" t="n">
-        <v>0.00351819209754467</v>
+        <v>0.001017956645227969</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0.03022843599319458</v>
+        <v>0.001610132865607738</v>
       </c>
       <c r="FR5" t="n">
-        <v>0.01096647046506405</v>
+        <v>0.0008394167525693774</v>
       </c>
       <c r="FS5" t="n">
-        <v>0.006928271148353815</v>
+        <v>0.0006661817315034568</v>
       </c>
       <c r="FT5" t="n">
-        <v>0.006634560413658619</v>
+        <v>0.001038552960380912</v>
       </c>
       <c r="FU5" t="n">
-        <v>0.01612368226051331</v>
+        <v>0.0007484247325919569</v>
       </c>
       <c r="FV5" t="n">
-        <v>0.006628458853811026</v>
+        <v>0.0001731903903419152</v>
       </c>
       <c r="FW5" t="n">
-        <v>0.01274317223578691</v>
+        <v>0.001264903810806572</v>
       </c>
       <c r="FX5" t="n">
-        <v>0.005482294596731663</v>
+        <v>0.001081067835912108</v>
       </c>
       <c r="FY5" t="n">
-        <v>0.004645033273845911</v>
+        <v>0.001605139579623938</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0.01268339343369007</v>
+        <v>0.0001108605792978778</v>
       </c>
       <c r="GA5" t="n">
-        <v>0.01285775192081928</v>
+        <v>0.0008043108973652124</v>
       </c>
       <c r="GB5" t="n">
-        <v>0.001976252533495426</v>
+        <v>0.0001838179305195808</v>
       </c>
       <c r="GC5" t="n">
-        <v>0.02260447293519974</v>
+        <v>0.0003180900530423969</v>
       </c>
       <c r="GD5" t="n">
-        <v>0.00304516195319593</v>
+        <v>0.001124132191762328</v>
       </c>
       <c r="GE5" t="n">
-        <v>0.008199535310268402</v>
+        <v>0.001653045415878296</v>
       </c>
       <c r="GF5" t="n">
-        <v>0.005777338985353708</v>
+        <v>0.001669287215918303</v>
       </c>
       <c r="GG5" t="n">
-        <v>0.0007406171644106507</v>
+        <v>0.0003143485228065401</v>
       </c>
     </row>
     <row r="6">
@@ -3849,1140 +3849,1140 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.906500458717346</v>
+        <v>0.008578659035265446</v>
       </c>
       <c r="B7" t="n">
-        <v>0.385677844285965</v>
+        <v>0.2235151827335358</v>
       </c>
       <c r="C7" t="n">
-        <v>1.389539241790771</v>
+        <v>0.0005905808648094535</v>
       </c>
       <c r="D7" t="n">
-        <v>1.039206147193909</v>
+        <v>0.1500474959611893</v>
       </c>
       <c r="E7" t="n">
-        <v>1.122979521751404</v>
+        <v>0.0322083905339241</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01754349283874035</v>
+        <v>0.01193795073777437</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3322588205337524</v>
+        <v>0.02600906230509281</v>
       </c>
       <c r="H7" t="n">
-        <v>0.02504398673772812</v>
+        <v>0.04024556279182434</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4466143846511841</v>
+        <v>0.04338635131716728</v>
       </c>
       <c r="J7" t="n">
-        <v>2.042635202407837</v>
+        <v>0.01311156153678894</v>
       </c>
       <c r="K7" t="n">
-        <v>0.03493265807628632</v>
+        <v>0.1843422204256058</v>
       </c>
       <c r="L7" t="n">
-        <v>1.610359668731689</v>
+        <v>0.009786143898963928</v>
       </c>
       <c r="M7" t="n">
-        <v>0.9416795969009399</v>
+        <v>0.1353705525398254</v>
       </c>
       <c r="N7" t="n">
-        <v>0.6902746558189392</v>
+        <v>0.06965314596891403</v>
       </c>
       <c r="O7" t="n">
-        <v>0.09044873714447021</v>
+        <v>0.03681443259119987</v>
       </c>
       <c r="P7" t="n">
-        <v>0.2877951562404633</v>
+        <v>0.01036987081170082</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.3595186173915863</v>
+        <v>0.01597492955625057</v>
       </c>
       <c r="R7" t="n">
-        <v>0.6858820915222168</v>
+        <v>0.02353626117110252</v>
       </c>
       <c r="S7" t="n">
-        <v>0.1290482133626938</v>
+        <v>0.01034313905984163</v>
       </c>
       <c r="T7" t="n">
-        <v>0.2116515040397644</v>
+        <v>0.03385379910469055</v>
       </c>
       <c r="U7" t="n">
-        <v>0.2325893044471741</v>
+        <v>0.007555441465228796</v>
       </c>
       <c r="V7" t="n">
-        <v>0.07399120181798935</v>
+        <v>0.006391515024006367</v>
       </c>
       <c r="W7" t="n">
-        <v>0.120860867202282</v>
+        <v>0.02482645213603973</v>
       </c>
       <c r="X7" t="n">
-        <v>0.05777394026517868</v>
+        <v>0.02858314104378223</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.051731176674366</v>
+        <v>0.02425513416528702</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.04332640022039413</v>
+        <v>0.02263618446886539</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.1522740870714188</v>
+        <v>0.02730206213891506</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.2000329494476318</v>
+        <v>0.02949817478656769</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.101434588432312</v>
+        <v>0.03371916711330414</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.1286171078681946</v>
+        <v>0.002557233907282352</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.3525843620300293</v>
+        <v>0.0003037154674530029</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.06537257879972458</v>
+        <v>0.01743646897375584</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.09214134514331818</v>
+        <v>0.03072576224803925</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.1963975578546524</v>
+        <v>0.01435126177966595</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.07938032597303391</v>
+        <v>0.01869674026966095</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.1874960064888</v>
+        <v>0.0008691729744896293</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.3642617464065552</v>
+        <v>0.003768033348023891</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.4656389653682709</v>
+        <v>0.007573921233415604</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.1660055816173553</v>
+        <v>0.003823973704129457</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.2258093953132629</v>
+        <v>0.007096875924617052</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.01622943952679634</v>
+        <v>0.02628292888402939</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.06494375318288803</v>
+        <v>0.01259885355830193</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.002120815217494965</v>
+        <v>0.02000569924712181</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.3697389364242554</v>
+        <v>0.006224758923053741</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.04866880178451538</v>
+        <v>0.0002093396615236998</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.9506102204322815</v>
+        <v>0.03636292368173599</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.5354352593421936</v>
+        <v>0.146221324801445</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.984311044216156</v>
+        <v>0.03243929147720337</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.003416076302528381</v>
+        <v>0.02804071642458439</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.1245675832033157</v>
+        <v>0.002317788545042276</v>
       </c>
       <c r="AY7" t="n">
-        <v>0.3739852011203766</v>
+        <v>0.01959264278411865</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0.5768216252326965</v>
+        <v>0.01504190638661385</v>
       </c>
       <c r="BA7" t="n">
-        <v>0.2259184420108795</v>
+        <v>0.03586947172880173</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.1529168337583542</v>
+        <v>0.008715385571122169</v>
       </c>
       <c r="BC7" t="n">
-        <v>0.1453215777873993</v>
+        <v>0.02135693095624447</v>
       </c>
       <c r="BD7" t="n">
-        <v>0.04423769190907478</v>
+        <v>0.04012979194521904</v>
       </c>
       <c r="BE7" t="n">
-        <v>0.2363030463457108</v>
+        <v>0.0505296103656292</v>
       </c>
       <c r="BF7" t="n">
-        <v>0.5686075091362</v>
+        <v>0.04198484122753143</v>
       </c>
       <c r="BG7" t="n">
-        <v>0.9338884949684143</v>
+        <v>0.07373012602329254</v>
       </c>
       <c r="BH7" t="n">
-        <v>0.001872260123491287</v>
+        <v>0.006059078499674797</v>
       </c>
       <c r="BI7" t="n">
-        <v>0.2765739262104034</v>
+        <v>0.001676063286140561</v>
       </c>
       <c r="BJ7" t="n">
-        <v>0.8340867161750793</v>
+        <v>0.03147873654961586</v>
       </c>
       <c r="BK7" t="n">
-        <v>0.1317326724529266</v>
+        <v>0.009639982134103775</v>
       </c>
       <c r="BL7" t="n">
-        <v>0.2189396023750305</v>
+        <v>0.04203542694449425</v>
       </c>
       <c r="BM7" t="n">
-        <v>0.3612329065799713</v>
+        <v>0.0250006765127182</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.3972804844379425</v>
+        <v>0.004576306324452162</v>
       </c>
       <c r="BO7" t="n">
-        <v>0.0001885741949081421</v>
+        <v>0.001438185339793563</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.2916866838932037</v>
+        <v>0.03503494709730148</v>
       </c>
       <c r="BQ7" t="n">
-        <v>0.4675972461700439</v>
+        <v>0.03196798264980316</v>
       </c>
       <c r="BR7" t="n">
-        <v>0.006603080779314041</v>
+        <v>0.002493998035788536</v>
       </c>
       <c r="BS7" t="n">
-        <v>0.2691732347011566</v>
+        <v>0.03052614443004131</v>
       </c>
       <c r="BT7" t="n">
-        <v>0.02089576609432697</v>
+        <v>0.01096908934414387</v>
       </c>
       <c r="BU7" t="n">
-        <v>0.8716543912887573</v>
+        <v>0.01637525483965874</v>
       </c>
       <c r="BV7" t="n">
-        <v>0.3698633313179016</v>
+        <v>0.06760682910680771</v>
       </c>
       <c r="BW7" t="n">
-        <v>0.3912334740161896</v>
+        <v>0.001704863971099257</v>
       </c>
       <c r="BX7" t="n">
-        <v>0.2485370635986328</v>
+        <v>0.01139496266841888</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.2269715517759323</v>
+        <v>0.02798764035105705</v>
       </c>
       <c r="BZ7" t="n">
-        <v>0.3883913159370422</v>
+        <v>0.008686572313308716</v>
       </c>
       <c r="CA7" t="n">
-        <v>0.1596031188964844</v>
+        <v>0.01910359598696232</v>
       </c>
       <c r="CB7" t="n">
-        <v>0.2192559540271759</v>
+        <v>0.01018070243299007</v>
       </c>
       <c r="CC7" t="n">
-        <v>0.03855124115943909</v>
+        <v>0.01144565921276808</v>
       </c>
       <c r="CD7" t="n">
-        <v>0.4280811548233032</v>
+        <v>0.009671144187450409</v>
       </c>
       <c r="CE7" t="n">
-        <v>0.4787744879722595</v>
+        <v>0.03628057613968849</v>
       </c>
       <c r="CF7" t="n">
-        <v>0.2191940248012543</v>
+        <v>0.01085347030311823</v>
       </c>
       <c r="CG7" t="n">
-        <v>0.1229578852653503</v>
+        <v>0.01578684709966183</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.2012627422809601</v>
+        <v>0.01099778804928064</v>
       </c>
       <c r="CI7" t="n">
-        <v>0.007566679269075394</v>
+        <v>0.003244753926992416</v>
       </c>
       <c r="CJ7" t="n">
-        <v>0.08186601847410202</v>
+        <v>0.005585497710853815</v>
       </c>
       <c r="CK7" t="n">
-        <v>0.01426945999264717</v>
+        <v>0.0006816466338932514</v>
       </c>
       <c r="CL7" t="n">
-        <v>0.05477293208241463</v>
+        <v>0.0110790403559804</v>
       </c>
       <c r="CM7" t="n">
-        <v>0.08783889561891556</v>
+        <v>0.04583197832107544</v>
       </c>
       <c r="CN7" t="n">
-        <v>0.1998220980167389</v>
+        <v>0.01160301268100739</v>
       </c>
       <c r="CO7" t="n">
-        <v>0.08376899361610413</v>
+        <v>0.002749607432633638</v>
       </c>
       <c r="CP7" t="n">
-        <v>0.08044523000717163</v>
+        <v>0.04284165799617767</v>
       </c>
       <c r="CQ7" t="n">
-        <v>0.3246134221553802</v>
+        <v>0.02743486315011978</v>
       </c>
       <c r="CR7" t="n">
-        <v>0.2464452683925629</v>
+        <v>0.02485749870538712</v>
       </c>
       <c r="CS7" t="n">
-        <v>0.5041866302490234</v>
+        <v>0.0384645015001297</v>
       </c>
       <c r="CT7" t="n">
-        <v>0.4055141508579254</v>
+        <v>0.03598625957965851</v>
       </c>
       <c r="CU7" t="n">
-        <v>0.08948361128568649</v>
+        <v>0.0009230673313140869</v>
       </c>
       <c r="CV7" t="n">
-        <v>0.3637198209762573</v>
+        <v>0.008189182728528976</v>
       </c>
       <c r="CW7" t="n">
-        <v>0.4661121964454651</v>
+        <v>0.0301639549434185</v>
       </c>
       <c r="CX7" t="n">
-        <v>0.2088571190834045</v>
+        <v>0.01804374158382416</v>
       </c>
       <c r="CY7" t="n">
-        <v>0.03054998628795147</v>
+        <v>0.02415004931390285</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.3460620939731598</v>
+        <v>0.0137040251865983</v>
       </c>
       <c r="DA7" t="n">
-        <v>0.01152599696069956</v>
+        <v>0.007356364279985428</v>
       </c>
       <c r="DB7" t="n">
-        <v>0.09869550168514252</v>
+        <v>0.00962124764919281</v>
       </c>
       <c r="DC7" t="n">
-        <v>0.01156999450176954</v>
+        <v>0.005457030609250069</v>
       </c>
       <c r="DD7" t="n">
-        <v>0.07261766493320465</v>
+        <v>0.007940929383039474</v>
       </c>
       <c r="DE7" t="n">
-        <v>0.1422070264816284</v>
+        <v>0.002582724438980222</v>
       </c>
       <c r="DF7" t="n">
-        <v>1.279289603233337</v>
+        <v>0.02181300520896912</v>
       </c>
       <c r="DG7" t="n">
-        <v>0.5547425150871277</v>
+        <v>0.03522058203816414</v>
       </c>
       <c r="DH7" t="n">
-        <v>0.2629396319389343</v>
+        <v>0.03821535035967827</v>
       </c>
       <c r="DI7" t="n">
-        <v>0.103850431740284</v>
+        <v>0.0502200573682785</v>
       </c>
       <c r="DJ7" t="n">
-        <v>0.03888504952192307</v>
+        <v>0.0005719028413295746</v>
       </c>
       <c r="DK7" t="n">
-        <v>0.2149927467107773</v>
+        <v>0.01579077169299126</v>
       </c>
       <c r="DL7" t="n">
-        <v>0.3357587456703186</v>
+        <v>0.02043694816529751</v>
       </c>
       <c r="DM7" t="n">
-        <v>0.2749958634376526</v>
+        <v>0.0205993540585041</v>
       </c>
       <c r="DN7" t="n">
-        <v>0.1817234754562378</v>
+        <v>0.003204920329153538</v>
       </c>
       <c r="DO7" t="n">
-        <v>0.4510067403316498</v>
+        <v>0.001021331991069019</v>
       </c>
       <c r="DP7" t="n">
-        <v>0.1620072722434998</v>
+        <v>0.008588102646172047</v>
       </c>
       <c r="DQ7" t="n">
-        <v>0.05973492562770844</v>
+        <v>0.01073708198964596</v>
       </c>
       <c r="DR7" t="n">
-        <v>0.04184427857398987</v>
+        <v>0.02664143964648247</v>
       </c>
       <c r="DS7" t="n">
-        <v>0.3053531348705292</v>
+        <v>0.02704992517828941</v>
       </c>
       <c r="DT7" t="n">
-        <v>0.05576068162918091</v>
+        <v>0.00546196848154068</v>
       </c>
       <c r="DU7" t="n">
-        <v>0.2480010390281677</v>
+        <v>0.02333905920386314</v>
       </c>
       <c r="DV7" t="n">
-        <v>0.1554298102855682</v>
+        <v>0.02106661908328533</v>
       </c>
       <c r="DW7" t="n">
-        <v>0.08437809348106384</v>
+        <v>0.000432761269621551</v>
       </c>
       <c r="DX7" t="n">
-        <v>0.09364298731088638</v>
+        <v>0.003576203947886825</v>
       </c>
       <c r="DY7" t="n">
-        <v>0.04889578372240067</v>
+        <v>0.0268834475427866</v>
       </c>
       <c r="DZ7" t="n">
-        <v>0.02045945823192596</v>
+        <v>0.01997370272874832</v>
       </c>
       <c r="EA7" t="n">
-        <v>0.3389363586902618</v>
+        <v>0.01664838939905167</v>
       </c>
       <c r="EB7" t="n">
-        <v>0.2568207085132599</v>
+        <v>0.01173282042145729</v>
       </c>
       <c r="EC7" t="n">
-        <v>0.03855433687567711</v>
+        <v>0.01106628309935331</v>
       </c>
       <c r="ED7" t="n">
-        <v>0.2672758102416992</v>
+        <v>0.0009457131964154541</v>
       </c>
       <c r="EE7" t="n">
-        <v>0.2549879252910614</v>
+        <v>0.002534389728680253</v>
       </c>
       <c r="EF7" t="n">
-        <v>0.5979741811752319</v>
+        <v>0.003131854347884655</v>
       </c>
       <c r="EG7" t="n">
-        <v>0.253192663192749</v>
+        <v>0.02990962937474251</v>
       </c>
       <c r="EH7" t="n">
-        <v>0.2349747121334076</v>
+        <v>0.02186927199363708</v>
       </c>
       <c r="EI7" t="n">
-        <v>0.1581178158521652</v>
+        <v>0.01233883574604988</v>
       </c>
       <c r="EJ7" t="n">
-        <v>0.2103118747472763</v>
+        <v>0.01901726238429546</v>
       </c>
       <c r="EK7" t="n">
-        <v>0.4582040905952454</v>
+        <v>0.01686590537428856</v>
       </c>
       <c r="EL7" t="n">
-        <v>0.06358101963996887</v>
+        <v>0.007581184152513742</v>
       </c>
       <c r="EM7" t="n">
-        <v>0.02885960973799229</v>
+        <v>0.004792780615389347</v>
       </c>
       <c r="EN7" t="n">
-        <v>0.1023652702569962</v>
+        <v>0.01065674237906933</v>
       </c>
       <c r="EO7" t="n">
-        <v>0.07087555527687073</v>
+        <v>0.00593449454754591</v>
       </c>
       <c r="EP7" t="n">
-        <v>0.5327246785163879</v>
+        <v>0.02493248321115971</v>
       </c>
       <c r="EQ7" t="n">
-        <v>0.2318631708621979</v>
+        <v>0.02658180519938469</v>
       </c>
       <c r="ER7" t="n">
-        <v>0.08549978584051132</v>
+        <v>0.004963744897395372</v>
       </c>
       <c r="ES7" t="n">
-        <v>0.399530291557312</v>
+        <v>0.01361383497714996</v>
       </c>
       <c r="ET7" t="n">
-        <v>0.3265051543712616</v>
+        <v>0.00501513946801424</v>
       </c>
       <c r="EU7" t="n">
-        <v>0.3404626846313477</v>
+        <v>0.02180363051593304</v>
       </c>
       <c r="EV7" t="n">
-        <v>0.2346557378768921</v>
+        <v>0.02412628941237926</v>
       </c>
       <c r="EW7" t="n">
-        <v>0.05206558108329773</v>
+        <v>0.01155446097254753</v>
       </c>
       <c r="EX7" t="n">
-        <v>0.4129331111907959</v>
+        <v>0.001663936418481171</v>
       </c>
       <c r="EY7" t="n">
-        <v>0.3767285346984863</v>
+        <v>0.03355708345770836</v>
       </c>
       <c r="EZ7" t="n">
-        <v>0.2286998182535172</v>
+        <v>0.008809327147901058</v>
       </c>
       <c r="FA7" t="n">
-        <v>0.0817386731505394</v>
+        <v>0.01904684491455555</v>
       </c>
       <c r="FB7" t="n">
-        <v>0.2882145643234253</v>
+        <v>0.01194653753191233</v>
       </c>
       <c r="FC7" t="n">
-        <v>0.1353375613689423</v>
+        <v>0.009071876294910908</v>
       </c>
       <c r="FD7" t="n">
-        <v>0.102902814745903</v>
+        <v>0.007900074124336243</v>
       </c>
       <c r="FE7" t="n">
-        <v>0.1208890378475189</v>
+        <v>0.002374876057729125</v>
       </c>
       <c r="FF7" t="n">
-        <v>0.06180683895945549</v>
+        <v>0.01252412330359221</v>
       </c>
       <c r="FG7" t="n">
-        <v>0.3086985647678375</v>
+        <v>0.002439312171190977</v>
       </c>
       <c r="FH7" t="n">
-        <v>0.1327955722808838</v>
+        <v>0.01996315084397793</v>
       </c>
       <c r="FI7" t="n">
-        <v>0.1655387580394745</v>
+        <v>0.02542897500097752</v>
       </c>
       <c r="FJ7" t="n">
-        <v>0.1525632441043854</v>
+        <v>0.02253589779138565</v>
       </c>
       <c r="FK7" t="n">
-        <v>0.1983588337898254</v>
+        <v>0.004577752202749252</v>
       </c>
       <c r="FL7" t="n">
-        <v>0.256395161151886</v>
+        <v>0.01502461731433868</v>
       </c>
       <c r="FM7" t="n">
-        <v>0.1193362399935722</v>
+        <v>0.0003128829412162304</v>
       </c>
       <c r="FN7" t="n">
-        <v>0.1743030995130539</v>
+        <v>0.003025338985025883</v>
       </c>
       <c r="FO7" t="n">
-        <v>0.2802139222621918</v>
+        <v>0.009784850291907787</v>
       </c>
       <c r="FP7" t="n">
-        <v>0.1619225740432739</v>
+        <v>0.006113780662417412</v>
       </c>
       <c r="FQ7" t="n">
-        <v>0.9397733211517334</v>
+        <v>0.02786080352962017</v>
       </c>
       <c r="FR7" t="n">
-        <v>0.02848148345947266</v>
+        <v>0.02817810885608196</v>
       </c>
       <c r="FS7" t="n">
-        <v>0.8032865524291992</v>
+        <v>0.009538163430988789</v>
       </c>
       <c r="FT7" t="n">
-        <v>0.3659009337425232</v>
+        <v>0.0008132150396704674</v>
       </c>
       <c r="FU7" t="n">
-        <v>0.09030882269144058</v>
+        <v>3.585312515497208e-05</v>
       </c>
       <c r="FV7" t="n">
-        <v>0.02800640091300011</v>
+        <v>0.008064324036240578</v>
       </c>
       <c r="FW7" t="n">
-        <v>0.393316388130188</v>
+        <v>0.004379838705062866</v>
       </c>
       <c r="FX7" t="n">
-        <v>0.0505097433924675</v>
+        <v>0.02326301857829094</v>
       </c>
       <c r="FY7" t="n">
-        <v>0.01284480839967728</v>
+        <v>0.0409526452422142</v>
       </c>
       <c r="FZ7" t="n">
-        <v>0.3279888033866882</v>
+        <v>0.02219239063560963</v>
       </c>
       <c r="GA7" t="n">
-        <v>0.1019903421401978</v>
+        <v>0.01295960880815983</v>
       </c>
       <c r="GB7" t="n">
-        <v>0.008411511778831482</v>
+        <v>0.01036203652620316</v>
       </c>
       <c r="GC7" t="n">
-        <v>0.753545880317688</v>
+        <v>0.01558264717459679</v>
       </c>
       <c r="GD7" t="n">
-        <v>0.2802385091781616</v>
+        <v>0.04828029870986938</v>
       </c>
       <c r="GE7" t="n">
-        <v>0.0229441225528717</v>
+        <v>0.0704038143157959</v>
       </c>
       <c r="GF7" t="n">
-        <v>0.2640097737312317</v>
+        <v>0.01050527766346931</v>
       </c>
       <c r="GG7" t="n">
-        <v>0.1277816742658615</v>
+        <v>0.02509148977696896</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.01395301707088947</v>
+        <v>0.007218755781650543</v>
       </c>
       <c r="B8" t="n">
-        <v>0.01812299340963364</v>
+        <v>0.05461560189723969</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1391567140817642</v>
+        <v>0.004401191603392363</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0069027254357934</v>
+        <v>0.02983341738581657</v>
       </c>
       <c r="E8" t="n">
-        <v>0.08290159702301025</v>
+        <v>0.007744882721453905</v>
       </c>
       <c r="F8" t="n">
-        <v>0.04381389543414116</v>
+        <v>0.03635438531637192</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01255530305206776</v>
+        <v>0.001835808856412768</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0182514600455761</v>
+        <v>0.01078577246516943</v>
       </c>
       <c r="I8" t="n">
-        <v>0.04553702473640442</v>
+        <v>0.002907509682700038</v>
       </c>
       <c r="J8" t="n">
-        <v>0.01362683158367872</v>
+        <v>0.01590303145349026</v>
       </c>
       <c r="K8" t="n">
-        <v>0.008470182307064533</v>
+        <v>0.04136510938405991</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1388193964958191</v>
+        <v>0.001151319360360503</v>
       </c>
       <c r="M8" t="n">
-        <v>0.008249358274042606</v>
+        <v>0.02711026556789875</v>
       </c>
       <c r="N8" t="n">
-        <v>0.05073723942041397</v>
+        <v>0.00818951427936554</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0245125088840723</v>
+        <v>0.03853334486484528</v>
       </c>
       <c r="P8" t="n">
-        <v>0.01675206795334816</v>
+        <v>0.001148332376033068</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.01377228833734989</v>
+        <v>0.003053740598261356</v>
       </c>
       <c r="R8" t="n">
-        <v>0.04369721189141273</v>
+        <v>0.001919570495374501</v>
       </c>
       <c r="S8" t="n">
-        <v>0.005575578194111586</v>
+        <v>0.00369997788220644</v>
       </c>
       <c r="T8" t="n">
-        <v>0.02579846233129501</v>
+        <v>0.007487220223993063</v>
       </c>
       <c r="U8" t="n">
-        <v>0.008554259315133095</v>
+        <v>0.003298550378531218</v>
       </c>
       <c r="V8" t="n">
-        <v>0.008915618062019348</v>
+        <v>0.005028887651860714</v>
       </c>
       <c r="W8" t="n">
-        <v>0.01199054159224033</v>
+        <v>0.002229802310466766</v>
       </c>
       <c r="X8" t="n">
-        <v>0.001764587708748877</v>
+        <v>0.003590089036151767</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.006466259714215994</v>
+        <v>0.006845231633633375</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.005727789364755154</v>
+        <v>0.004514435306191444</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.003707925789058208</v>
+        <v>0.006300732959061861</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.01204169448465109</v>
+        <v>0.0004200984258204699</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.006070243194699287</v>
+        <v>0.006092866882681847</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.03055696561932564</v>
+        <v>0.002311261836439371</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.003202888183295727</v>
+        <v>0.0001898912014439702</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.008829988539218903</v>
+        <v>0.002140944357961416</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.002977830823510885</v>
+        <v>0.00123286375310272</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.002814526669681072</v>
+        <v>0.003879040945321321</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.001114910352043808</v>
+        <v>0.002936735982075334</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.01651951484382153</v>
+        <v>0.001291328808292747</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.01175057422369719</v>
+        <v>0.004662847146391869</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.009387744590640068</v>
+        <v>0.00804592203348875</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.02664084918797016</v>
+        <v>0.003007578197866678</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.002425616141408682</v>
+        <v>0.002082114573568106</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.00717981206253171</v>
+        <v>0.002400475786998868</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.002558129373937845</v>
+        <v>0.006996718235313892</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.002938690828159451</v>
+        <v>0.001401613350026309</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.009012459777295589</v>
+        <v>0.002931518945842981</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.001995142549276352</v>
+        <v>0.007391604594886303</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.01039889547973871</v>
+        <v>0.004580902867019176</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.01021695788949728</v>
+        <v>0.03525631874799728</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.05581169575452805</v>
+        <v>0.00321524147875607</v>
       </c>
       <c r="AW8" t="n">
-        <v>0.001904951292090118</v>
+        <v>0.001091940677724779</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.01897716708481312</v>
+        <v>0.0004544354742392898</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.006832847837358713</v>
+        <v>0.0201130099594593</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.008607232943177223</v>
+        <v>0.000342424726113677</v>
       </c>
       <c r="BA8" t="n">
-        <v>0.001745752990245819</v>
+        <v>0.01126221753656864</v>
       </c>
       <c r="BB8" t="n">
-        <v>0.007017756812274456</v>
+        <v>0.0115499421954155</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.008388541638851166</v>
+        <v>0.009033763781189919</v>
       </c>
       <c r="BD8" t="n">
-        <v>0.002603816566988826</v>
+        <v>0.009994049556553364</v>
       </c>
       <c r="BE8" t="n">
-        <v>0.03987424820661545</v>
+        <v>0.01481299195438623</v>
       </c>
       <c r="BF8" t="n">
-        <v>0.002209734404459596</v>
+        <v>0.009418386034667492</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.0346682108938694</v>
+        <v>0.01680595800280571</v>
       </c>
       <c r="BH8" t="n">
-        <v>0.01570825278759003</v>
+        <v>0.010627631098032</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.001014458946883678</v>
+        <v>0.003358031855896115</v>
       </c>
       <c r="BJ8" t="n">
-        <v>0.01370741054415703</v>
+        <v>0.01315542962402105</v>
       </c>
       <c r="BK8" t="n">
-        <v>0.03161546215415001</v>
+        <v>0.0008801198564469814</v>
       </c>
       <c r="BL8" t="n">
-        <v>0.009939571842551231</v>
+        <v>0.00136219582054764</v>
       </c>
       <c r="BM8" t="n">
-        <v>0.003983467817306519</v>
+        <v>0.008215834386646748</v>
       </c>
       <c r="BN8" t="n">
-        <v>0.0330028124153614</v>
+        <v>0.006666149944067001</v>
       </c>
       <c r="BO8" t="n">
-        <v>0.001521745463833213</v>
+        <v>0.008240084163844585</v>
       </c>
       <c r="BP8" t="n">
-        <v>0.01528964098542929</v>
+        <v>0.0006994567811489105</v>
       </c>
       <c r="BQ8" t="n">
-        <v>0.003512482391670346</v>
+        <v>0.0001765235210768878</v>
       </c>
       <c r="BR8" t="n">
-        <v>0.008514586836099625</v>
+        <v>0.007033509202301502</v>
       </c>
       <c r="BS8" t="n">
-        <v>0.009385982528328896</v>
+        <v>0.001446625916287303</v>
       </c>
       <c r="BT8" t="n">
-        <v>0.002581177512183785</v>
+        <v>0.0003867013147100806</v>
       </c>
       <c r="BU8" t="n">
-        <v>0.01238169893622398</v>
+        <v>0.003000614698976278</v>
       </c>
       <c r="BV8" t="n">
-        <v>0.01139263063669205</v>
+        <v>0.01763598062098026</v>
       </c>
       <c r="BW8" t="n">
-        <v>0.03986561298370361</v>
+        <v>0.008367924951016903</v>
       </c>
       <c r="BX8" t="n">
-        <v>0.004007596988230944</v>
+        <v>0.005882951430976391</v>
       </c>
       <c r="BY8" t="n">
-        <v>0.03173959255218506</v>
+        <v>0.004799181595444679</v>
       </c>
       <c r="BZ8" t="n">
-        <v>0.02043589018285275</v>
+        <v>0.006247558631002903</v>
       </c>
       <c r="CA8" t="n">
-        <v>0.005372991785407066</v>
+        <v>0.005662478506565094</v>
       </c>
       <c r="CB8" t="n">
-        <v>0.007166425231844187</v>
+        <v>0.005225323140621185</v>
       </c>
       <c r="CC8" t="n">
-        <v>0.003576822113245726</v>
+        <v>0.008421776816248894</v>
       </c>
       <c r="CD8" t="n">
-        <v>0.005652794148772955</v>
+        <v>0.0003676622873172164</v>
       </c>
       <c r="CE8" t="n">
-        <v>0.006219612900167704</v>
+        <v>0.008879200555384159</v>
       </c>
       <c r="CF8" t="n">
-        <v>0.02490100637078285</v>
+        <v>0.007271755952388048</v>
       </c>
       <c r="CG8" t="n">
-        <v>0.002981322584673762</v>
+        <v>0.005336781963706017</v>
       </c>
       <c r="CH8" t="n">
-        <v>0.01359869539737701</v>
+        <v>0.003838079748675227</v>
       </c>
       <c r="CI8" t="n">
-        <v>0.008862517774105072</v>
+        <v>0.006465128622949123</v>
       </c>
       <c r="CJ8" t="n">
-        <v>0.003662963630631566</v>
+        <v>0.003169306088238955</v>
       </c>
       <c r="CK8" t="n">
-        <v>0.0004747393541038036</v>
+        <v>0.001688639749772847</v>
       </c>
       <c r="CL8" t="n">
-        <v>0.005623325705528259</v>
+        <v>0.004901373758912086</v>
       </c>
       <c r="CM8" t="n">
-        <v>0.01045110169798136</v>
+        <v>0.007015210576355457</v>
       </c>
       <c r="CN8" t="n">
-        <v>0.02248495817184448</v>
+        <v>0.001081138965673745</v>
       </c>
       <c r="CO8" t="n">
-        <v>0.002051342278718948</v>
+        <v>0.003305792342871428</v>
       </c>
       <c r="CP8" t="n">
-        <v>0.006438774056732655</v>
+        <v>0.006357442121952772</v>
       </c>
       <c r="CQ8" t="n">
-        <v>0.009928187355399132</v>
+        <v>0.001222084509208798</v>
       </c>
       <c r="CR8" t="n">
-        <v>0.01905667781829834</v>
+        <v>0.0001456254394724965</v>
       </c>
       <c r="CS8" t="n">
-        <v>0.002065581269562244</v>
+        <v>0.00606158934533596</v>
       </c>
       <c r="CT8" t="n">
-        <v>0.004892215598374605</v>
+        <v>0.005938970483839512</v>
       </c>
       <c r="CU8" t="n">
-        <v>0.007205824367702007</v>
+        <v>0.0003328912134747952</v>
       </c>
       <c r="CV8" t="n">
-        <v>0.006319819949567318</v>
+        <v>0.0005114569212310016</v>
       </c>
       <c r="CW8" t="n">
-        <v>0.005410227924585342</v>
+        <v>0.007957130670547485</v>
       </c>
       <c r="CX8" t="n">
-        <v>0.0273495614528656</v>
+        <v>0.006999832578003407</v>
       </c>
       <c r="CY8" t="n">
-        <v>0.00384744512848556</v>
+        <v>0.007952043786644936</v>
       </c>
       <c r="CZ8" t="n">
-        <v>0.02036304213106632</v>
+        <v>0.003531452734023333</v>
       </c>
       <c r="DA8" t="n">
-        <v>0.00828632153570652</v>
+        <v>0.00703863613307476</v>
       </c>
       <c r="DB8" t="n">
-        <v>0.002742391778156161</v>
+        <v>0.003062532050535083</v>
       </c>
       <c r="DC8" t="n">
-        <v>0.001557404990307987</v>
+        <v>0.004940298851579428</v>
       </c>
       <c r="DD8" t="n">
-        <v>0.006297124084085226</v>
+        <v>0.003364247037097812</v>
       </c>
       <c r="DE8" t="n">
-        <v>0.002129269996657968</v>
+        <v>0.001462456770241261</v>
       </c>
       <c r="DF8" t="n">
-        <v>0.01060680113732815</v>
+        <v>0.01026070769876242</v>
       </c>
       <c r="DG8" t="n">
-        <v>0.01620914600789547</v>
+        <v>0.001987850526347756</v>
       </c>
       <c r="DH8" t="n">
-        <v>0.001580841722898185</v>
+        <v>0.01974758878350258</v>
       </c>
       <c r="DI8" t="n">
-        <v>0.00221551232971251</v>
+        <v>0.003685611300170422</v>
       </c>
       <c r="DJ8" t="n">
-        <v>0.0005238484591245651</v>
+        <v>0.003176820231601596</v>
       </c>
       <c r="DK8" t="n">
-        <v>0.004780590068548918</v>
+        <v>0.008199616335332394</v>
       </c>
       <c r="DL8" t="n">
-        <v>0.01101592276245356</v>
+        <v>0.008430884219706059</v>
       </c>
       <c r="DM8" t="n">
-        <v>0.003753733588382602</v>
+        <v>0.002997552510350943</v>
       </c>
       <c r="DN8" t="n">
-        <v>0.003376390784978867</v>
+        <v>0.0004863738140556961</v>
       </c>
       <c r="DO8" t="n">
-        <v>0.01104265078902245</v>
+        <v>0.00171412224881351</v>
       </c>
       <c r="DP8" t="n">
-        <v>0.00550947105512023</v>
+        <v>0.004393508657813072</v>
       </c>
       <c r="DQ8" t="n">
-        <v>0.004863353446125984</v>
+        <v>0.00431794673204422</v>
       </c>
       <c r="DR8" t="n">
-        <v>0.007050216197967529</v>
+        <v>0.003621190320700407</v>
       </c>
       <c r="DS8" t="n">
-        <v>0.0100278127938509</v>
+        <v>0.0005842770333401859</v>
       </c>
       <c r="DT8" t="n">
-        <v>0.004518618807196617</v>
+        <v>0.00249043689109385</v>
       </c>
       <c r="DU8" t="n">
-        <v>0.004369956906884909</v>
+        <v>0.0004490301362238824</v>
       </c>
       <c r="DV8" t="n">
-        <v>0.001795479794964194</v>
+        <v>0.007487136404961348</v>
       </c>
       <c r="DW8" t="n">
-        <v>0.002609821036458015</v>
+        <v>0.0017088569002226</v>
       </c>
       <c r="DX8" t="n">
-        <v>0.0007545097032561898</v>
+        <v>0.004011516459286213</v>
       </c>
       <c r="DY8" t="n">
-        <v>0.02003194205462933</v>
+        <v>0.008920732885599136</v>
       </c>
       <c r="DZ8" t="n">
-        <v>0.01127536967396736</v>
+        <v>2.646772190928459e-05</v>
       </c>
       <c r="EA8" t="n">
-        <v>0.0147537998855114</v>
+        <v>0.002699265955016017</v>
       </c>
       <c r="EB8" t="n">
-        <v>0.005021721590310335</v>
+        <v>0.003958108834922314</v>
       </c>
       <c r="EC8" t="n">
-        <v>0.005669642239809036</v>
+        <v>0.000567487848456949</v>
       </c>
       <c r="ED8" t="n">
-        <v>0.0007456013117916882</v>
+        <v>0.002996620023623109</v>
       </c>
       <c r="EE8" t="n">
-        <v>0.01009123399853706</v>
+        <v>0.000716358597856015</v>
       </c>
       <c r="EF8" t="n">
-        <v>0.006200633011758327</v>
+        <v>0.003759102430194616</v>
       </c>
       <c r="EG8" t="n">
-        <v>0.01357401069253683</v>
+        <v>0.005547748412936926</v>
       </c>
       <c r="EH8" t="n">
-        <v>0.02924444526433945</v>
+        <v>0.005228772759437561</v>
       </c>
       <c r="EI8" t="n">
-        <v>0.006158445030450821</v>
+        <v>0.001059953472577035</v>
       </c>
       <c r="EJ8" t="n">
-        <v>0.01564310677349567</v>
+        <v>0.001074762432835996</v>
       </c>
       <c r="EK8" t="n">
-        <v>0.0259757824242115</v>
+        <v>0.005157124251127243</v>
       </c>
       <c r="EL8" t="n">
-        <v>0.00389356049709022</v>
+        <v>0.005802891682833433</v>
       </c>
       <c r="EM8" t="n">
-        <v>0.007245860993862152</v>
+        <v>0.0003692242607939988</v>
       </c>
       <c r="EN8" t="n">
-        <v>0.005492433439940214</v>
+        <v>0.001258969423361123</v>
       </c>
       <c r="EO8" t="n">
-        <v>0.002928328467532992</v>
+        <v>0.001527480082586408</v>
       </c>
       <c r="EP8" t="n">
-        <v>0.0105477599427104</v>
+        <v>0.003339594230055809</v>
       </c>
       <c r="EQ8" t="n">
-        <v>0.0176243968307972</v>
+        <v>0.007612292189151049</v>
       </c>
       <c r="ER8" t="n">
-        <v>0.008756534196436405</v>
+        <v>0.005116850137710571</v>
       </c>
       <c r="ES8" t="n">
-        <v>0.005690666846930981</v>
+        <v>0.005368432495743036</v>
       </c>
       <c r="ET8" t="n">
-        <v>0.002839272376149893</v>
+        <v>0.007105207536369562</v>
       </c>
       <c r="EU8" t="n">
-        <v>0.008072101511061192</v>
+        <v>0.006582652218639851</v>
       </c>
       <c r="EV8" t="n">
-        <v>0.001223231665790081</v>
+        <v>0.008581720292568207</v>
       </c>
       <c r="EW8" t="n">
-        <v>0.01120294816792011</v>
+        <v>0.0002583012101240456</v>
       </c>
       <c r="EX8" t="n">
-        <v>0.01077457051724195</v>
+        <v>0.0008334147278219461</v>
       </c>
       <c r="EY8" t="n">
-        <v>0.003939697984606028</v>
+        <v>0.007494660560041666</v>
       </c>
       <c r="EZ8" t="n">
-        <v>0.02718335017561913</v>
+        <v>0.005510799586772919</v>
       </c>
       <c r="FA8" t="n">
-        <v>0.001140169450081885</v>
+        <v>0.006478347815573215</v>
       </c>
       <c r="FB8" t="n">
-        <v>0.01646983437240124</v>
+        <v>0.004320628941059113</v>
       </c>
       <c r="FC8" t="n">
-        <v>0.003606526646763086</v>
+        <v>0.005572123453021049</v>
       </c>
       <c r="FD8" t="n">
-        <v>0.002252026461064816</v>
+        <v>0.00529217766597867</v>
       </c>
       <c r="FE8" t="n">
-        <v>0.002972760936245322</v>
+        <v>0.002675909083336592</v>
       </c>
       <c r="FF8" t="n">
-        <v>0.006647379603236914</v>
+        <v>0.005557161755859852</v>
       </c>
       <c r="FG8" t="n">
-        <v>0.009062226861715317</v>
+        <v>0.0008779282215982676</v>
       </c>
       <c r="FH8" t="n">
-        <v>0.005174026824533939</v>
+        <v>0.004072945564985275</v>
       </c>
       <c r="FI8" t="n">
-        <v>0.01436638925224543</v>
+        <v>0.006841674447059631</v>
       </c>
       <c r="FJ8" t="n">
-        <v>0.0343436636030674</v>
+        <v>0.007774768862873316</v>
       </c>
       <c r="FK8" t="n">
-        <v>0.02357649244368076</v>
+        <v>0.00278412620536983</v>
       </c>
       <c r="FL8" t="n">
-        <v>0.002937533427029848</v>
+        <v>0.004519511479884386</v>
       </c>
       <c r="FM8" t="n">
-        <v>0.001699850894510746</v>
+        <v>0.003232197836041451</v>
       </c>
       <c r="FN8" t="n">
-        <v>0.0001413671707268804</v>
+        <v>0.002293246332556009</v>
       </c>
       <c r="FO8" t="n">
-        <v>0.005416883155703545</v>
+        <v>0.003861743956804276</v>
       </c>
       <c r="FP8" t="n">
-        <v>0.0009471587836742401</v>
+        <v>0.002447091042995453</v>
       </c>
       <c r="FQ8" t="n">
-        <v>0.04570097848773003</v>
+        <v>0.009151868522167206</v>
       </c>
       <c r="FR8" t="n">
-        <v>0.02218825742602348</v>
+        <v>0.004689530469477177</v>
       </c>
       <c r="FS8" t="n">
-        <v>0.01556289754807949</v>
+        <v>0.0110440868884325</v>
       </c>
       <c r="FT8" t="n">
-        <v>0.02186486683785915</v>
+        <v>0.009517543949186802</v>
       </c>
       <c r="FU8" t="n">
-        <v>0.01475608721375465</v>
+        <v>0.004299065098166466</v>
       </c>
       <c r="FV8" t="n">
-        <v>0.0004110231529921293</v>
+        <v>0.003908136859536171</v>
       </c>
       <c r="FW8" t="n">
-        <v>0.003000309458002448</v>
+        <v>0.004093077965080738</v>
       </c>
       <c r="FX8" t="n">
-        <v>0.005626184865832329</v>
+        <v>0.001285971608012915</v>
       </c>
       <c r="FY8" t="n">
-        <v>0.003533448092639446</v>
+        <v>0.0105725210160017</v>
       </c>
       <c r="FZ8" t="n">
-        <v>0.01133552193641663</v>
+        <v>0.0003718350199051201</v>
       </c>
       <c r="GA8" t="n">
-        <v>0.01210295502096415</v>
+        <v>0.001614247681573033</v>
       </c>
       <c r="GB8" t="n">
-        <v>0.003680438967421651</v>
+        <v>0.0005998066626489162</v>
       </c>
       <c r="GC8" t="n">
-        <v>0.02224361151456833</v>
+        <v>0.002987996209412813</v>
       </c>
       <c r="GD8" t="n">
-        <v>0.01796203479170799</v>
+        <v>0.005028645507991314</v>
       </c>
       <c r="GE8" t="n">
-        <v>0.002461371012032032</v>
+        <v>0.02557180821895599</v>
       </c>
       <c r="GF8" t="n">
-        <v>0.01101752743124962</v>
+        <v>0.001850734348408878</v>
       </c>
       <c r="GG8" t="n">
-        <v>0.004942562896758318</v>
+        <v>0.003592755878344178</v>
       </c>
     </row>
     <row r="9">
@@ -5556,2278 +5556,2278 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.001751585863530636</v>
+        <v>0.4218282699584961</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0004989636363461614</v>
+        <v>1.097612857818604</v>
       </c>
       <c r="C10" t="n">
-        <v>0.006197393871843815</v>
+        <v>0.1600079238414764</v>
       </c>
       <c r="D10" t="n">
-        <v>0.001304948003962636</v>
+        <v>0.1131145060062408</v>
       </c>
       <c r="E10" t="n">
-        <v>0.004970535170286894</v>
+        <v>0.2645275294780731</v>
       </c>
       <c r="F10" t="n">
-        <v>0.002417841693386436</v>
+        <v>0.1831982135772705</v>
       </c>
       <c r="G10" t="n">
-        <v>0.002396608935669065</v>
+        <v>0.01235455274581909</v>
       </c>
       <c r="H10" t="n">
-        <v>0.002041286788880825</v>
+        <v>0.6468414664268494</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0001432550343452021</v>
+        <v>0.09353452920913696</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0007331561064347625</v>
+        <v>0.3090660274028778</v>
       </c>
       <c r="K10" t="n">
-        <v>2.52260360866785e-05</v>
+        <v>0.9580173492431641</v>
       </c>
       <c r="L10" t="n">
-        <v>0.00731526967138052</v>
+        <v>0.09183251112699509</v>
       </c>
       <c r="M10" t="n">
-        <v>0.001494765048846602</v>
+        <v>0.009680449962615967</v>
       </c>
       <c r="N10" t="n">
-        <v>0.003321492346003652</v>
+        <v>0.1686122715473175</v>
       </c>
       <c r="O10" t="n">
-        <v>0.0006136730662547052</v>
+        <v>0.1918127685785294</v>
       </c>
       <c r="P10" t="n">
-        <v>0.002736167749390006</v>
+        <v>0.01930278539657593</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.001582845347002149</v>
+        <v>0.8240554928779602</v>
       </c>
       <c r="R10" t="n">
-        <v>0.001135395024903119</v>
+        <v>0.3568995296955109</v>
       </c>
       <c r="S10" t="n">
-        <v>0.001706931623630226</v>
+        <v>0.1513089388608932</v>
       </c>
       <c r="T10" t="n">
-        <v>7.06702412571758e-05</v>
+        <v>0.06259334087371826</v>
       </c>
       <c r="U10" t="n">
-        <v>1.683803566265851e-05</v>
+        <v>0.05914756655693054</v>
       </c>
       <c r="V10" t="n">
-        <v>0.0005829102010466158</v>
+        <v>0.2263971567153931</v>
       </c>
       <c r="W10" t="n">
-        <v>0.0005431707832030952</v>
+        <v>0.02615055255591869</v>
       </c>
       <c r="X10" t="n">
-        <v>4.994453774997965e-07</v>
+        <v>0.1327045261859894</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.0003042418975383043</v>
+        <v>0.09035459160804749</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.0009442768641747534</v>
+        <v>0.2093869745731354</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.001127296360209584</v>
+        <v>0.03793538734316826</v>
       </c>
       <c r="AB10" t="n">
-        <v>0.0009208058472722769</v>
+        <v>0.09831631928682327</v>
       </c>
       <c r="AC10" t="n">
-        <v>0.0008195661357603967</v>
+        <v>0.205690786242485</v>
       </c>
       <c r="AD10" t="n">
-        <v>0.0005386780831031501</v>
+        <v>0.2030943334102631</v>
       </c>
       <c r="AE10" t="n">
-        <v>0.001028902130201459</v>
+        <v>0.008347038179636002</v>
       </c>
       <c r="AF10" t="n">
-        <v>0.0007826871005818248</v>
+        <v>0.202234223484993</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.0003606076934374869</v>
+        <v>0.02513659372925758</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.0009796840604394674</v>
+        <v>0.1010961830615997</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.001244966057129204</v>
+        <v>0.1918756514787674</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0.0003853250236716121</v>
+        <v>0.0007533431053161621</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.0006633650045841932</v>
+        <v>0.3919606804847717</v>
       </c>
       <c r="AL10" t="n">
-        <v>0.001227970351465046</v>
+        <v>0.06326981633901596</v>
       </c>
       <c r="AM10" t="n">
-        <v>0.001112837926484644</v>
+        <v>0.07321920990943909</v>
       </c>
       <c r="AN10" t="n">
-        <v>0.0002121871948475018</v>
+        <v>0.0460294783115387</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.001321538118645549</v>
+        <v>0.1866647154092789</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.0005016563227400184</v>
+        <v>0.006123547907918692</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.0003717420622706413</v>
+        <v>0.09886832535266876</v>
       </c>
       <c r="AR10" t="n">
-        <v>0.0002641450555529445</v>
+        <v>0.01706821098923683</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.00107825337909162</v>
+        <v>0.1013741791248322</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.001816548989154398</v>
+        <v>0.05900658667087555</v>
       </c>
       <c r="AU10" t="n">
-        <v>0.002618389204144478</v>
+        <v>1.18938410282135</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.002287075389176607</v>
+        <v>0.05269061028957367</v>
       </c>
       <c r="AW10" t="n">
-        <v>0.001068621058948338</v>
+        <v>0.1195570826530457</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.00218381523154676</v>
+        <v>0.1783644407987595</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.001123687950894237</v>
+        <v>0.1121475175023079</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0.000858183775562793</v>
+        <v>0.05327417701482773</v>
       </c>
       <c r="BA10" t="n">
-        <v>0.00452900119125843</v>
+        <v>0.03004528768360615</v>
       </c>
       <c r="BB10" t="n">
-        <v>0.002494139363989234</v>
+        <v>0.09304144233465195</v>
       </c>
       <c r="BC10" t="n">
-        <v>0.001615351531654596</v>
+        <v>0.1875386536121368</v>
       </c>
       <c r="BD10" t="n">
-        <v>0.00142660504207015</v>
+        <v>0.3914834260940552</v>
       </c>
       <c r="BE10" t="n">
-        <v>0.00120869860984385</v>
+        <v>0.4203449189662933</v>
       </c>
       <c r="BF10" t="n">
-        <v>0.0004119543300475925</v>
+        <v>0.3196893930435181</v>
       </c>
       <c r="BG10" t="n">
-        <v>0.004049068316817284</v>
+        <v>0.2924729287624359</v>
       </c>
       <c r="BH10" t="n">
-        <v>0.001660209381952882</v>
+        <v>0.06838728487491608</v>
       </c>
       <c r="BI10" t="n">
-        <v>0.0008355304016731679</v>
+        <v>0.2336067706346512</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0.002472041407600045</v>
+        <v>0.3763871192932129</v>
       </c>
       <c r="BK10" t="n">
-        <v>0.001422191155143082</v>
+        <v>0.01928908564150333</v>
       </c>
       <c r="BL10" t="n">
-        <v>0.0001946743141161278</v>
+        <v>0.1182264983654022</v>
       </c>
       <c r="BM10" t="n">
-        <v>0.002141587203368545</v>
+        <v>0.881822407245636</v>
       </c>
       <c r="BN10" t="n">
-        <v>0.001068597543053329</v>
+        <v>0.0634811744093895</v>
       </c>
       <c r="BO10" t="n">
-        <v>0.001192697673104703</v>
+        <v>0.4590972065925598</v>
       </c>
       <c r="BP10" t="n">
-        <v>0.0006374488002620637</v>
+        <v>0.6704460382461548</v>
       </c>
       <c r="BQ10" t="n">
-        <v>6.637970363954082e-05</v>
+        <v>0.09304090589284897</v>
       </c>
       <c r="BR10" t="n">
-        <v>0.000127464096294716</v>
+        <v>0.1860586404800415</v>
       </c>
       <c r="BS10" t="n">
-        <v>0.0001532727619633079</v>
+        <v>0.3117288053035736</v>
       </c>
       <c r="BT10" t="n">
-        <v>0.0004941297229379416</v>
+        <v>0.01159706525504589</v>
       </c>
       <c r="BU10" t="n">
-        <v>0.00110620295163244</v>
+        <v>0.01806224882602692</v>
       </c>
       <c r="BV10" t="n">
-        <v>0.001237519667483866</v>
+        <v>0.5731280446052551</v>
       </c>
       <c r="BW10" t="n">
-        <v>0.002489185892045498</v>
+        <v>0.2185289710760117</v>
       </c>
       <c r="BX10" t="n">
-        <v>0.0001748382055666298</v>
+        <v>0.08393403887748718</v>
       </c>
       <c r="BY10" t="n">
-        <v>0.0004280214780010283</v>
+        <v>0.2122927606105804</v>
       </c>
       <c r="BZ10" t="n">
-        <v>0.0005811395240016282</v>
+        <v>0.1507429629564285</v>
       </c>
       <c r="CA10" t="n">
-        <v>0.0002439595846226439</v>
+        <v>0.3061491250991821</v>
       </c>
       <c r="CB10" t="n">
-        <v>0.001745385234244168</v>
+        <v>0.01962251588702202</v>
       </c>
       <c r="CC10" t="n">
-        <v>0.0008837584755383432</v>
+        <v>0.05008070915937424</v>
       </c>
       <c r="CD10" t="n">
-        <v>7.087321137078106e-05</v>
+        <v>0.006699668243527412</v>
       </c>
       <c r="CE10" t="n">
-        <v>0.001235775067470968</v>
+        <v>0.1904750764369965</v>
       </c>
       <c r="CF10" t="n">
-        <v>0.000970388064160943</v>
+        <v>0.09336689114570618</v>
       </c>
       <c r="CG10" t="n">
-        <v>0.0008959582191891968</v>
+        <v>0.01821444928646088</v>
       </c>
       <c r="CH10" t="n">
-        <v>0.0008512283675372601</v>
+        <v>0.0757630467414856</v>
       </c>
       <c r="CI10" t="n">
-        <v>0.0003846221370622516</v>
+        <v>0.1450636833906174</v>
       </c>
       <c r="CJ10" t="n">
-        <v>0.0003317503724247217</v>
+        <v>0.003286534920334816</v>
       </c>
       <c r="CK10" t="n">
-        <v>0.0005803555832244456</v>
+        <v>0.1381560564041138</v>
       </c>
       <c r="CL10" t="n">
-        <v>0.0002028685412369668</v>
+        <v>0.102035328745842</v>
       </c>
       <c r="CM10" t="n">
-        <v>0.001373926876112819</v>
+        <v>0.5548542141914368</v>
       </c>
       <c r="CN10" t="n">
-        <v>0.001590993721038103</v>
+        <v>0.8153091073036194</v>
       </c>
       <c r="CO10" t="n">
-        <v>0.000387721840525046</v>
+        <v>0.08216622471809387</v>
       </c>
       <c r="CP10" t="n">
-        <v>0.000666700245346874</v>
+        <v>0.3660366237163544</v>
       </c>
       <c r="CQ10" t="n">
-        <v>0.001295003574341536</v>
+        <v>0.5465689897537231</v>
       </c>
       <c r="CR10" t="n">
-        <v>0.0006310257012955844</v>
+        <v>0.09869691729545593</v>
       </c>
       <c r="CS10" t="n">
-        <v>0.001823065336793661</v>
+        <v>0.03476992249488831</v>
       </c>
       <c r="CT10" t="n">
-        <v>0.001971709541976452</v>
+        <v>0.1829895228147507</v>
       </c>
       <c r="CU10" t="n">
-        <v>0.0004888031398877501</v>
+        <v>0.08140429109334946</v>
       </c>
       <c r="CV10" t="n">
-        <v>0.0002815533371176571</v>
+        <v>0.0248570404946804</v>
       </c>
       <c r="CW10" t="n">
-        <v>0.001558836898766458</v>
+        <v>0.1442253738641739</v>
       </c>
       <c r="CX10" t="n">
-        <v>0.001253728521987796</v>
+        <v>0.1206112056970596</v>
       </c>
       <c r="CY10" t="n">
-        <v>0.0007390538812614977</v>
+        <v>0.09274818748235703</v>
       </c>
       <c r="CZ10" t="n">
-        <v>0.001056843204423785</v>
+        <v>0.04503149539232254</v>
       </c>
       <c r="DA10" t="n">
-        <v>0.0006987618398852646</v>
+        <v>0.1241963282227516</v>
       </c>
       <c r="DB10" t="n">
-        <v>0.0001535238116048276</v>
+        <v>0.01485391706228256</v>
       </c>
       <c r="DC10" t="n">
-        <v>0.0003020300064235926</v>
+        <v>0.04204763472080231</v>
       </c>
       <c r="DD10" t="n">
-        <v>0.0001109364529838786</v>
+        <v>0.06810405850410461</v>
       </c>
       <c r="DE10" t="n">
-        <v>0.00137525680474937</v>
+        <v>0.5295017957687378</v>
       </c>
       <c r="DF10" t="n">
-        <v>0.0008815533947199583</v>
+        <v>0.2534143328666687</v>
       </c>
       <c r="DG10" t="n">
-        <v>0.0002754595479927957</v>
+        <v>0.0569302886724472</v>
       </c>
       <c r="DH10" t="n">
-        <v>0.002145030535757542</v>
+        <v>0.8010786175727844</v>
       </c>
       <c r="DI10" t="n">
-        <v>0.0003351526975166053</v>
+        <v>0.03323888033628464</v>
       </c>
       <c r="DJ10" t="n">
-        <v>0.001992748817428946</v>
+        <v>0.05292979627847672</v>
       </c>
       <c r="DK10" t="n">
-        <v>9.872180817183107e-05</v>
+        <v>0.5615151524543762</v>
       </c>
       <c r="DL10" t="n">
-        <v>0.0002667747030500323</v>
+        <v>0.1316789388656616</v>
       </c>
       <c r="DM10" t="n">
-        <v>0.0007263742154464126</v>
+        <v>0.03681455552577972</v>
       </c>
       <c r="DN10" t="n">
-        <v>0.0003535662544891238</v>
+        <v>0.2210229486227036</v>
       </c>
       <c r="DO10" t="n">
-        <v>0.0001750514784362167</v>
+        <v>0.2948979437351227</v>
       </c>
       <c r="DP10" t="n">
-        <v>0.0004197084053885192</v>
+        <v>0.1193618327379227</v>
       </c>
       <c r="DQ10" t="n">
-        <v>0.0003912290558218956</v>
+        <v>0.2580579221248627</v>
       </c>
       <c r="DR10" t="n">
-        <v>0.000153757311636582</v>
+        <v>0.0075570666231215</v>
       </c>
       <c r="DS10" t="n">
-        <v>0.001235864823684096</v>
+        <v>0.02320260182023048</v>
       </c>
       <c r="DT10" t="n">
-        <v>8.986907778307796e-05</v>
+        <v>0.05404692888259888</v>
       </c>
       <c r="DU10" t="n">
-        <v>0.0004742749442812055</v>
+        <v>0.2586784064769745</v>
       </c>
       <c r="DV10" t="n">
-        <v>0.0009623850928619504</v>
+        <v>0.03308502584695816</v>
       </c>
       <c r="DW10" t="n">
-        <v>0.0001727262861095369</v>
+        <v>0.1137929335236549</v>
       </c>
       <c r="DX10" t="n">
-        <v>9.094216511584818e-05</v>
+        <v>0.182535782456398</v>
       </c>
       <c r="DY10" t="n">
-        <v>0.0001717052946332842</v>
+        <v>0.1031900644302368</v>
       </c>
       <c r="DZ10" t="n">
-        <v>0.001945753581821918</v>
+        <v>0.2331858575344086</v>
       </c>
       <c r="EA10" t="n">
-        <v>0.0008544957381673157</v>
+        <v>0.003971700556576252</v>
       </c>
       <c r="EB10" t="n">
-        <v>0.00156160129699856</v>
+        <v>0.2722679972648621</v>
       </c>
       <c r="EC10" t="n">
-        <v>0.0005847911816090345</v>
+        <v>0.2432682663202286</v>
       </c>
       <c r="ED10" t="n">
-        <v>0.001236300449818373</v>
+        <v>0.08900748193264008</v>
       </c>
       <c r="EE10" t="n">
-        <v>1.581756077939644e-05</v>
+        <v>0.0500255674123764</v>
       </c>
       <c r="EF10" t="n">
-        <v>0.0006381897255778313</v>
+        <v>0.08144775032997131</v>
       </c>
       <c r="EG10" t="n">
-        <v>0.00012271772720851</v>
+        <v>0.08629029989242554</v>
       </c>
       <c r="EH10" t="n">
-        <v>0.001911214203573763</v>
+        <v>0.02912984788417816</v>
       </c>
       <c r="EI10" t="n">
-        <v>0.0008533483487553895</v>
+        <v>0.2715325951576233</v>
       </c>
       <c r="EJ10" t="n">
-        <v>0.001865395228378475</v>
+        <v>0.009365865029394627</v>
       </c>
       <c r="EK10" t="n">
-        <v>0.001607433659955859</v>
+        <v>0.06605345755815506</v>
       </c>
       <c r="EL10" t="n">
-        <v>0.0003077212022617459</v>
+        <v>0.01431284099817276</v>
       </c>
       <c r="EM10" t="n">
-        <v>0.0002884506247937679</v>
+        <v>0.1047897189855576</v>
       </c>
       <c r="EN10" t="n">
-        <v>0.001052023260854185</v>
+        <v>0.1085756495594978</v>
       </c>
       <c r="EO10" t="n">
-        <v>0.0003992238780483603</v>
+        <v>0.2155562490224838</v>
       </c>
       <c r="EP10" t="n">
-        <v>0.003211011178791523</v>
+        <v>0.04546145722270012</v>
       </c>
       <c r="EQ10" t="n">
-        <v>0.0005296142189763486</v>
+        <v>0.1181753873825073</v>
       </c>
       <c r="ER10" t="n">
-        <v>0.0002069955226033926</v>
+        <v>0.01438345387578011</v>
       </c>
       <c r="ES10" t="n">
-        <v>0.001299883704632521</v>
+        <v>0.06224359571933746</v>
       </c>
       <c r="ET10" t="n">
-        <v>0.000323537562508136</v>
+        <v>0.1501217037439346</v>
       </c>
       <c r="EU10" t="n">
-        <v>0.001093476894311607</v>
+        <v>0.1624824702739716</v>
       </c>
       <c r="EV10" t="n">
-        <v>0.001342067262157798</v>
+        <v>0.2604555785655975</v>
       </c>
       <c r="EW10" t="n">
-        <v>0.0004858981119468808</v>
+        <v>0.05775105208158493</v>
       </c>
       <c r="EX10" t="n">
-        <v>9.045057231560349e-05</v>
+        <v>0.008257470093667507</v>
       </c>
       <c r="EY10" t="n">
-        <v>0.001242344849742949</v>
+        <v>0.1290307641029358</v>
       </c>
       <c r="EZ10" t="n">
-        <v>0.001033766893669963</v>
+        <v>0.05567165464162827</v>
       </c>
       <c r="FA10" t="n">
-        <v>0.0007203601999208331</v>
+        <v>0.04049121588468552</v>
       </c>
       <c r="FB10" t="n">
-        <v>0.001247383421286941</v>
+        <v>0.02597673423588276</v>
       </c>
       <c r="FC10" t="n">
-        <v>0.0005097485845908523</v>
+        <v>0.132136270403862</v>
       </c>
       <c r="FD10" t="n">
-        <v>0.0003082964976783842</v>
+        <v>0.06347159296274185</v>
       </c>
       <c r="FE10" t="n">
-        <v>7.569760782644153e-07</v>
+        <v>0.1554137170314789</v>
       </c>
       <c r="FF10" t="n">
-        <v>9.8622047516983e-05</v>
+        <v>0.09933213889598846</v>
       </c>
       <c r="FG10" t="n">
-        <v>0.0004854278522543609</v>
+        <v>0.08356215059757233</v>
       </c>
       <c r="FH10" t="n">
-        <v>0.0002122356090694666</v>
+        <v>0.01475138124078512</v>
       </c>
       <c r="FI10" t="n">
-        <v>0.0009672553860582411</v>
+        <v>0.1054864749312401</v>
       </c>
       <c r="FJ10" t="n">
-        <v>0.0005093021900393069</v>
+        <v>0.01828937977552414</v>
       </c>
       <c r="FK10" t="n">
-        <v>0.001226327032782137</v>
+        <v>0.1143063604831696</v>
       </c>
       <c r="FL10" t="n">
-        <v>0.001292211236432195</v>
+        <v>0.09124609082937241</v>
       </c>
       <c r="FM10" t="n">
-        <v>0.0001964590337593108</v>
+        <v>0.08093750476837158</v>
       </c>
       <c r="FN10" t="n">
-        <v>0.000235061947023496</v>
+        <v>0.1479528248310089</v>
       </c>
       <c r="FO10" t="n">
-        <v>4.59731527371332e-05</v>
+        <v>0.05675181001424789</v>
       </c>
       <c r="FP10" t="n">
-        <v>0.001173012424260378</v>
+        <v>0.2244195938110352</v>
       </c>
       <c r="FQ10" t="n">
-        <v>0.00292350584641099</v>
+        <v>0.0427982434630394</v>
       </c>
       <c r="FR10" t="n">
-        <v>7.00610617059283e-05</v>
+        <v>0.208825409412384</v>
       </c>
       <c r="FS10" t="n">
-        <v>0.001626072218641639</v>
+        <v>0.3816444873809814</v>
       </c>
       <c r="FT10" t="n">
-        <v>0.0008581664296798408</v>
+        <v>0.04525452479720116</v>
       </c>
       <c r="FU10" t="n">
-        <v>0.0003348569734953344</v>
+        <v>0.01196152344346046</v>
       </c>
       <c r="FV10" t="n">
-        <v>0.001171985873952508</v>
+        <v>0.01554960012435913</v>
       </c>
       <c r="FW10" t="n">
-        <v>0.000320041726808995</v>
+        <v>0.006833152379840612</v>
       </c>
       <c r="FX10" t="n">
-        <v>0.0008719220641069114</v>
+        <v>0.06260483711957932</v>
       </c>
       <c r="FY10" t="n">
-        <v>0.0008415260235778987</v>
+        <v>0.2658186554908752</v>
       </c>
       <c r="FZ10" t="n">
-        <v>0.002369549358263612</v>
+        <v>0.3045995831489563</v>
       </c>
       <c r="GA10" t="n">
-        <v>0.0007187756127677858</v>
+        <v>0.1799472272396088</v>
       </c>
       <c r="GB10" t="n">
-        <v>0.003190351650118828</v>
+        <v>0.01755852997303009</v>
       </c>
       <c r="GC10" t="n">
-        <v>0.0004086107655894011</v>
+        <v>0.4062556624412537</v>
       </c>
       <c r="GD10" t="n">
-        <v>0.0003626645193435252</v>
+        <v>0.1177887097001076</v>
       </c>
       <c r="GE10" t="n">
-        <v>8.20446148281917e-05</v>
+        <v>0.3994768261909485</v>
       </c>
       <c r="GF10" t="n">
-        <v>0.0008704488864168525</v>
+        <v>0.07124529033899307</v>
       </c>
       <c r="GG10" t="n">
-        <v>0.0007352115353569388</v>
+        <v>0.03013594262301922</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.06841947138309479</v>
+        <v>0.2531976699829102</v>
       </c>
       <c r="B11" t="n">
-        <v>0.2121589183807373</v>
+        <v>0.5225329995155334</v>
       </c>
       <c r="C11" t="n">
-        <v>0.310119241476059</v>
+        <v>0.02087605744600296</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1092083007097244</v>
+        <v>0.1902709007263184</v>
       </c>
       <c r="E11" t="n">
-        <v>0.08421488106250763</v>
+        <v>0.2488253265619278</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0424245148897171</v>
+        <v>0.176786944270134</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03951507806777954</v>
+        <v>0.1145397201180458</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0002310024574398994</v>
+        <v>0.1299138367176056</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1238151863217354</v>
+        <v>0.1072655096650124</v>
       </c>
       <c r="J11" t="n">
-        <v>0.09494288265705109</v>
+        <v>0.1870312094688416</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1946867406368256</v>
+        <v>0.3613005876541138</v>
       </c>
       <c r="L11" t="n">
-        <v>0.3505308628082275</v>
+        <v>0.04891610145568848</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02506393566727638</v>
+        <v>0.03475118800997734</v>
       </c>
       <c r="N11" t="n">
-        <v>0.07555197179317474</v>
+        <v>0.5590652227401733</v>
       </c>
       <c r="O11" t="n">
-        <v>0.03616811707615852</v>
+        <v>0.2778925895690918</v>
       </c>
       <c r="P11" t="n">
-        <v>0.07983364909887314</v>
+        <v>0.02769016847014427</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.02024114318192005</v>
+        <v>0.4955963492393494</v>
       </c>
       <c r="R11" t="n">
-        <v>0.1436602622270584</v>
+        <v>0.1505354046821594</v>
       </c>
       <c r="S11" t="n">
-        <v>0.004364763386547565</v>
+        <v>0.01104496512562037</v>
       </c>
       <c r="T11" t="n">
-        <v>0.1091282144188881</v>
+        <v>0.2726786732673645</v>
       </c>
       <c r="U11" t="n">
-        <v>0.06695979833602905</v>
+        <v>0.07692574709653854</v>
       </c>
       <c r="V11" t="n">
-        <v>0.03478199243545532</v>
+        <v>0.01848968863487244</v>
       </c>
       <c r="W11" t="n">
-        <v>0.09899608045816422</v>
+        <v>0.2364818155765533</v>
       </c>
       <c r="X11" t="n">
-        <v>0.02453137561678886</v>
+        <v>0.1553293317556381</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.05428653210401535</v>
+        <v>0.04448634758591652</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.03718502074480057</v>
+        <v>0.05182148143649101</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.01105170510709286</v>
+        <v>0.06586474180221558</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.032994594424963</v>
+        <v>0.00937681645154953</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.1338180899620056</v>
+        <v>0.1797077357769012</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.05109479278326035</v>
+        <v>0.04781407117843628</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.07793387770652771</v>
+        <v>0.2450134754180908</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.02632376551628113</v>
+        <v>0.09580587595701218</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.03291793912649155</v>
+        <v>0.2294134795665741</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.07581808418035507</v>
+        <v>0.1581279188394547</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.09455852210521698</v>
+        <v>0.1641907244920731</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.1349930763244629</v>
+        <v>0.02513372153043747</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.02768066897988319</v>
+        <v>0.1741741448640823</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.01304955035448074</v>
+        <v>0.1785591840744019</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.05523945391178131</v>
+        <v>0.04316899925470352</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.008339731954038143</v>
+        <v>0.06260865181684494</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.005533007904887199</v>
+        <v>0.05264902114868164</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.01163946744054556</v>
+        <v>0.1673028916120529</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.008833142928779125</v>
+        <v>0.1739823818206787</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.04341959953308105</v>
+        <v>0.2077557444572449</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.02591131813824177</v>
+        <v>0.07790264487266541</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.06921093910932541</v>
+        <v>0.2872639000415802</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.09104122221469879</v>
+        <v>0.6381533741950989</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.08812771737575531</v>
+        <v>0.03532929718494415</v>
       </c>
       <c r="AW11" t="n">
-        <v>0.07753258943557739</v>
+        <v>0.2851249575614929</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.08840377628803253</v>
+        <v>0.4240001142024994</v>
       </c>
       <c r="AY11" t="n">
-        <v>0.03463594615459442</v>
+        <v>0.03832605481147766</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0.03023272566497326</v>
+        <v>0.1000292077660561</v>
       </c>
       <c r="BA11" t="n">
-        <v>0.002539954148232937</v>
+        <v>0.1728321462869644</v>
       </c>
       <c r="BB11" t="n">
-        <v>0.02529898472130299</v>
+        <v>0.09856030344963074</v>
       </c>
       <c r="BC11" t="n">
-        <v>0.05784289538860321</v>
+        <v>0.1866379082202911</v>
       </c>
       <c r="BD11" t="n">
-        <v>0.07696735858917236</v>
+        <v>0.1014700084924698</v>
       </c>
       <c r="BE11" t="n">
-        <v>0.08578090369701385</v>
+        <v>0.04741883277893066</v>
       </c>
       <c r="BF11" t="n">
-        <v>0.03909120708703995</v>
+        <v>0.06222524493932724</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.1937734186649323</v>
+        <v>0.4409392774105072</v>
       </c>
       <c r="BH11" t="n">
-        <v>0.04688675329089165</v>
+        <v>0.09091999381780624</v>
       </c>
       <c r="BI11" t="n">
-        <v>0.001819811761379242</v>
+        <v>0.04407409206032753</v>
       </c>
       <c r="BJ11" t="n">
-        <v>0.05498264357447624</v>
+        <v>0.359322190284729</v>
       </c>
       <c r="BK11" t="n">
-        <v>0.007855440489947796</v>
+        <v>0.128979280591011</v>
       </c>
       <c r="BL11" t="n">
-        <v>0.04656342044472694</v>
+        <v>0.02628928422927856</v>
       </c>
       <c r="BM11" t="n">
-        <v>0.02762435935437679</v>
+        <v>0.2622984051704407</v>
       </c>
       <c r="BN11" t="n">
-        <v>0.06766940653324127</v>
+        <v>0.02396234311163425</v>
       </c>
       <c r="BO11" t="n">
-        <v>0.04703200608491898</v>
+        <v>0.3817032873630524</v>
       </c>
       <c r="BP11" t="n">
-        <v>0.009656947106122971</v>
+        <v>0.6086454391479492</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0.06741027534008026</v>
+        <v>0.1382081359624863</v>
       </c>
       <c r="BR11" t="n">
-        <v>0.01719116419553757</v>
+        <v>0.004819426685571671</v>
       </c>
       <c r="BS11" t="n">
-        <v>0.04909367859363556</v>
+        <v>0.30667445063591</v>
       </c>
       <c r="BT11" t="n">
-        <v>0.004458421375602484</v>
+        <v>0.1688543111085892</v>
       </c>
       <c r="BU11" t="n">
-        <v>0.06646478176116943</v>
+        <v>0.1605170220136642</v>
       </c>
       <c r="BV11" t="n">
-        <v>0.114379920065403</v>
+        <v>0.3291171789169312</v>
       </c>
       <c r="BW11" t="n">
-        <v>0.1105166226625443</v>
+        <v>0.04490192979574203</v>
       </c>
       <c r="BX11" t="n">
-        <v>0.01875947788357735</v>
+        <v>0.04136669635772705</v>
       </c>
       <c r="BY11" t="n">
-        <v>0.03748025372624397</v>
+        <v>0.1365652531385422</v>
       </c>
       <c r="BZ11" t="n">
-        <v>0.06085158139467239</v>
+        <v>0.03091741167008877</v>
       </c>
       <c r="CA11" t="n">
-        <v>0.01065756566822529</v>
+        <v>0.2295096963644028</v>
       </c>
       <c r="CB11" t="n">
-        <v>0.05863025039434433</v>
+        <v>0.1512453258037567</v>
       </c>
       <c r="CC11" t="n">
-        <v>0.02980131655931473</v>
+        <v>0.04659466445446014</v>
       </c>
       <c r="CD11" t="n">
-        <v>0.01350788213312626</v>
+        <v>0.04820456355810165</v>
       </c>
       <c r="CE11" t="n">
-        <v>0.03163458406925201</v>
+        <v>0.1008763015270233</v>
       </c>
       <c r="CF11" t="n">
-        <v>0.04705939814448357</v>
+        <v>0.0248030349612236</v>
       </c>
       <c r="CG11" t="n">
-        <v>0.00964662991464138</v>
+        <v>0.04247215390205383</v>
       </c>
       <c r="CH11" t="n">
-        <v>0.01224412396550179</v>
+        <v>0.004791555926203728</v>
       </c>
       <c r="CI11" t="n">
-        <v>0.01474571041762829</v>
+        <v>0.01388816256076097</v>
       </c>
       <c r="CJ11" t="n">
-        <v>0.009975475259125233</v>
+        <v>0.01429008692502975</v>
       </c>
       <c r="CK11" t="n">
-        <v>0.005093047395348549</v>
+        <v>0.01962229609489441</v>
       </c>
       <c r="CL11" t="n">
-        <v>0.02070688083767891</v>
+        <v>0.01207123044878244</v>
       </c>
       <c r="CM11" t="n">
-        <v>0.002585593611001968</v>
+        <v>0.2879827916622162</v>
       </c>
       <c r="CN11" t="n">
-        <v>0.0007325801998376846</v>
+        <v>0.1710752993822098</v>
       </c>
       <c r="CO11" t="n">
-        <v>0.0606391541659832</v>
+        <v>0.02691248431801796</v>
       </c>
       <c r="CP11" t="n">
-        <v>0.009856661781668663</v>
+        <v>0.04705210402607918</v>
       </c>
       <c r="CQ11" t="n">
-        <v>0.08304192870855331</v>
+        <v>0.5287172198295593</v>
       </c>
       <c r="CR11" t="n">
-        <v>0.02094228193163872</v>
+        <v>0.01646113954484463</v>
       </c>
       <c r="CS11" t="n">
-        <v>0.04899916052818298</v>
+        <v>0.08224408328533173</v>
       </c>
       <c r="CT11" t="n">
-        <v>0.03183040022850037</v>
+        <v>0.02706635370850563</v>
       </c>
       <c r="CU11" t="n">
-        <v>0.07538860291242599</v>
+        <v>0.0866742730140686</v>
       </c>
       <c r="CV11" t="n">
-        <v>0.008294450119137764</v>
+        <v>0.004781824536621571</v>
       </c>
       <c r="CW11" t="n">
-        <v>0.03283549845218658</v>
+        <v>0.1014780402183533</v>
       </c>
       <c r="CX11" t="n">
-        <v>0.05249137431383133</v>
+        <v>0.02273755334317684</v>
       </c>
       <c r="CY11" t="n">
-        <v>0.01028783898800611</v>
+        <v>0.08647753298282623</v>
       </c>
       <c r="CZ11" t="n">
-        <v>0.0338829942047596</v>
+        <v>0.02498870342969894</v>
       </c>
       <c r="DA11" t="n">
-        <v>0.01780994236469269</v>
+        <v>0.05139937996864319</v>
       </c>
       <c r="DB11" t="n">
-        <v>0.0116108488291502</v>
+        <v>0.01419047452509403</v>
       </c>
       <c r="DC11" t="n">
-        <v>0.01731997542083263</v>
+        <v>0.03756820783019066</v>
       </c>
       <c r="DD11" t="n">
-        <v>0.02149306423962116</v>
+        <v>0.01313352677971125</v>
       </c>
       <c r="DE11" t="n">
-        <v>0.0001240451820194721</v>
+        <v>0.3607133626937866</v>
       </c>
       <c r="DF11" t="n">
-        <v>0.05250902846455574</v>
+        <v>0.700391411781311</v>
       </c>
       <c r="DG11" t="n">
-        <v>0.02238703891634941</v>
+        <v>0.04909985512495041</v>
       </c>
       <c r="DH11" t="n">
-        <v>0.1369955837726593</v>
+        <v>0.04606420919299126</v>
       </c>
       <c r="DI11" t="n">
-        <v>0.06671129167079926</v>
+        <v>0.04134544730186462</v>
       </c>
       <c r="DJ11" t="n">
-        <v>0.03175302594900131</v>
+        <v>0.3191681504249573</v>
       </c>
       <c r="DK11" t="n">
-        <v>0.004392551258206367</v>
+        <v>0.2573825418949127</v>
       </c>
       <c r="DL11" t="n">
-        <v>0.06781941652297974</v>
+        <v>0.2013511955738068</v>
       </c>
       <c r="DM11" t="n">
-        <v>0.01816804148256779</v>
+        <v>0.1614691466093063</v>
       </c>
       <c r="DN11" t="n">
-        <v>0.09022098779678345</v>
+        <v>0.2133015841245651</v>
       </c>
       <c r="DO11" t="n">
-        <v>0.05536608397960663</v>
+        <v>0.1799994707107544</v>
       </c>
       <c r="DP11" t="n">
-        <v>0.03862686455249786</v>
+        <v>0.05341169983148575</v>
       </c>
       <c r="DQ11" t="n">
-        <v>0.00699567049741745</v>
+        <v>0.1109808161854744</v>
       </c>
       <c r="DR11" t="n">
-        <v>0.03106486611068249</v>
+        <v>0.09909531474113464</v>
       </c>
       <c r="DS11" t="n">
-        <v>0.03745833784341812</v>
+        <v>0.02352847345173359</v>
       </c>
       <c r="DT11" t="n">
-        <v>0.001144874840974808</v>
+        <v>0.1603705286979675</v>
       </c>
       <c r="DU11" t="n">
-        <v>0.0189267098903656</v>
+        <v>0.07845384627580643</v>
       </c>
       <c r="DV11" t="n">
-        <v>0.04504938423633575</v>
+        <v>0.1274354159832001</v>
       </c>
       <c r="DW11" t="n">
-        <v>0.01669652760028839</v>
+        <v>0.07850871980190277</v>
       </c>
       <c r="DX11" t="n">
-        <v>0.03338919579982758</v>
+        <v>0.07921967655420303</v>
       </c>
       <c r="DY11" t="n">
-        <v>0.02193538844585419</v>
+        <v>0.123454712331295</v>
       </c>
       <c r="DZ11" t="n">
-        <v>0.01502101682126522</v>
+        <v>0.2397498935461044</v>
       </c>
       <c r="EA11" t="n">
-        <v>0.006147181149572134</v>
+        <v>0.0728190541267395</v>
       </c>
       <c r="EB11" t="n">
-        <v>0.002899426501244307</v>
+        <v>0.07023161649703979</v>
       </c>
       <c r="EC11" t="n">
-        <v>0.009896621108055115</v>
+        <v>0.07502157241106033</v>
       </c>
       <c r="ED11" t="n">
-        <v>0.04950548335909843</v>
+        <v>0.07637220621109009</v>
       </c>
       <c r="EE11" t="n">
-        <v>0.06181656196713448</v>
+        <v>0.09288766980171204</v>
       </c>
       <c r="EF11" t="n">
-        <v>0.004017163068056107</v>
+        <v>0.1066064983606339</v>
       </c>
       <c r="EG11" t="n">
-        <v>0.004008520394563675</v>
+        <v>0.1915081292390823</v>
       </c>
       <c r="EH11" t="n">
-        <v>0.06307013332843781</v>
+        <v>0.03059831261634827</v>
       </c>
       <c r="EI11" t="n">
-        <v>0.05253408849239349</v>
+        <v>0.0931817814707756</v>
       </c>
       <c r="EJ11" t="n">
-        <v>0.00938061811029911</v>
+        <v>0.01354052871465683</v>
       </c>
       <c r="EK11" t="n">
-        <v>0.01917268708348274</v>
+        <v>0.069024458527565</v>
       </c>
       <c r="EL11" t="n">
-        <v>0.0009301705285906792</v>
+        <v>0.06361977756023407</v>
       </c>
       <c r="EM11" t="n">
-        <v>0.02926959656178951</v>
+        <v>0.03679761663079262</v>
       </c>
       <c r="EN11" t="n">
-        <v>0.008373524062335491</v>
+        <v>0.0406714491546154</v>
       </c>
       <c r="EO11" t="n">
-        <v>0.04449485242366791</v>
+        <v>0.0722876638174057</v>
       </c>
       <c r="EP11" t="n">
-        <v>0.08508169651031494</v>
+        <v>0.007606941275298595</v>
       </c>
       <c r="EQ11" t="n">
-        <v>0.03227337449789047</v>
+        <v>0.01631161756813526</v>
       </c>
       <c r="ER11" t="n">
-        <v>0.04520423710346222</v>
+        <v>0.07715974003076553</v>
       </c>
       <c r="ES11" t="n">
-        <v>0.08851732313632965</v>
+        <v>0.01026155985891819</v>
       </c>
       <c r="ET11" t="n">
-        <v>0.01764339953660965</v>
+        <v>0.06415116041898727</v>
       </c>
       <c r="EU11" t="n">
-        <v>0.01295241713523865</v>
+        <v>0.03644607216119766</v>
       </c>
       <c r="EV11" t="n">
-        <v>0.03188060969114304</v>
+        <v>0.061737310141325</v>
       </c>
       <c r="EW11" t="n">
-        <v>0.04994134232401848</v>
+        <v>0.05785547196865082</v>
       </c>
       <c r="EX11" t="n">
-        <v>0.03242479637265205</v>
+        <v>0.05123250186443329</v>
       </c>
       <c r="EY11" t="n">
-        <v>0.02285978943109512</v>
+        <v>0.07159793376922607</v>
       </c>
       <c r="EZ11" t="n">
-        <v>0.04928261414170265</v>
+        <v>0.0115388473495841</v>
       </c>
       <c r="FA11" t="n">
-        <v>0.00658282358199358</v>
+        <v>0.06201992556452751</v>
       </c>
       <c r="FB11" t="n">
-        <v>0.02786576375365257</v>
+        <v>0.01171673648059368</v>
       </c>
       <c r="FC11" t="n">
-        <v>0.001021887874230742</v>
+        <v>0.02910018339753151</v>
       </c>
       <c r="FD11" t="n">
-        <v>0.01106439810246229</v>
+        <v>0.003110745921730995</v>
       </c>
       <c r="FE11" t="n">
-        <v>0.005259760189801455</v>
+        <v>0.05312306806445122</v>
       </c>
       <c r="FF11" t="n">
-        <v>0.02198618650436401</v>
+        <v>0.009216884151101112</v>
       </c>
       <c r="FG11" t="n">
-        <v>0.006048906594514847</v>
+        <v>0.219691663980484</v>
       </c>
       <c r="FH11" t="n">
-        <v>0.003124591894447803</v>
+        <v>0.1312863826751709</v>
       </c>
       <c r="FI11" t="n">
-        <v>0.08334732055664062</v>
+        <v>0.05618064478039742</v>
       </c>
       <c r="FJ11" t="n">
-        <v>0.08447887748479843</v>
+        <v>0.08649105578660965</v>
       </c>
       <c r="FK11" t="n">
-        <v>0.006365906447172165</v>
+        <v>0.03469787910580635</v>
       </c>
       <c r="FL11" t="n">
-        <v>0.09112208336591721</v>
+        <v>0.002686877734959126</v>
       </c>
       <c r="FM11" t="n">
-        <v>0.04312428832054138</v>
+        <v>0.04875565692782402</v>
       </c>
       <c r="FN11" t="n">
-        <v>0.03611866757273674</v>
+        <v>0.09365539252758026</v>
       </c>
       <c r="FO11" t="n">
-        <v>0.002123961457982659</v>
+        <v>0.04305960610508919</v>
       </c>
       <c r="FP11" t="n">
-        <v>0.08506634831428528</v>
+        <v>0.07759817689657211</v>
       </c>
       <c r="FQ11" t="n">
-        <v>0.0470510758459568</v>
+        <v>0.02845668978989124</v>
       </c>
       <c r="FR11" t="n">
-        <v>0.05391082167625427</v>
+        <v>0.08695807307958603</v>
       </c>
       <c r="FS11" t="n">
-        <v>0.09427730739116669</v>
+        <v>0.5164594650268555</v>
       </c>
       <c r="FT11" t="n">
-        <v>0.09946364909410477</v>
+        <v>0.2426977902650833</v>
       </c>
       <c r="FU11" t="n">
-        <v>0.04811945557594299</v>
+        <v>0.001452707219868898</v>
       </c>
       <c r="FV11" t="n">
-        <v>0.0318172313272953</v>
+        <v>0.02997744083404541</v>
       </c>
       <c r="FW11" t="n">
-        <v>0.005597832147032022</v>
+        <v>0.05050607025623322</v>
       </c>
       <c r="FX11" t="n">
-        <v>0.1671087145805359</v>
+        <v>0.09510645270347595</v>
       </c>
       <c r="FY11" t="n">
-        <v>0.00493939034640789</v>
+        <v>0.02837840467691422</v>
       </c>
       <c r="FZ11" t="n">
-        <v>0.01755671948194504</v>
+        <v>0.2363066226243973</v>
       </c>
       <c r="GA11" t="n">
-        <v>0.04319388046860695</v>
+        <v>0.07831232249736786</v>
       </c>
       <c r="GB11" t="n">
-        <v>0.05543769896030426</v>
+        <v>0.4308517873287201</v>
       </c>
       <c r="GC11" t="n">
-        <v>0.09910262376070023</v>
+        <v>0.3809125423431396</v>
       </c>
       <c r="GD11" t="n">
-        <v>0.00539915356785059</v>
+        <v>0.1533296257257462</v>
       </c>
       <c r="GE11" t="n">
-        <v>0.004071360919624567</v>
+        <v>0.2681801319122314</v>
       </c>
       <c r="GF11" t="n">
-        <v>0.00870107114315033</v>
+        <v>0.355555921792984</v>
       </c>
       <c r="GG11" t="n">
-        <v>0.02617614157497883</v>
+        <v>0.03675857931375504</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.003296332433819771</v>
+        <v>0.01442908402532339</v>
       </c>
       <c r="B12" t="n">
-        <v>0.04816163331270218</v>
+        <v>0.3079389333724976</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1273742169141769</v>
+        <v>0.02018347941339016</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1314029544591904</v>
+        <v>0.1405993551015854</v>
       </c>
       <c r="E12" t="n">
-        <v>0.03425493463873863</v>
+        <v>0.09758090227842331</v>
       </c>
       <c r="F12" t="n">
-        <v>0.03802954778075218</v>
+        <v>0.07808669656515121</v>
       </c>
       <c r="G12" t="n">
-        <v>0.006989091634750366</v>
+        <v>0.1340034157037735</v>
       </c>
       <c r="H12" t="n">
-        <v>0.01588255539536476</v>
+        <v>0.003178100101649761</v>
       </c>
       <c r="I12" t="n">
-        <v>0.03014523349702358</v>
+        <v>0.01393621228635311</v>
       </c>
       <c r="J12" t="n">
-        <v>0.008149523288011551</v>
+        <v>0.03044232167303562</v>
       </c>
       <c r="K12" t="n">
-        <v>0.04822525382041931</v>
+        <v>0.2254224866628647</v>
       </c>
       <c r="L12" t="n">
-        <v>0.121180534362793</v>
+        <v>0.007536315824836493</v>
       </c>
       <c r="M12" t="n">
-        <v>0.1201887652277946</v>
+        <v>0.1944984346628189</v>
       </c>
       <c r="N12" t="n">
-        <v>0.02286862209439278</v>
+        <v>0.1036641597747803</v>
       </c>
       <c r="O12" t="n">
-        <v>0.00391284516081214</v>
+        <v>0.1002077013254166</v>
       </c>
       <c r="P12" t="n">
-        <v>0.009347441606223583</v>
+        <v>0.1210476905107498</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.03624214604496956</v>
+        <v>0.03376849740743637</v>
       </c>
       <c r="R12" t="n">
-        <v>0.05224782228469849</v>
+        <v>0.02519850619137287</v>
       </c>
       <c r="S12" t="n">
-        <v>0.006502634845674038</v>
+        <v>0.04186031967401505</v>
       </c>
       <c r="T12" t="n">
-        <v>0.01201240997761488</v>
+        <v>0.06656886637210846</v>
       </c>
       <c r="U12" t="n">
-        <v>0.009660111740231514</v>
+        <v>0.01799267157912254</v>
       </c>
       <c r="V12" t="n">
-        <v>0.01717456988990307</v>
+        <v>0.001000214368104935</v>
       </c>
       <c r="W12" t="n">
-        <v>0.06849748641252518</v>
+        <v>0.06046577915549278</v>
       </c>
       <c r="X12" t="n">
-        <v>0.001108541153371334</v>
+        <v>0.03895457088947296</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.00647722277790308</v>
+        <v>0.003589281346648932</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.005565138068050146</v>
+        <v>0.008133817464113235</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.01200242154300213</v>
+        <v>0.02997900359332561</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.0385834276676178</v>
+        <v>0.02247823774814606</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.03576098382472992</v>
+        <v>0.05785432085394859</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.002425180980935693</v>
+        <v>0.008978519588708878</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.0346427783370018</v>
+        <v>0.009634747169911861</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.006067716050893068</v>
+        <v>0.0149706294760108</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.02986868470907211</v>
+        <v>0.01857009530067444</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.0002663403283804655</v>
+        <v>0.00637890538200736</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.005294837523251772</v>
+        <v>0.00384812243282795</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0.02706883475184441</v>
+        <v>0.02802599221467972</v>
       </c>
       <c r="AK12" t="n">
-        <v>0.03006661124527454</v>
+        <v>0.02490637823939323</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.008940632455050945</v>
+        <v>0.03499139472842216</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.02867487631738186</v>
+        <v>0.002016161335632205</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.00326276570558548</v>
+        <v>0.0293552353978157</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.01141903921961784</v>
+        <v>0.009987737983465195</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.01718490198254585</v>
+        <v>0.01222786866128445</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.002247174736112356</v>
+        <v>0.01987685076892376</v>
       </c>
       <c r="AR12" t="n">
-        <v>0.00300893047824502</v>
+        <v>0.0003091194666922092</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.001591654261574149</v>
+        <v>0.02254086174070835</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.02115295454859734</v>
+        <v>0.06802942603826523</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.04363038763403893</v>
+        <v>0.2567346692085266</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.06442742049694061</v>
+        <v>0.00290478253737092</v>
       </c>
       <c r="AW12" t="n">
-        <v>0.02526479959487915</v>
+        <v>0.05344313755631447</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.03574559092521667</v>
+        <v>9.87667590379715e-05</v>
       </c>
       <c r="AY12" t="n">
-        <v>0.007666717283427715</v>
+        <v>0.03304745629429817</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0.02215942367911339</v>
+        <v>0.03523710370063782</v>
       </c>
       <c r="BA12" t="n">
-        <v>0.02018702030181885</v>
+        <v>0.04013529047369957</v>
       </c>
       <c r="BB12" t="n">
-        <v>0.02221951819956303</v>
+        <v>0.0325077623128891</v>
       </c>
       <c r="BC12" t="n">
-        <v>0.01294827461242676</v>
+        <v>0.01645457558333874</v>
       </c>
       <c r="BD12" t="n">
-        <v>0.01151358708739281</v>
+        <v>0.05307436361908913</v>
       </c>
       <c r="BE12" t="n">
-        <v>0.03838320448994637</v>
+        <v>0.1002720296382904</v>
       </c>
       <c r="BF12" t="n">
-        <v>0.05084161460399628</v>
+        <v>0.09846484661102295</v>
       </c>
       <c r="BG12" t="n">
-        <v>0.05985285714268684</v>
+        <v>0.07173645496368408</v>
       </c>
       <c r="BH12" t="n">
-        <v>0.04721143469214439</v>
+        <v>0.04226149618625641</v>
       </c>
       <c r="BI12" t="n">
-        <v>0.02119693905115128</v>
+        <v>0.05609842762351036</v>
       </c>
       <c r="BJ12" t="n">
-        <v>0.01779713109135628</v>
+        <v>0.05704102665185928</v>
       </c>
       <c r="BK12" t="n">
-        <v>0.02393675222992897</v>
+        <v>0.01525724120438099</v>
       </c>
       <c r="BL12" t="n">
-        <v>0.02037315629422665</v>
+        <v>0.002711623441427946</v>
       </c>
       <c r="BM12" t="n">
-        <v>0.02531402744352818</v>
+        <v>0.06610845029354095</v>
       </c>
       <c r="BN12" t="n">
-        <v>0.02476491406559944</v>
+        <v>0.04647651314735413</v>
       </c>
       <c r="BO12" t="n">
-        <v>0.005053323693573475</v>
+        <v>0.03621954470872879</v>
       </c>
       <c r="BP12" t="n">
-        <v>0.0212449561804533</v>
+        <v>0.09210868179798126</v>
       </c>
       <c r="BQ12" t="n">
-        <v>0.004425136838108301</v>
+        <v>0.03721755743026733</v>
       </c>
       <c r="BR12" t="n">
-        <v>0.01974537968635559</v>
+        <v>0.03176429867744446</v>
       </c>
       <c r="BS12" t="n">
-        <v>0.01687946170568466</v>
+        <v>0.02407227270305157</v>
       </c>
       <c r="BT12" t="n">
-        <v>0.008325895294547081</v>
+        <v>0.01021324563771486</v>
       </c>
       <c r="BU12" t="n">
-        <v>0.04122048616409302</v>
+        <v>0.03849933296442032</v>
       </c>
       <c r="BV12" t="n">
-        <v>0.01960499212145805</v>
+        <v>0.1203120946884155</v>
       </c>
       <c r="BW12" t="n">
-        <v>0.04066897928714752</v>
+        <v>0.04618481174111366</v>
       </c>
       <c r="BX12" t="n">
-        <v>0.03707479685544968</v>
+        <v>0.0217130035161972</v>
       </c>
       <c r="BY12" t="n">
-        <v>0.01325763296335936</v>
+        <v>0.0233807135373354</v>
       </c>
       <c r="BZ12" t="n">
-        <v>0.03490589931607246</v>
+        <v>0.03047906048595905</v>
       </c>
       <c r="CA12" t="n">
-        <v>0.02061071433126926</v>
+        <v>0.002669197740033269</v>
       </c>
       <c r="CB12" t="n">
-        <v>0.02025811746716499</v>
+        <v>0.03760665655136108</v>
       </c>
       <c r="CC12" t="n">
-        <v>0.006106032524257898</v>
+        <v>0.03289496898651123</v>
       </c>
       <c r="CD12" t="n">
-        <v>0.03395727276802063</v>
+        <v>0.006703987717628479</v>
       </c>
       <c r="CE12" t="n">
-        <v>0.009947647340595722</v>
+        <v>0.05896402522921562</v>
       </c>
       <c r="CF12" t="n">
-        <v>0.02493111044168472</v>
+        <v>0.0310296006500721</v>
       </c>
       <c r="CG12" t="n">
-        <v>0.02012917026877403</v>
+        <v>0.04006426781415939</v>
       </c>
       <c r="CH12" t="n">
-        <v>0.002904211869463325</v>
+        <v>0.001099202781915665</v>
       </c>
       <c r="CI12" t="n">
-        <v>0.02338805235922337</v>
+        <v>0.02053801715373993</v>
       </c>
       <c r="CJ12" t="n">
-        <v>0.006005726289004087</v>
+        <v>0.03050066903233528</v>
       </c>
       <c r="CK12" t="n">
-        <v>0.004111307207494974</v>
+        <v>0.008708592504262924</v>
       </c>
       <c r="CL12" t="n">
-        <v>0.01052900217473507</v>
+        <v>0.02272196859121323</v>
       </c>
       <c r="CM12" t="n">
-        <v>0.02074992470443249</v>
+        <v>0.06709158420562744</v>
       </c>
       <c r="CN12" t="n">
-        <v>0.01927322335541248</v>
+        <v>0.06524068117141724</v>
       </c>
       <c r="CO12" t="n">
-        <v>0.01403620094060898</v>
+        <v>0.01572451740503311</v>
       </c>
       <c r="CP12" t="n">
-        <v>0.007358318194746971</v>
+        <v>0.003859723918139935</v>
       </c>
       <c r="CQ12" t="n">
-        <v>0.01170803885906935</v>
+        <v>0.04930970072746277</v>
       </c>
       <c r="CR12" t="n">
-        <v>0.06685680896043777</v>
+        <v>0.0323619581758976</v>
       </c>
       <c r="CS12" t="n">
-        <v>0.005944077391177416</v>
+        <v>0.01065826416015625</v>
       </c>
       <c r="CT12" t="n">
-        <v>0.01483034715056419</v>
+        <v>0.03347605466842651</v>
       </c>
       <c r="CU12" t="n">
-        <v>0.01414244901388884</v>
+        <v>0.01824731566011906</v>
       </c>
       <c r="CV12" t="n">
-        <v>0.03352698311209679</v>
+        <v>0.01105502434074879</v>
       </c>
       <c r="CW12" t="n">
-        <v>0.01207040436565876</v>
+        <v>0.04809563979506493</v>
       </c>
       <c r="CX12" t="n">
-        <v>0.02642882987856865</v>
+        <v>0.04174293577671051</v>
       </c>
       <c r="CY12" t="n">
-        <v>0.02330745011568069</v>
+        <v>0.05938299372792244</v>
       </c>
       <c r="CZ12" t="n">
-        <v>0.001640915405005217</v>
+        <v>0.004476781934499741</v>
       </c>
       <c r="DA12" t="n">
-        <v>0.02176839299499989</v>
+        <v>0.01029285695403814</v>
       </c>
       <c r="DB12" t="n">
-        <v>0.004151205997914076</v>
+        <v>0.03509452566504478</v>
       </c>
       <c r="DC12" t="n">
-        <v>0.00336736417375505</v>
+        <v>0.003651636885479093</v>
       </c>
       <c r="DD12" t="n">
-        <v>0.01178644318133593</v>
+        <v>0.01475814078003168</v>
       </c>
       <c r="DE12" t="n">
-        <v>0.03228242322802544</v>
+        <v>0.02165655419230461</v>
       </c>
       <c r="DF12" t="n">
-        <v>0.006108129397034645</v>
+        <v>0.1697378307580948</v>
       </c>
       <c r="DG12" t="n">
-        <v>0.03284066915512085</v>
+        <v>0.03618751466274261</v>
       </c>
       <c r="DH12" t="n">
-        <v>0.02227912470698357</v>
+        <v>0.08499287068843842</v>
       </c>
       <c r="DI12" t="n">
-        <v>0.02890278957784176</v>
+        <v>0.04502531513571739</v>
       </c>
       <c r="DJ12" t="n">
-        <v>0.01603142730891705</v>
+        <v>0.01400221325457096</v>
       </c>
       <c r="DK12" t="n">
-        <v>0.02089324966073036</v>
+        <v>0.05965748429298401</v>
       </c>
       <c r="DL12" t="n">
-        <v>0.02778850123286247</v>
+        <v>0.01176902651786804</v>
       </c>
       <c r="DM12" t="n">
-        <v>0.004182324279099703</v>
+        <v>0.03600961714982986</v>
       </c>
       <c r="DN12" t="n">
-        <v>0.02706243470311165</v>
+        <v>0.01003329083323479</v>
       </c>
       <c r="DO12" t="n">
-        <v>0.007650009356439114</v>
+        <v>0.0351899154484272</v>
       </c>
       <c r="DP12" t="n">
-        <v>0.005616324488073587</v>
+        <v>0.03240824118256569</v>
       </c>
       <c r="DQ12" t="n">
-        <v>0.01276853866875172</v>
+        <v>0.03182734549045563</v>
       </c>
       <c r="DR12" t="n">
-        <v>0.02039700001478195</v>
+        <v>0.01913352869451046</v>
       </c>
       <c r="DS12" t="n">
-        <v>0.0006635611644014716</v>
+        <v>0.01056179404258728</v>
       </c>
       <c r="DT12" t="n">
-        <v>0.01738043874502182</v>
+        <v>0.02376968786120415</v>
       </c>
       <c r="DU12" t="n">
-        <v>0.0248577892780304</v>
+        <v>0.006378174759447575</v>
       </c>
       <c r="DV12" t="n">
-        <v>0.005662409588694572</v>
+        <v>0.03347876667976379</v>
       </c>
       <c r="DW12" t="n">
-        <v>0.007782366126775742</v>
+        <v>0.01029854547232389</v>
       </c>
       <c r="DX12" t="n">
-        <v>0.02138565666973591</v>
+        <v>0.0272376649081707</v>
       </c>
       <c r="DY12" t="n">
-        <v>0.01676423102617264</v>
+        <v>0.01985087431967258</v>
       </c>
       <c r="DZ12" t="n">
-        <v>0.01679920218884945</v>
+        <v>0.03731091693043709</v>
       </c>
       <c r="EA12" t="n">
-        <v>0.001380189205519855</v>
+        <v>0.01795145682990551</v>
       </c>
       <c r="EB12" t="n">
-        <v>0.01359677128493786</v>
+        <v>0.0238969512283802</v>
       </c>
       <c r="EC12" t="n">
-        <v>0.01288261543959379</v>
+        <v>0.004969182889908552</v>
       </c>
       <c r="ED12" t="n">
-        <v>0.01510359719395638</v>
+        <v>0.04339586570858955</v>
       </c>
       <c r="EE12" t="n">
-        <v>0.002656372496858239</v>
+        <v>0.003440992906689644</v>
       </c>
       <c r="EF12" t="n">
-        <v>0.03052965551614761</v>
+        <v>0.02814793027937412</v>
       </c>
       <c r="EG12" t="n">
-        <v>0.03123355656862259</v>
+        <v>0.02248925529420376</v>
       </c>
       <c r="EH12" t="n">
-        <v>0.02282549627125263</v>
+        <v>0.0252064224332571</v>
       </c>
       <c r="EI12" t="n">
-        <v>0.04087808728218079</v>
+        <v>0.04427643865346909</v>
       </c>
       <c r="EJ12" t="n">
-        <v>0.03528248146176338</v>
+        <v>0.007314782124012709</v>
       </c>
       <c r="EK12" t="n">
-        <v>0.0325283482670784</v>
+        <v>0.02303568460047245</v>
       </c>
       <c r="EL12" t="n">
-        <v>0.0003281295648775995</v>
+        <v>0.02941619791090488</v>
       </c>
       <c r="EM12" t="n">
-        <v>0.001501889433711767</v>
+        <v>0.02108777686953545</v>
       </c>
       <c r="EN12" t="n">
-        <v>0.004566418938338757</v>
+        <v>0.009099246934056282</v>
       </c>
       <c r="EO12" t="n">
-        <v>0.01834470964968204</v>
+        <v>0.02717887982726097</v>
       </c>
       <c r="EP12" t="n">
-        <v>0.0009657274931669235</v>
+        <v>0.01593339815735817</v>
       </c>
       <c r="EQ12" t="n">
-        <v>0.002107284963130951</v>
+        <v>0.06529306620359421</v>
       </c>
       <c r="ER12" t="n">
-        <v>0.01707208901643753</v>
+        <v>0.05165745690464973</v>
       </c>
       <c r="ES12" t="n">
-        <v>0.01933723129332066</v>
+        <v>0.01203051302582026</v>
       </c>
       <c r="ET12" t="n">
-        <v>0.003794197924435139</v>
+        <v>0.07083003222942352</v>
       </c>
       <c r="EU12" t="n">
-        <v>0.02633161656558514</v>
+        <v>0.02841917611658573</v>
       </c>
       <c r="EV12" t="n">
-        <v>0.008985741995275021</v>
+        <v>0.03213666379451752</v>
       </c>
       <c r="EW12" t="n">
-        <v>0.007510322146117687</v>
+        <v>0.01220402494072914</v>
       </c>
       <c r="EX12" t="n">
-        <v>0.03375152498483658</v>
+        <v>0.01236617937684059</v>
       </c>
       <c r="EY12" t="n">
-        <v>0.01641877740621567</v>
+        <v>0.04397962614893913</v>
       </c>
       <c r="EZ12" t="n">
-        <v>0.02457237616181374</v>
+        <v>0.0333615243434906</v>
       </c>
       <c r="FA12" t="n">
-        <v>0.02372981235384941</v>
+        <v>0.04816869646310806</v>
       </c>
       <c r="FB12" t="n">
-        <v>0.0002649869711603969</v>
+        <v>0.001848381711170077</v>
       </c>
       <c r="FC12" t="n">
-        <v>0.02054570429027081</v>
+        <v>0.01966648176312447</v>
       </c>
       <c r="FD12" t="n">
-        <v>0.00376540794968605</v>
+        <v>0.04115582257509232</v>
       </c>
       <c r="FE12" t="n">
-        <v>0.003679906949400902</v>
+        <v>0.009649251587688923</v>
       </c>
       <c r="FF12" t="n">
-        <v>0.009315415285527706</v>
+        <v>0.0215222891420126</v>
       </c>
       <c r="FG12" t="n">
-        <v>0.01578191295266151</v>
+        <v>0.02571537718176842</v>
       </c>
       <c r="FH12" t="n">
-        <v>0.01749391481280327</v>
+        <v>0.01725778728723526</v>
       </c>
       <c r="FI12" t="n">
-        <v>0.03551648184657097</v>
+        <v>0.02384471707046032</v>
       </c>
       <c r="FJ12" t="n">
-        <v>0.01487138122320175</v>
+        <v>0.02975050359964371</v>
       </c>
       <c r="FK12" t="n">
-        <v>0.001000246265903115</v>
+        <v>0.01705573685467243</v>
       </c>
       <c r="FL12" t="n">
-        <v>0.05169206485152245</v>
+        <v>0.01266677025705576</v>
       </c>
       <c r="FM12" t="n">
-        <v>0.006073611322790384</v>
+        <v>0.009305131621658802</v>
       </c>
       <c r="FN12" t="n">
-        <v>0.001194902579300106</v>
+        <v>0.01301551330834627</v>
       </c>
       <c r="FO12" t="n">
-        <v>0.01244522258639336</v>
+        <v>0.005677762441337109</v>
       </c>
       <c r="FP12" t="n">
-        <v>0.01837440393865108</v>
+        <v>0.03098177164793015</v>
       </c>
       <c r="FQ12" t="n">
-        <v>0.03724133968353271</v>
+        <v>0.04916907846927643</v>
       </c>
       <c r="FR12" t="n">
-        <v>0.006720362231135368</v>
+        <v>0.05813020467758179</v>
       </c>
       <c r="FS12" t="n">
-        <v>0.009881453588604927</v>
+        <v>0.03033964335918427</v>
       </c>
       <c r="FT12" t="n">
-        <v>0.01578173972666264</v>
+        <v>0.06454887986183167</v>
       </c>
       <c r="FU12" t="n">
-        <v>0.03794213384389877</v>
+        <v>0.00513944961130619</v>
       </c>
       <c r="FV12" t="n">
-        <v>0.0003853458911180496</v>
+        <v>0.05808329954743385</v>
       </c>
       <c r="FW12" t="n">
-        <v>0.01868778094649315</v>
+        <v>0.03887635841965675</v>
       </c>
       <c r="FX12" t="n">
-        <v>0.02577679045498371</v>
+        <v>0.01225879695266485</v>
       </c>
       <c r="FY12" t="n">
-        <v>0.02019055746495724</v>
+        <v>0.0445428304374218</v>
       </c>
       <c r="FZ12" t="n">
-        <v>0.008697064593434334</v>
+        <v>0.02522752806544304</v>
       </c>
       <c r="GA12" t="n">
-        <v>0.008840230293571949</v>
+        <v>0.0131989698857069</v>
       </c>
       <c r="GB12" t="n">
-        <v>0.01942430436611176</v>
+        <v>0.03794548660516739</v>
       </c>
       <c r="GC12" t="n">
-        <v>0.0276476051658392</v>
+        <v>0.0190561804920435</v>
       </c>
       <c r="GD12" t="n">
-        <v>0.01443843636661768</v>
+        <v>0.03104242123663425</v>
       </c>
       <c r="GE12" t="n">
-        <v>0.01174536999315023</v>
+        <v>0.09476850181818008</v>
       </c>
       <c r="GF12" t="n">
-        <v>0.004495237022638321</v>
+        <v>0.04135749489068985</v>
       </c>
       <c r="GG12" t="n">
-        <v>0.01094605773687363</v>
+        <v>0.03231958299875259</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.0007550271693617105</v>
+        <v>0.009435534477233887</v>
       </c>
       <c r="B13" t="n">
-        <v>0.002283953595906496</v>
+        <v>0.1654987335205078</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01323555968701839</v>
+        <v>0.02313591167330742</v>
       </c>
       <c r="D13" t="n">
-        <v>0.002467486308887601</v>
+        <v>0.05695121735334396</v>
       </c>
       <c r="E13" t="n">
-        <v>0.005001981742680073</v>
+        <v>0.03938447311520576</v>
       </c>
       <c r="F13" t="n">
-        <v>0.002872128505259752</v>
+        <v>0.01685550808906555</v>
       </c>
       <c r="G13" t="n">
-        <v>0.001063830452039838</v>
+        <v>0.01150890160351992</v>
       </c>
       <c r="H13" t="n">
-        <v>0.008746746927499771</v>
+        <v>0.005720283836126328</v>
       </c>
       <c r="I13" t="n">
-        <v>0.003944849595427513</v>
+        <v>0.06072047352790833</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0007329713553190231</v>
+        <v>0.01101674512028694</v>
       </c>
       <c r="K13" t="n">
-        <v>0.001606317237019539</v>
+        <v>0.1278612315654755</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01273508556187153</v>
+        <v>0.003088942961767316</v>
       </c>
       <c r="M13" t="n">
-        <v>0.001334216678515077</v>
+        <v>0.05874904245138168</v>
       </c>
       <c r="N13" t="n">
-        <v>0.002730123000219464</v>
+        <v>0.06397926062345505</v>
       </c>
       <c r="O13" t="n">
-        <v>0.002016369253396988</v>
+        <v>0.03087871894240379</v>
       </c>
       <c r="P13" t="n">
-        <v>0.0007744298200123012</v>
+        <v>0.01697357557713985</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.008541220799088478</v>
+        <v>0.02107786387205124</v>
       </c>
       <c r="R13" t="n">
-        <v>0.004240065813064575</v>
+        <v>0.04568519070744514</v>
       </c>
       <c r="S13" t="n">
-        <v>0.000171504623722285</v>
+        <v>0.001641370821744204</v>
       </c>
       <c r="T13" t="n">
-        <v>0.002386848209425807</v>
+        <v>0.03550061583518982</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0006663296953774989</v>
+        <v>0.02724580839276314</v>
       </c>
       <c r="V13" t="n">
-        <v>8.824888209346682e-05</v>
+        <v>0.02323462441563606</v>
       </c>
       <c r="W13" t="n">
-        <v>0.0007858810131438076</v>
+        <v>0.007094331551343203</v>
       </c>
       <c r="X13" t="n">
-        <v>0.000244509894400835</v>
+        <v>0.0294290017336607</v>
       </c>
       <c r="Y13" t="n">
-        <v>1.946237898664549e-05</v>
+        <v>0.006208015605807304</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.003057195106521249</v>
+        <v>0.00543100293725729</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.0006656150799244642</v>
+        <v>0.0128085920587182</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.0002696754818316549</v>
+        <v>0.01184884086251259</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.001091639278456569</v>
+        <v>0.02318303287029266</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.001929980237036943</v>
+        <v>0.001720418804325163</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.0004295186372473836</v>
+        <v>0.004811182152479887</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.001028976403176785</v>
+        <v>0.003645121119916439</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.0005099249538034201</v>
+        <v>0.01946846954524517</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.002066918415948749</v>
+        <v>0.008560458198189735</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.0003107132797595114</v>
+        <v>0.02528846450150013</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.001953694736585021</v>
+        <v>0.01167620904743671</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.000195828775758855</v>
+        <v>0.01619118079543114</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.0006341353873722255</v>
+        <v>0.01695339195430279</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.002588668838143349</v>
+        <v>0.01223783195018768</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.0006157515454106033</v>
+        <v>0.002934681251645088</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.002878591418266296</v>
+        <v>0.01583596132695675</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.0004475649329833686</v>
+        <v>0.01405506953597069</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.0001717322447802871</v>
+        <v>0.01102979574352503</v>
       </c>
       <c r="AR13" t="n">
-        <v>0.0003661936498247087</v>
+        <v>0.001312526408582926</v>
       </c>
       <c r="AS13" t="n">
-        <v>9.662131196819246e-05</v>
+        <v>0.006158633157610893</v>
       </c>
       <c r="AT13" t="n">
-        <v>4.57029091194272e-06</v>
+        <v>0.01320892944931984</v>
       </c>
       <c r="AU13" t="n">
-        <v>0.00168912997469306</v>
+        <v>0.1326406747102737</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.005870172753930092</v>
+        <v>0.003550310153514147</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.001477269222959876</v>
+        <v>0.002938072197139263</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.0007980824448168278</v>
+        <v>0.006203832104802132</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.0001870665582828224</v>
+        <v>0.008187810890376568</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0.0006032250821590424</v>
+        <v>0.01300016418099403</v>
       </c>
       <c r="BA13" t="n">
-        <v>0.002919943071901798</v>
+        <v>0.002431946806609631</v>
       </c>
       <c r="BB13" t="n">
-        <v>0.0008682833286002278</v>
+        <v>0.01374341733753681</v>
       </c>
       <c r="BC13" t="n">
-        <v>0.0005997748812660575</v>
+        <v>0.00614741537719965</v>
       </c>
       <c r="BD13" t="n">
-        <v>0.0002746001118794084</v>
+        <v>0.0395868606865406</v>
       </c>
       <c r="BE13" t="n">
-        <v>0.00331432675011456</v>
+        <v>0.02362190932035446</v>
       </c>
       <c r="BF13" t="n">
-        <v>0.001196771045215428</v>
+        <v>0.009794272482395172</v>
       </c>
       <c r="BG13" t="n">
-        <v>0.003888984210789204</v>
+        <v>0.05800408497452736</v>
       </c>
       <c r="BH13" t="n">
-        <v>0.001490145921707153</v>
+        <v>0.03732380270957947</v>
       </c>
       <c r="BI13" t="n">
-        <v>0.0007719385903328657</v>
+        <v>0.005385803058743477</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0.004073585849255323</v>
+        <v>0.02384141460061073</v>
       </c>
       <c r="BK13" t="n">
-        <v>0.002292224438861012</v>
+        <v>0.0204005241394043</v>
       </c>
       <c r="BL13" t="n">
-        <v>0.0009949407540261745</v>
+        <v>0.01696064695715904</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.001042893156409264</v>
+        <v>0.03850948065519333</v>
       </c>
       <c r="BN13" t="n">
-        <v>0.00294564152136445</v>
+        <v>0.01641609892249107</v>
       </c>
       <c r="BO13" t="n">
-        <v>4.570255259750411e-05</v>
+        <v>0.002114427275955677</v>
       </c>
       <c r="BP13" t="n">
-        <v>0.001566408202052116</v>
+        <v>0.06538873165845871</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0.0009845363674685359</v>
+        <v>0.03107872419059277</v>
       </c>
       <c r="BR13" t="n">
-        <v>0.001368425902910531</v>
+        <v>0.0001273166853934526</v>
       </c>
       <c r="BS13" t="n">
-        <v>0.001584461657330394</v>
+        <v>0.01550238393247128</v>
       </c>
       <c r="BT13" t="n">
-        <v>4.734527465188876e-05</v>
+        <v>0.003987449221313</v>
       </c>
       <c r="BU13" t="n">
-        <v>0.0002483800635673106</v>
+        <v>0.008718661963939667</v>
       </c>
       <c r="BV13" t="n">
-        <v>0.00087519153021276</v>
+        <v>0.07606396824121475</v>
       </c>
       <c r="BW13" t="n">
-        <v>0.003649442456662655</v>
+        <v>0.01228503603488207</v>
       </c>
       <c r="BX13" t="n">
-        <v>0.0001256155082955956</v>
+        <v>0.01475331000983715</v>
       </c>
       <c r="BY13" t="n">
-        <v>0.001218537800014019</v>
+        <v>0.0138431778177619</v>
       </c>
       <c r="BZ13" t="n">
-        <v>0.0020707449875772</v>
+        <v>0.03540617227554321</v>
       </c>
       <c r="CA13" t="n">
-        <v>0.0006915772682987154</v>
+        <v>0.0199726615101099</v>
       </c>
       <c r="CB13" t="n">
-        <v>0.002426972845569253</v>
+        <v>0.002530094236135483</v>
       </c>
       <c r="CC13" t="n">
-        <v>0.0001180007093353197</v>
+        <v>0.02142244949936867</v>
       </c>
       <c r="CD13" t="n">
-        <v>0.0005534632946364582</v>
+        <v>0.001097565283998847</v>
       </c>
       <c r="CE13" t="n">
-        <v>0.0005085321026854217</v>
+        <v>0.03199020773172379</v>
       </c>
       <c r="CF13" t="n">
-        <v>0.002454702276736498</v>
+        <v>0.00149401999078691</v>
       </c>
       <c r="CG13" t="n">
-        <v>0.0002345239918213338</v>
+        <v>0.01286265440285206</v>
       </c>
       <c r="CH13" t="n">
-        <v>0.001008985796943307</v>
+        <v>0.005341649986803532</v>
       </c>
       <c r="CI13" t="n">
-        <v>0.0005513307405635715</v>
+        <v>0.001052329316735268</v>
       </c>
       <c r="CJ13" t="n">
-        <v>0.00031781115103513</v>
+        <v>0.0008884358685463667</v>
       </c>
       <c r="CK13" t="n">
-        <v>0.0009649869170971215</v>
+        <v>0.00592187000438571</v>
       </c>
       <c r="CL13" t="n">
-        <v>0.0006261910893954337</v>
+        <v>0.01741365529596806</v>
       </c>
       <c r="CM13" t="n">
-        <v>0.0006685446132905781</v>
+        <v>0.0423957034945488</v>
       </c>
       <c r="CN13" t="n">
-        <v>0.00197818735614419</v>
+        <v>0.05845068022608757</v>
       </c>
       <c r="CO13" t="n">
-        <v>0.0007341924938373268</v>
+        <v>0.001598531380295753</v>
       </c>
       <c r="CP13" t="n">
-        <v>4.379357051220722e-05</v>
+        <v>0.01207342185080051</v>
       </c>
       <c r="CQ13" t="n">
-        <v>0.002168729901313782</v>
+        <v>0.02619636431336403</v>
       </c>
       <c r="CR13" t="n">
-        <v>0.001341656316071749</v>
+        <v>0.007675386965274811</v>
       </c>
       <c r="CS13" t="n">
-        <v>0.001227158587425947</v>
+        <v>0.01407915260642767</v>
       </c>
       <c r="CT13" t="n">
-        <v>1.410447293892503e-05</v>
+        <v>0.03944699093699455</v>
       </c>
       <c r="CU13" t="n">
-        <v>0.001493605668656528</v>
+        <v>0.002909226808696985</v>
       </c>
       <c r="CV13" t="n">
-        <v>0.0003761393600143492</v>
+        <v>0.001168725895695388</v>
       </c>
       <c r="CW13" t="n">
-        <v>0.000423921796027571</v>
+        <v>0.02622869424521923</v>
       </c>
       <c r="CX13" t="n">
-        <v>0.00259273499250412</v>
+        <v>0.007477991748601198</v>
       </c>
       <c r="CY13" t="n">
-        <v>6.470956577686593e-05</v>
+        <v>0.01574964821338654</v>
       </c>
       <c r="CZ13" t="n">
-        <v>0.001985008828341961</v>
+        <v>0.000706216786056757</v>
       </c>
       <c r="DA13" t="n">
-        <v>0.0003910484374500811</v>
+        <v>0.00614483468234539</v>
       </c>
       <c r="DB13" t="n">
-        <v>0.0003189795534126461</v>
+        <v>0.00176790077239275</v>
       </c>
       <c r="DC13" t="n">
-        <v>0.001135874656029046</v>
+        <v>0.0004983753897249699</v>
       </c>
       <c r="DD13" t="n">
-        <v>0.0003327067825011909</v>
+        <v>0.01413429621607065</v>
       </c>
       <c r="DE13" t="n">
-        <v>0.001945832627825439</v>
+        <v>0.03093559294939041</v>
       </c>
       <c r="DF13" t="n">
-        <v>0.001615872839465737</v>
+        <v>0.09046592563390732</v>
       </c>
       <c r="DG13" t="n">
-        <v>0.002100533805787563</v>
+        <v>0.01874489895999432</v>
       </c>
       <c r="DH13" t="n">
-        <v>0.0008161849109455943</v>
+        <v>0.05677040666341782</v>
       </c>
       <c r="DI13" t="n">
-        <v>0.0008955278317444026</v>
+        <v>0.0003849158529192209</v>
       </c>
       <c r="DJ13" t="n">
-        <v>0.0001185644650831819</v>
+        <v>0.004898058250546455</v>
       </c>
       <c r="DK13" t="n">
-        <v>0.0002573597594164312</v>
+        <v>0.04707771167159081</v>
       </c>
       <c r="DL13" t="n">
-        <v>0.001354609848931432</v>
+        <v>0.01409166399389505</v>
       </c>
       <c r="DM13" t="n">
-        <v>0.0005712922429665923</v>
+        <v>0.02024854719638824</v>
       </c>
       <c r="DN13" t="n">
-        <v>0.0001775481505319476</v>
+        <v>0.01702472940087318</v>
       </c>
       <c r="DO13" t="n">
-        <v>8.528449689038098e-05</v>
+        <v>0.01774141937494278</v>
       </c>
       <c r="DP13" t="n">
-        <v>0.0002332986914552748</v>
+        <v>0.01670050248503685</v>
       </c>
       <c r="DQ13" t="n">
-        <v>0.000152704946231097</v>
+        <v>0.02168841287493706</v>
       </c>
       <c r="DR13" t="n">
-        <v>0.0004563766124192625</v>
+        <v>0.004098138306289911</v>
       </c>
       <c r="DS13" t="n">
-        <v>0.001868116552941501</v>
+        <v>0.001814628718420863</v>
       </c>
       <c r="DT13" t="n">
-        <v>0.0004592528566718102</v>
+        <v>0.02912038192152977</v>
       </c>
       <c r="DU13" t="n">
-        <v>0.0009964683558791876</v>
+        <v>0.002899340353906155</v>
       </c>
       <c r="DV13" t="n">
-        <v>0.0002221746399300173</v>
+        <v>0.0007162317633628845</v>
       </c>
       <c r="DW13" t="n">
-        <v>0.0004517078632488847</v>
+        <v>0.01047408021986485</v>
       </c>
       <c r="DX13" t="n">
-        <v>0.0003596972383093089</v>
+        <v>0.01211248617619276</v>
       </c>
       <c r="DY13" t="n">
-        <v>0.001489078742451966</v>
+        <v>0.01327461842447519</v>
       </c>
       <c r="DZ13" t="n">
-        <v>0.001311909407377243</v>
+        <v>0.01608615182340145</v>
       </c>
       <c r="EA13" t="n">
-        <v>0.0007354242261499166</v>
+        <v>0.02155734412372112</v>
       </c>
       <c r="EB13" t="n">
-        <v>0.000199472502572462</v>
+        <v>0.01000484265387058</v>
       </c>
       <c r="EC13" t="n">
-        <v>0.000265721493633464</v>
+        <v>0.01096601411700249</v>
       </c>
       <c r="ED13" t="n">
-        <v>0.0009775582002475858</v>
+        <v>0.01384737156331539</v>
       </c>
       <c r="EE13" t="n">
-        <v>0.0006659183418378234</v>
+        <v>0.001423480920493603</v>
       </c>
       <c r="EF13" t="n">
-        <v>0.002090953988954425</v>
+        <v>0.004596534185111523</v>
       </c>
       <c r="EG13" t="n">
-        <v>0.001355012296698987</v>
+        <v>0.005325509700924158</v>
       </c>
       <c r="EH13" t="n">
-        <v>0.002464566612616181</v>
+        <v>0.001683223759755492</v>
       </c>
       <c r="EI13" t="n">
-        <v>0.0005557360709644854</v>
+        <v>0.009904425591230392</v>
       </c>
       <c r="EJ13" t="n">
-        <v>0.0008359430939890444</v>
+        <v>0.006314997561275959</v>
       </c>
       <c r="EK13" t="n">
-        <v>0.001980675850063562</v>
+        <v>0.00335905933752656</v>
       </c>
       <c r="EL13" t="n">
-        <v>0.0005196128622628748</v>
+        <v>0.007341668009757996</v>
       </c>
       <c r="EM13" t="n">
-        <v>0.002106486819684505</v>
+        <v>0.005730561912059784</v>
       </c>
       <c r="EN13" t="n">
-        <v>0.0005604951293207705</v>
+        <v>0.01833922043442726</v>
       </c>
       <c r="EO13" t="n">
-        <v>6.803544238209724e-06</v>
+        <v>0.01461940631270409</v>
       </c>
       <c r="EP13" t="n">
-        <v>0.001630535000003874</v>
+        <v>0.01544821914285421</v>
       </c>
       <c r="EQ13" t="n">
-        <v>0.001362071721814573</v>
+        <v>0.00991036556661129</v>
       </c>
       <c r="ER13" t="n">
-        <v>0.0002432650944683701</v>
+        <v>0.01479736436158419</v>
       </c>
       <c r="ES13" t="n">
-        <v>0.0008481640834361315</v>
+        <v>0.01451338827610016</v>
       </c>
       <c r="ET13" t="n">
-        <v>0.0002142659941455349</v>
+        <v>0.0332476794719696</v>
       </c>
       <c r="EU13" t="n">
-        <v>0.0008299655746668577</v>
+        <v>0.01028889045119286</v>
       </c>
       <c r="EV13" t="n">
-        <v>0.0003164283116348088</v>
+        <v>0.01560413092374802</v>
       </c>
       <c r="EW13" t="n">
-        <v>0.001436045160517097</v>
+        <v>0.007943007163703442</v>
       </c>
       <c r="EX13" t="n">
-        <v>0.0009456577245146036</v>
+        <v>0.0006860475987195969</v>
       </c>
       <c r="EY13" t="n">
-        <v>0.0002985419996548444</v>
+        <v>0.02985469251871109</v>
       </c>
       <c r="EZ13" t="n">
-        <v>0.002606637310236692</v>
+        <v>0.003482801839709282</v>
       </c>
       <c r="FA13" t="n">
-        <v>0.0003548828244674951</v>
+        <v>0.01361777819693089</v>
       </c>
       <c r="FB13" t="n">
-        <v>0.001620976137928665</v>
+        <v>0.001538904965855181</v>
       </c>
       <c r="FC13" t="n">
-        <v>0.0001362569601042196</v>
+        <v>0.01057565957307816</v>
       </c>
       <c r="FD13" t="n">
-        <v>0.0002043626009253785</v>
+        <v>0.004281424451619387</v>
       </c>
       <c r="FE13" t="n">
-        <v>0.001520137535408139</v>
+        <v>0.007248965557664633</v>
       </c>
       <c r="FF13" t="n">
-        <v>0.0004307992057874799</v>
+        <v>0.01316536962985992</v>
       </c>
       <c r="FG13" t="n">
-        <v>0.0004811634717043489</v>
+        <v>0.009381962940096855</v>
       </c>
       <c r="FH13" t="n">
-        <v>0.0004744361212942749</v>
+        <v>0.01824504137039185</v>
       </c>
       <c r="FI13" t="n">
-        <v>0.001753573538735509</v>
+        <v>0.003165796399116516</v>
       </c>
       <c r="FJ13" t="n">
-        <v>0.001801827922463417</v>
+        <v>0.01290556974709034</v>
       </c>
       <c r="FK13" t="n">
-        <v>0.001669947989284992</v>
+        <v>0.01384084112942219</v>
       </c>
       <c r="FL13" t="n">
-        <v>0.001110231503844261</v>
+        <v>0.005469937808811665</v>
       </c>
       <c r="FM13" t="n">
-        <v>0.001517598167993128</v>
+        <v>0.008877046406269073</v>
       </c>
       <c r="FN13" t="n">
-        <v>0.0002883491106331348</v>
+        <v>0.01277503930032253</v>
       </c>
       <c r="FO13" t="n">
-        <v>0.0004353650729171932</v>
+        <v>0.02343548275530338</v>
       </c>
       <c r="FP13" t="n">
-        <v>0.00210062088444829</v>
+        <v>0.006936667487025261</v>
       </c>
       <c r="FQ13" t="n">
-        <v>0.003788340371102095</v>
+        <v>0.01925785467028618</v>
       </c>
       <c r="FR13" t="n">
-        <v>0.002564438385888934</v>
+        <v>0.02948459051549435</v>
       </c>
       <c r="FS13" t="n">
-        <v>6.962889892747626e-05</v>
+        <v>0.01016547717154026</v>
       </c>
       <c r="FT13" t="n">
-        <v>0.001014004461467266</v>
+        <v>0.02491598576307297</v>
       </c>
       <c r="FU13" t="n">
-        <v>0.001595163601450622</v>
+        <v>0.01937564462423325</v>
       </c>
       <c r="FV13" t="n">
-        <v>0.0003947604564018548</v>
+        <v>0.003535492811352015</v>
       </c>
       <c r="FW13" t="n">
-        <v>0.0002296321908943355</v>
+        <v>0.008955540135502815</v>
       </c>
       <c r="FX13" t="n">
-        <v>0.001006042468361557</v>
+        <v>0.01029594801366329</v>
       </c>
       <c r="FY13" t="n">
-        <v>0.0009417809778824449</v>
+        <v>0.005556066520512104</v>
       </c>
       <c r="FZ13" t="n">
-        <v>0.0001345615164609626</v>
+        <v>0.03760833293199539</v>
       </c>
       <c r="GA13" t="n">
-        <v>0.0009007340995594859</v>
+        <v>0.01808054000139236</v>
       </c>
       <c r="GB13" t="n">
-        <v>0.0001765256747603416</v>
+        <v>0.02637334913015366</v>
       </c>
       <c r="GC13" t="n">
-        <v>0.001570759457536042</v>
+        <v>0.039139024913311</v>
       </c>
       <c r="GD13" t="n">
-        <v>0.00215345760807395</v>
+        <v>0.03517481312155724</v>
       </c>
       <c r="GE13" t="n">
-        <v>0.0001011409840430133</v>
+        <v>0.02650006301701069</v>
       </c>
       <c r="GF13" t="n">
-        <v>0.001012820866890252</v>
+        <v>0.006836568005383015</v>
       </c>
       <c r="GG13" t="n">
-        <v>0.0006196627509780228</v>
+        <v>0.006745249964296818</v>
       </c>
     </row>
     <row r="14">
@@ -8401,1140 +8401,1140 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.03295594081282616</v>
+        <v>0.02345351129770279</v>
       </c>
       <c r="B15" t="n">
-        <v>0.03411121666431427</v>
+        <v>0.6453219652175903</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6297857165336609</v>
+        <v>0.7096957564353943</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1378521770238876</v>
+        <v>0.2792933285236359</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1882031708955765</v>
+        <v>0.4194515943527222</v>
       </c>
       <c r="F15" t="n">
-        <v>1.02269971370697</v>
+        <v>0.2336542308330536</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2279629707336426</v>
+        <v>0.2325236052274704</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1841389387845993</v>
+        <v>0.3230859339237213</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1972491890192032</v>
+        <v>0.4972466826438904</v>
       </c>
       <c r="J15" t="n">
-        <v>0.04187563061714172</v>
+        <v>0.07064009457826614</v>
       </c>
       <c r="K15" t="n">
-        <v>0.07819770276546478</v>
+        <v>0.5609126091003418</v>
       </c>
       <c r="L15" t="n">
-        <v>0.6045161485671997</v>
+        <v>0.4349837303161621</v>
       </c>
       <c r="M15" t="n">
-        <v>0.07766310125589371</v>
+        <v>0.2316285818815231</v>
       </c>
       <c r="N15" t="n">
-        <v>0.1373021304607391</v>
+        <v>0.6650440692901611</v>
       </c>
       <c r="O15" t="n">
-        <v>1.108082413673401</v>
+        <v>0.3385622501373291</v>
       </c>
       <c r="P15" t="n">
-        <v>0.1018118858337402</v>
+        <v>0.07721459865570068</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.0815863236784935</v>
+        <v>0.1804855465888977</v>
       </c>
       <c r="R15" t="n">
-        <v>0.2792956233024597</v>
+        <v>0.4542455077171326</v>
       </c>
       <c r="S15" t="n">
-        <v>0.1292659640312195</v>
+        <v>0.04194013029336929</v>
       </c>
       <c r="T15" t="n">
-        <v>0.05026379227638245</v>
+        <v>0.09040634334087372</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01279760152101517</v>
+        <v>0.03832217678427696</v>
       </c>
       <c r="V15" t="n">
-        <v>0.01778813824057579</v>
+        <v>0.2679429352283478</v>
       </c>
       <c r="W15" t="n">
-        <v>0.001518530771136284</v>
+        <v>0.1643761992454529</v>
       </c>
       <c r="X15" t="n">
-        <v>0.1907463073730469</v>
+        <v>0.09916504472494125</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.0631084144115448</v>
+        <v>0.02913465537130833</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.128231480717659</v>
+        <v>0.1395377814769745</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.04245752096176147</v>
+        <v>0.0571906603872776</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.06032147631049156</v>
+        <v>0.1114106103777885</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.1608714461326599</v>
+        <v>0.195542648434639</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.03045786917209625</v>
+        <v>0.0147680975496769</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.07536150515079498</v>
+        <v>0.02424462139606476</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.4449476003646851</v>
+        <v>0.2129938453435898</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.01473264023661613</v>
+        <v>0.3248198330402374</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.1095037087798119</v>
+        <v>0.04516446590423584</v>
       </c>
       <c r="AI15" t="n">
-        <v>0.1751463413238525</v>
+        <v>0.163116842508316</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0.2294856309890747</v>
+        <v>0.1084271818399429</v>
       </c>
       <c r="AK15" t="n">
-        <v>0.01360184978693724</v>
+        <v>0.001495122909545898</v>
       </c>
       <c r="AL15" t="n">
-        <v>0.02283012866973877</v>
+        <v>0.3419173955917358</v>
       </c>
       <c r="AM15" t="n">
-        <v>0.288542777299881</v>
+        <v>0.0906333327293396</v>
       </c>
       <c r="AN15" t="n">
-        <v>0.003461499698460102</v>
+        <v>0.09394250810146332</v>
       </c>
       <c r="AO15" t="n">
-        <v>0.06340230256319046</v>
+        <v>0.04995923489332199</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.1187381371855736</v>
+        <v>0.2554556131362915</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.02678338997066021</v>
+        <v>0.0215739868581295</v>
       </c>
       <c r="AR15" t="n">
-        <v>0.07894007861614227</v>
+        <v>0.147820457816124</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.05122186243534088</v>
+        <v>0.1100473329424858</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.04525092989206314</v>
+        <v>0.2037151753902435</v>
       </c>
       <c r="AU15" t="n">
-        <v>0.04309820383787155</v>
+        <v>0.4518331289291382</v>
       </c>
       <c r="AV15" t="n">
-        <v>0.3003419637680054</v>
+        <v>0.4423260092735291</v>
       </c>
       <c r="AW15" t="n">
-        <v>0.2174381613731384</v>
+        <v>0.1007295697927475</v>
       </c>
       <c r="AX15" t="n">
-        <v>0.09112181514501572</v>
+        <v>0.1326229572296143</v>
       </c>
       <c r="AY15" t="n">
-        <v>0.4241871535778046</v>
+        <v>0.1508183777332306</v>
       </c>
       <c r="AZ15" t="n">
-        <v>0.04065002128481865</v>
+        <v>0.04342198371887207</v>
       </c>
       <c r="BA15" t="n">
-        <v>0.1022827103734016</v>
+        <v>0.1962376683950424</v>
       </c>
       <c r="BB15" t="n">
-        <v>0.03939614072442055</v>
+        <v>0.0215420313179493</v>
       </c>
       <c r="BC15" t="n">
-        <v>0.036769799888134</v>
+        <v>0.06647021323442459</v>
       </c>
       <c r="BD15" t="n">
-        <v>0.02978078089654446</v>
+        <v>0.1005230098962784</v>
       </c>
       <c r="BE15" t="n">
-        <v>0.005161013454198837</v>
+        <v>0.08206226676702499</v>
       </c>
       <c r="BF15" t="n">
-        <v>0.05794427543878555</v>
+        <v>0.2252490371465683</v>
       </c>
       <c r="BG15" t="n">
-        <v>0.2585355937480927</v>
+        <v>0.5048380494117737</v>
       </c>
       <c r="BH15" t="n">
-        <v>0.2866172790527344</v>
+        <v>0.1981481313705444</v>
       </c>
       <c r="BI15" t="n">
-        <v>0.2171293646097183</v>
+        <v>0.07828515022993088</v>
       </c>
       <c r="BJ15" t="n">
-        <v>0.01276818662881851</v>
+        <v>0.09496176242828369</v>
       </c>
       <c r="BK15" t="n">
-        <v>0.01712210476398468</v>
+        <v>0.2516157031059265</v>
       </c>
       <c r="BL15" t="n">
-        <v>0.007476697210222483</v>
+        <v>0.1628180295228958</v>
       </c>
       <c r="BM15" t="n">
-        <v>0.0391417071223259</v>
+        <v>0.1331343948841095</v>
       </c>
       <c r="BN15" t="n">
-        <v>0.0780986100435257</v>
+        <v>0.07415346801280975</v>
       </c>
       <c r="BO15" t="n">
-        <v>0.04463627934455872</v>
+        <v>0.139643594622612</v>
       </c>
       <c r="BP15" t="n">
-        <v>0.008890140801668167</v>
+        <v>0.1408426761627197</v>
       </c>
       <c r="BQ15" t="n">
-        <v>0.06606242805719376</v>
+        <v>0.1213088408112526</v>
       </c>
       <c r="BR15" t="n">
-        <v>0.02956017851829529</v>
+        <v>0.1762029528617859</v>
       </c>
       <c r="BS15" t="n">
-        <v>0.134372815489769</v>
+        <v>0.1422254294157028</v>
       </c>
       <c r="BT15" t="n">
-        <v>0.09555451571941376</v>
+        <v>0.1501069217920303</v>
       </c>
       <c r="BU15" t="n">
-        <v>0.06006602197885513</v>
+        <v>0.1587382704019547</v>
       </c>
       <c r="BV15" t="n">
-        <v>0.1321717500686646</v>
+        <v>0.2763913571834564</v>
       </c>
       <c r="BW15" t="n">
-        <v>0.18252232670784</v>
+        <v>0.3669516444206238</v>
       </c>
       <c r="BX15" t="n">
-        <v>0.03350544348359108</v>
+        <v>0.1131802797317505</v>
       </c>
       <c r="BY15" t="n">
-        <v>0.07643128931522369</v>
+        <v>0.09706098586320877</v>
       </c>
       <c r="BZ15" t="n">
-        <v>0.409138560295105</v>
+        <v>0.03764286637306213</v>
       </c>
       <c r="CA15" t="n">
-        <v>0.1208042204380035</v>
+        <v>0.001098312437534332</v>
       </c>
       <c r="CB15" t="n">
-        <v>0.02187853492796421</v>
+        <v>0.1522375345230103</v>
       </c>
       <c r="CC15" t="n">
-        <v>0.02354581467807293</v>
+        <v>0.08348458260297775</v>
       </c>
       <c r="CD15" t="n">
-        <v>0.02736650593578815</v>
+        <v>0.02168387174606323</v>
       </c>
       <c r="CE15" t="n">
-        <v>0.0404633916914463</v>
+        <v>0.09847924113273621</v>
       </c>
       <c r="CF15" t="n">
-        <v>0.1157809272408485</v>
+        <v>0.07836107909679413</v>
       </c>
       <c r="CG15" t="n">
-        <v>0.01530828140676022</v>
+        <v>0.1730492860078812</v>
       </c>
       <c r="CH15" t="n">
-        <v>0.03136004135012627</v>
+        <v>0.1185449734330177</v>
       </c>
       <c r="CI15" t="n">
-        <v>0.2025083601474762</v>
+        <v>0.006485906429588795</v>
       </c>
       <c r="CJ15" t="n">
-        <v>0.007281101774424314</v>
+        <v>0.02887436561286449</v>
       </c>
       <c r="CK15" t="n">
-        <v>0.02462771907448769</v>
+        <v>0.1011354476213455</v>
       </c>
       <c r="CL15" t="n">
-        <v>0.01822086609899998</v>
+        <v>0.08646170794963837</v>
       </c>
       <c r="CM15" t="n">
-        <v>0.1068341806530952</v>
+        <v>0.07018815726041794</v>
       </c>
       <c r="CN15" t="n">
-        <v>0.01611962169408798</v>
+        <v>0.04500357061624527</v>
       </c>
       <c r="CO15" t="n">
-        <v>0.2846086919307709</v>
+        <v>0.03042555600404739</v>
       </c>
       <c r="CP15" t="n">
-        <v>0.08276501297950745</v>
+        <v>0.3730984032154083</v>
       </c>
       <c r="CQ15" t="n">
-        <v>0.2600417137145996</v>
+        <v>0.3685989379882812</v>
       </c>
       <c r="CR15" t="n">
-        <v>0.09199586510658264</v>
+        <v>0.1211558729410172</v>
       </c>
       <c r="CS15" t="n">
-        <v>0.06977591663599014</v>
+        <v>0.1971451342105865</v>
       </c>
       <c r="CT15" t="n">
-        <v>0.1093205362558365</v>
+        <v>0.02020080573856831</v>
       </c>
       <c r="CU15" t="n">
-        <v>0.1487040817737579</v>
+        <v>0.1126604452729225</v>
       </c>
       <c r="CV15" t="n">
-        <v>0.04442422464489937</v>
+        <v>0.03742364048957825</v>
       </c>
       <c r="CW15" t="n">
-        <v>0.04407728835940361</v>
+        <v>0.05442789196968079</v>
       </c>
       <c r="CX15" t="n">
-        <v>0.1056604385375977</v>
+        <v>0.07718496024608612</v>
       </c>
       <c r="CY15" t="n">
-        <v>0.01951921917498112</v>
+        <v>0.1085128262639046</v>
       </c>
       <c r="CZ15" t="n">
-        <v>0.1031378209590912</v>
+        <v>0.1372154653072357</v>
       </c>
       <c r="DA15" t="n">
-        <v>0.1957759708166122</v>
+        <v>0.05461562052369118</v>
       </c>
       <c r="DB15" t="n">
-        <v>0.009676077403128147</v>
+        <v>0.005327502265572548</v>
       </c>
       <c r="DC15" t="n">
-        <v>0.07693668454885483</v>
+        <v>0.09075944870710373</v>
       </c>
       <c r="DD15" t="n">
-        <v>0.006810534745454788</v>
+        <v>0.1284291744232178</v>
       </c>
       <c r="DE15" t="n">
-        <v>0.05604546144604683</v>
+        <v>0.1474717557430267</v>
       </c>
       <c r="DF15" t="n">
-        <v>0.0258770976215601</v>
+        <v>0.02659247443079948</v>
       </c>
       <c r="DG15" t="n">
-        <v>0.1236621886491776</v>
+        <v>0.09208687394857407</v>
       </c>
       <c r="DH15" t="n">
-        <v>0.2388696372509003</v>
+        <v>0.3319658041000366</v>
       </c>
       <c r="DI15" t="n">
-        <v>0.2704214453697205</v>
+        <v>0.2468218058347702</v>
       </c>
       <c r="DJ15" t="n">
-        <v>0.07357054203748703</v>
+        <v>0.3220728039741516</v>
       </c>
       <c r="DK15" t="n">
-        <v>0.1371503323316574</v>
+        <v>0.1045227944850922</v>
       </c>
       <c r="DL15" t="n">
-        <v>0.209720253944397</v>
+        <v>0.3287371098995209</v>
       </c>
       <c r="DM15" t="n">
-        <v>0.1096456870436668</v>
+        <v>0.06079732999205589</v>
       </c>
       <c r="DN15" t="n">
-        <v>0.01698515564203262</v>
+        <v>0.0999412015080452</v>
       </c>
       <c r="DO15" t="n">
-        <v>0.06781070679426193</v>
+        <v>0.0455370768904686</v>
       </c>
       <c r="DP15" t="n">
-        <v>0.0332212969660759</v>
+        <v>0.1654369533061981</v>
       </c>
       <c r="DQ15" t="n">
-        <v>0.03615831583738327</v>
+        <v>0.1943707019090652</v>
       </c>
       <c r="DR15" t="n">
-        <v>0.1005116328597069</v>
+        <v>0.116726815700531</v>
       </c>
       <c r="DS15" t="n">
-        <v>0.0241638757288456</v>
+        <v>0.138760432600975</v>
       </c>
       <c r="DT15" t="n">
-        <v>0.0646442323923111</v>
+        <v>0.07471740245819092</v>
       </c>
       <c r="DU15" t="n">
-        <v>0.1705947071313858</v>
+        <v>0.1896104663610458</v>
       </c>
       <c r="DV15" t="n">
-        <v>0.04288057237863541</v>
+        <v>0.1764458268880844</v>
       </c>
       <c r="DW15" t="n">
-        <v>0.07032027840614319</v>
+        <v>0.08676241338253021</v>
       </c>
       <c r="DX15" t="n">
-        <v>0.00425318256020546</v>
+        <v>0.04153328761458397</v>
       </c>
       <c r="DY15" t="n">
-        <v>0.003263788297772408</v>
+        <v>0.1604411751031876</v>
       </c>
       <c r="DZ15" t="n">
-        <v>0.02233303710818291</v>
+        <v>0.08224180340766907</v>
       </c>
       <c r="EA15" t="n">
-        <v>0.02536759153008461</v>
+        <v>0.05408944562077522</v>
       </c>
       <c r="EB15" t="n">
-        <v>0.01605510711669922</v>
+        <v>0.2175315618515015</v>
       </c>
       <c r="EC15" t="n">
-        <v>0.101128377020359</v>
+        <v>0.04919444024562836</v>
       </c>
       <c r="ED15" t="n">
-        <v>0.2390069961547852</v>
+        <v>0.1176154240965843</v>
       </c>
       <c r="EE15" t="n">
-        <v>0.1177708655595779</v>
+        <v>0.06947328150272369</v>
       </c>
       <c r="EF15" t="n">
-        <v>0.006303495727479458</v>
+        <v>0.04952916875481606</v>
       </c>
       <c r="EG15" t="n">
-        <v>0.1159065216779709</v>
+        <v>0.05985576659440994</v>
       </c>
       <c r="EH15" t="n">
-        <v>0.1208488047122955</v>
+        <v>0.0262238122522831</v>
       </c>
       <c r="EI15" t="n">
-        <v>0.01382876932621002</v>
+        <v>0.08387784659862518</v>
       </c>
       <c r="EJ15" t="n">
-        <v>0.1455380618572235</v>
+        <v>0.2081483155488968</v>
       </c>
       <c r="EK15" t="n">
-        <v>0.2193825095891953</v>
+        <v>0.1290984898805618</v>
       </c>
       <c r="EL15" t="n">
-        <v>0.01685936935245991</v>
+        <v>0.07449747622013092</v>
       </c>
       <c r="EM15" t="n">
-        <v>0.06497726589441299</v>
+        <v>0.05114135146141052</v>
       </c>
       <c r="EN15" t="n">
-        <v>0.07956278324127197</v>
+        <v>0.149025946855545</v>
       </c>
       <c r="EO15" t="n">
-        <v>0.01518973335623741</v>
+        <v>0.03307342156767845</v>
       </c>
       <c r="EP15" t="n">
-        <v>0.02786247245967388</v>
+        <v>0.07104183733463287</v>
       </c>
       <c r="EQ15" t="n">
-        <v>0.007622073404490948</v>
+        <v>0.0543711744248867</v>
       </c>
       <c r="ER15" t="n">
-        <v>0.09215594828128815</v>
+        <v>0.03924013301730156</v>
       </c>
       <c r="ES15" t="n">
-        <v>0.05787687003612518</v>
+        <v>0.1029595583677292</v>
       </c>
       <c r="ET15" t="n">
-        <v>0.2269668281078339</v>
+        <v>0.03187540918588638</v>
       </c>
       <c r="EU15" t="n">
-        <v>0.1294189393520355</v>
+        <v>0.1151455193758011</v>
       </c>
       <c r="EV15" t="n">
-        <v>0.13853420317173</v>
+        <v>0.1471349895000458</v>
       </c>
       <c r="EW15" t="n">
-        <v>0.1066704094409943</v>
+        <v>0.3903762400150299</v>
       </c>
       <c r="EX15" t="n">
-        <v>0.009200200438499451</v>
+        <v>0.02591131627559662</v>
       </c>
       <c r="EY15" t="n">
-        <v>0.07114839553833008</v>
+        <v>0.07207915931940079</v>
       </c>
       <c r="EZ15" t="n">
-        <v>0.1051042228937149</v>
+        <v>0.0694158673286438</v>
       </c>
       <c r="FA15" t="n">
-        <v>0.01385266706347466</v>
+        <v>0.1682246625423431</v>
       </c>
       <c r="FB15" t="n">
-        <v>0.08377677202224731</v>
+        <v>0.130410298705101</v>
       </c>
       <c r="FC15" t="n">
-        <v>0.16920505464077</v>
+        <v>0.06678958237171173</v>
       </c>
       <c r="FD15" t="n">
-        <v>0.01060226187109947</v>
+        <v>0.02198694832623005</v>
       </c>
       <c r="FE15" t="n">
-        <v>0.07889007776975632</v>
+        <v>0.1377829909324646</v>
       </c>
       <c r="FF15" t="n">
-        <v>0.008270459249615669</v>
+        <v>0.05775608122348785</v>
       </c>
       <c r="FG15" t="n">
-        <v>0.08649738132953644</v>
+        <v>0.0494057722389698</v>
       </c>
       <c r="FH15" t="n">
-        <v>0.009545275941491127</v>
+        <v>0.1277034729719162</v>
       </c>
       <c r="FI15" t="n">
-        <v>0.1227347105741501</v>
+        <v>0.1425295770168304</v>
       </c>
       <c r="FJ15" t="n">
-        <v>0.07534143328666687</v>
+        <v>0.01750283688306808</v>
       </c>
       <c r="FK15" t="n">
-        <v>0.01760201342403889</v>
+        <v>0.1012608483433723</v>
       </c>
       <c r="FL15" t="n">
-        <v>0.01792656630277634</v>
+        <v>0.04219163209199905</v>
       </c>
       <c r="FM15" t="n">
-        <v>0.1390730738639832</v>
+        <v>0.2722724080085754</v>
       </c>
       <c r="FN15" t="n">
-        <v>0.03909333050251007</v>
+        <v>0.05558256804943085</v>
       </c>
       <c r="FO15" t="n">
-        <v>0.110418975353241</v>
+        <v>0.1378756165504456</v>
       </c>
       <c r="FP15" t="n">
-        <v>0.4124437570571899</v>
+        <v>0.116241917014122</v>
       </c>
       <c r="FQ15" t="n">
-        <v>0.0484442263841629</v>
+        <v>0.01377143152058125</v>
       </c>
       <c r="FR15" t="n">
-        <v>0.2114333212375641</v>
+        <v>0.2095647603273392</v>
       </c>
       <c r="FS15" t="n">
-        <v>0.2382641583681107</v>
+        <v>0.3020946681499481</v>
       </c>
       <c r="FT15" t="n">
-        <v>0.04319413006305695</v>
+        <v>0.1505401283502579</v>
       </c>
       <c r="FU15" t="n">
-        <v>0.3401302695274353</v>
+        <v>0.04924401640892029</v>
       </c>
       <c r="FV15" t="n">
-        <v>0.05004675686359406</v>
+        <v>0.2235341966152191</v>
       </c>
       <c r="FW15" t="n">
-        <v>0.1240434497594833</v>
+        <v>0.2941326498985291</v>
       </c>
       <c r="FX15" t="n">
-        <v>0.1540532559156418</v>
+        <v>0.07882116734981537</v>
       </c>
       <c r="FY15" t="n">
-        <v>0.1206365376710892</v>
+        <v>0.08128563314676285</v>
       </c>
       <c r="FZ15" t="n">
-        <v>0.05263248458504677</v>
+        <v>0.1082967221736908</v>
       </c>
       <c r="GA15" t="n">
-        <v>0.03087038733065128</v>
+        <v>0.06382989138364792</v>
       </c>
       <c r="GB15" t="n">
-        <v>0.05540918931365013</v>
+        <v>0.03443377465009689</v>
       </c>
       <c r="GC15" t="n">
-        <v>0.1492504477500916</v>
+        <v>0.07748901098966599</v>
       </c>
       <c r="GD15" t="n">
-        <v>0.04295063391327858</v>
+        <v>0.1791875511407852</v>
       </c>
       <c r="GE15" t="n">
-        <v>0.06599012762308121</v>
+        <v>0.2217925041913986</v>
       </c>
       <c r="GF15" t="n">
-        <v>0.316621720790863</v>
+        <v>0.4605424106121063</v>
       </c>
       <c r="GG15" t="n">
-        <v>0.1357894092798233</v>
+        <v>0.02204828523099422</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1.270208122150507e-05</v>
+        <v>0.002569583943113685</v>
       </c>
       <c r="B16" t="n">
-        <v>1.808935121516697e-05</v>
+        <v>0.02850898914039135</v>
       </c>
       <c r="C16" t="n">
-        <v>3.069053036597325e-06</v>
+        <v>0.003083593212068081</v>
       </c>
       <c r="D16" t="n">
-        <v>2.020482315856498e-05</v>
+        <v>0.01868777722120285</v>
       </c>
       <c r="E16" t="n">
-        <v>5.922265336266719e-05</v>
+        <v>0.002963480306789279</v>
       </c>
       <c r="F16" t="n">
-        <v>5.84661029279232e-05</v>
+        <v>0.05699427798390388</v>
       </c>
       <c r="G16" t="n">
-        <v>3.070563252549618e-07</v>
+        <v>0.01401686854660511</v>
       </c>
       <c r="H16" t="n">
-        <v>9.793259232537821e-05</v>
+        <v>0.02624247409403324</v>
       </c>
       <c r="I16" t="n">
-        <v>1.44448767969152e-06</v>
+        <v>0.01163212116807699</v>
       </c>
       <c r="J16" t="n">
-        <v>8.558174158679321e-06</v>
+        <v>0.001530960667878389</v>
       </c>
       <c r="K16" t="n">
-        <v>1.70308612723602e-05</v>
+        <v>0.02185716293752193</v>
       </c>
       <c r="L16" t="n">
-        <v>1.524932940810686e-06</v>
+        <v>0.0002782726951409131</v>
       </c>
       <c r="M16" t="n">
-        <v>1.125247126765316e-05</v>
+        <v>0.006425302475690842</v>
       </c>
       <c r="N16" t="n">
-        <v>6.57930868328549e-05</v>
+        <v>0.004010353237390518</v>
       </c>
       <c r="O16" t="n">
-        <v>6.316518556559458e-05</v>
+        <v>0.04531934857368469</v>
       </c>
       <c r="P16" t="n">
-        <v>3.211091552657308e-06</v>
+        <v>0.01471399515867233</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.000101839832495898</v>
+        <v>0.01503662951290607</v>
       </c>
       <c r="R16" t="n">
-        <v>2.979633109134738e-06</v>
+        <v>0.008377261459827423</v>
       </c>
       <c r="S16" t="n">
-        <v>4.92226354253944e-06</v>
+        <v>0.001045692362822592</v>
       </c>
       <c r="T16" t="n">
-        <v>7.191191798483487e-06</v>
+        <v>0.0004044858505949378</v>
       </c>
       <c r="U16" t="n">
-        <v>1.310852212554892e-06</v>
+        <v>0.004433019552379847</v>
       </c>
       <c r="V16" t="n">
-        <v>5.248414254310774e-07</v>
+        <v>0.01337719149887562</v>
       </c>
       <c r="W16" t="n">
-        <v>5.979590241622645e-06</v>
+        <v>0.0148240439593792</v>
       </c>
       <c r="X16" t="n">
-        <v>6.127175311121391e-06</v>
+        <v>0.006680633407086134</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.832507900369819e-06</v>
+        <v>0.0004476490430533886</v>
       </c>
       <c r="Z16" t="n">
-        <v>2.567220690252725e-05</v>
+        <v>0.003281424986198545</v>
       </c>
       <c r="AA16" t="n">
-        <v>1.024942230287706e-05</v>
+        <v>0.002074161311611533</v>
       </c>
       <c r="AB16" t="n">
-        <v>7.552895567641826e-06</v>
+        <v>0.003738706931471825</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.650855877727736e-06</v>
+        <v>0.002971103880554438</v>
       </c>
       <c r="AD16" t="n">
-        <v>3.287675326646422e-06</v>
+        <v>0.00770763261243701</v>
       </c>
       <c r="AE16" t="n">
-        <v>1.75955628947122e-05</v>
+        <v>0.00523051805794239</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.633148713153787e-05</v>
+        <v>0.00047832983545959</v>
       </c>
       <c r="AG16" t="n">
-        <v>3.635723714978667e-06</v>
+        <v>0.0008693449781276286</v>
       </c>
       <c r="AH16" t="n">
-        <v>2.591130760265514e-05</v>
+        <v>0.002094977768138051</v>
       </c>
       <c r="AI16" t="n">
-        <v>5.474882982525742e-06</v>
+        <v>0.004438711330294609</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1.048903686751146e-05</v>
+        <v>0.0008835436310619116</v>
       </c>
       <c r="AK16" t="n">
-        <v>6.402884082490345e-06</v>
+        <v>0.004728421568870544</v>
       </c>
       <c r="AL16" t="n">
-        <v>1.487456665927311e-05</v>
+        <v>0.001145067391917109</v>
       </c>
       <c r="AM16" t="n">
-        <v>1.450265062885592e-05</v>
+        <v>0.002141284057870507</v>
       </c>
       <c r="AN16" t="n">
-        <v>4.437232746568043e-06</v>
+        <v>0.007427423726767302</v>
       </c>
       <c r="AO16" t="n">
-        <v>4.03770427510608e-05</v>
+        <v>0.006668839603662491</v>
       </c>
       <c r="AP16" t="n">
-        <v>3.748071094378247e-06</v>
+        <v>0.01154276262968779</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1.814890993045992e-07</v>
+        <v>0.001831232337281108</v>
       </c>
       <c r="AR16" t="n">
-        <v>1.399589791617473e-06</v>
+        <v>0.004415021277964115</v>
       </c>
       <c r="AS16" t="n">
-        <v>4.57012129118084e-06</v>
+        <v>0.001225333311595023</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.792327384464443e-05</v>
+        <v>0.006873431149870157</v>
       </c>
       <c r="AU16" t="n">
-        <v>4.057084515807219e-05</v>
+        <v>0.01633920893073082</v>
       </c>
       <c r="AV16" t="n">
-        <v>1.817176325857872e-06</v>
+        <v>0.0003923343028873205</v>
       </c>
       <c r="AW16" t="n">
-        <v>8.348371920874342e-06</v>
+        <v>0.01161670498549938</v>
       </c>
       <c r="AX16" t="n">
-        <v>4.494006134336814e-06</v>
+        <v>0.00985649973154068</v>
       </c>
       <c r="AY16" t="n">
-        <v>3.079020461882465e-05</v>
+        <v>0.03399721905589104</v>
       </c>
       <c r="AZ16" t="n">
-        <v>4.396039003040642e-06</v>
+        <v>0.008017770946025848</v>
       </c>
       <c r="BA16" t="n">
-        <v>3.022174132638611e-05</v>
+        <v>0.01110705826431513</v>
       </c>
       <c r="BB16" t="n">
-        <v>7.804412234690972e-06</v>
+        <v>0.006886866874992847</v>
       </c>
       <c r="BC16" t="n">
-        <v>1.102217174775433e-05</v>
+        <v>6.459187716245651e-06</v>
       </c>
       <c r="BD16" t="n">
-        <v>1.982985850190744e-06</v>
+        <v>0.0003161332570016384</v>
       </c>
       <c r="BE16" t="n">
-        <v>3.010072987308376e-06</v>
+        <v>0.0006245844997465611</v>
       </c>
       <c r="BF16" t="n">
-        <v>2.140967444574926e-05</v>
+        <v>0.01571350544691086</v>
       </c>
       <c r="BG16" t="n">
-        <v>3.749273673747666e-05</v>
+        <v>0.01077993772923946</v>
       </c>
       <c r="BH16" t="n">
-        <v>1.409981905453606e-05</v>
+        <v>0.01442893128842115</v>
       </c>
       <c r="BI16" t="n">
-        <v>1.442033317289315e-05</v>
+        <v>0.002377723809331656</v>
       </c>
       <c r="BJ16" t="n">
-        <v>1.995704587898217e-05</v>
+        <v>0.004089370369911194</v>
       </c>
       <c r="BK16" t="n">
-        <v>4.353676558821462e-06</v>
+        <v>0.003732845885679126</v>
       </c>
       <c r="BL16" t="n">
-        <v>1.809167542887735e-06</v>
+        <v>0.0006306599825620651</v>
       </c>
       <c r="BM16" t="n">
-        <v>1.02135327324504e-05</v>
+        <v>0.01019048690795898</v>
       </c>
       <c r="BN16" t="n">
-        <v>6.229472546692705e-06</v>
+        <v>0.005762821994721889</v>
       </c>
       <c r="BO16" t="n">
-        <v>2.78905304185173e-06</v>
+        <v>0.006268588826060295</v>
       </c>
       <c r="BP16" t="n">
-        <v>2.840437900886172e-06</v>
+        <v>0.003019063267856836</v>
       </c>
       <c r="BQ16" t="n">
-        <v>8.306983545480762e-06</v>
+        <v>0.004234118852764368</v>
       </c>
       <c r="BR16" t="n">
-        <v>2.345403299841564e-05</v>
+        <v>0.001908090431243181</v>
       </c>
       <c r="BS16" t="n">
-        <v>1.937253182404675e-05</v>
+        <v>0.01009924057871103</v>
       </c>
       <c r="BT16" t="n">
-        <v>8.398383783969621e-07</v>
+        <v>0.009587056003510952</v>
       </c>
       <c r="BU16" t="n">
-        <v>3.317805521874106e-06</v>
+        <v>0.001160189975053072</v>
       </c>
       <c r="BV16" t="n">
-        <v>7.018303222139366e-06</v>
+        <v>0.01166814845055342</v>
       </c>
       <c r="BW16" t="n">
-        <v>1.353029006168072e-06</v>
+        <v>0.002111339475959539</v>
       </c>
       <c r="BX16" t="n">
-        <v>8.524269105691928e-06</v>
+        <v>0.007879175245761871</v>
       </c>
       <c r="BY16" t="n">
-        <v>2.152853085135575e-06</v>
+        <v>0.005952670238912106</v>
       </c>
       <c r="BZ16" t="n">
-        <v>2.410498382232618e-05</v>
+        <v>0.01672711595892906</v>
       </c>
       <c r="CA16" t="n">
-        <v>1.265623905055691e-05</v>
+        <v>0.002058318816125393</v>
       </c>
       <c r="CB16" t="n">
-        <v>4.087135312147439e-05</v>
+        <v>0.004388038069009781</v>
       </c>
       <c r="CC16" t="n">
-        <v>4.799308953806758e-06</v>
+        <v>0.001710581826046109</v>
       </c>
       <c r="CD16" t="n">
-        <v>4.635425739252241e-06</v>
+        <v>0.001529157045297325</v>
       </c>
       <c r="CE16" t="n">
-        <v>2.135147724402486e-06</v>
+        <v>0.003296010196208954</v>
       </c>
       <c r="CF16" t="n">
-        <v>1.427563006473065e-06</v>
+        <v>0.0003136290470138192</v>
       </c>
       <c r="CG16" t="n">
-        <v>5.482332198880613e-06</v>
+        <v>0.0005396581254899502</v>
       </c>
       <c r="CH16" t="n">
-        <v>1.37988190545002e-05</v>
+        <v>0.001710961223579943</v>
       </c>
       <c r="CI16" t="n">
-        <v>1.143038753070869e-05</v>
+        <v>0.008712276816368103</v>
       </c>
       <c r="CJ16" t="n">
-        <v>6.823519811405276e-07</v>
+        <v>0.00566455302760005</v>
       </c>
       <c r="CK16" t="n">
-        <v>1.827878986659925e-05</v>
+        <v>0.007246583234518766</v>
       </c>
       <c r="CL16" t="n">
-        <v>9.844961823546328e-07</v>
+        <v>0.002309055998921394</v>
       </c>
       <c r="CM16" t="n">
-        <v>1.716239785309881e-05</v>
+        <v>0.001810156041756272</v>
       </c>
       <c r="CN16" t="n">
-        <v>5.340054030966712e-06</v>
+        <v>0.007857039570808411</v>
       </c>
       <c r="CO16" t="n">
-        <v>4.251217433193233e-06</v>
+        <v>0.001891831401735544</v>
       </c>
       <c r="CP16" t="n">
-        <v>4.834040737478063e-06</v>
+        <v>0.008815895766019821</v>
       </c>
       <c r="CQ16" t="n">
-        <v>4.456223905435763e-06</v>
+        <v>0.02049429900944233</v>
       </c>
       <c r="CR16" t="n">
-        <v>2.410556589893531e-07</v>
+        <v>0.003143662121146917</v>
       </c>
       <c r="CS16" t="n">
-        <v>5.388909812609199e-06</v>
+        <v>0.003799735801294446</v>
       </c>
       <c r="CT16" t="n">
-        <v>1.981696004804689e-05</v>
+        <v>0.006721134297549725</v>
       </c>
       <c r="CU16" t="n">
-        <v>1.508687000750797e-05</v>
+        <v>0.004726492799818516</v>
       </c>
       <c r="CV16" t="n">
-        <v>7.013240519881947e-06</v>
+        <v>0.0003123446949757636</v>
       </c>
       <c r="CW16" t="n">
-        <v>4.723253823613049e-06</v>
+        <v>0.003471231320872903</v>
       </c>
       <c r="CX16" t="n">
-        <v>1.525397010482266e-06</v>
+        <v>0.0005750884301960468</v>
       </c>
       <c r="CY16" t="n">
-        <v>4.760511728818528e-06</v>
+        <v>0.001358745386824012</v>
       </c>
       <c r="CZ16" t="n">
-        <v>1.32528966787504e-05</v>
+        <v>0.001089103287085891</v>
       </c>
       <c r="DA16" t="n">
-        <v>1.350034472125117e-05</v>
+        <v>0.01067003514617682</v>
       </c>
       <c r="DB16" t="n">
-        <v>3.019458745256998e-07</v>
+        <v>0.00490102544426918</v>
       </c>
       <c r="DC16" t="n">
-        <v>2.438185219943989e-05</v>
+        <v>0.01052950415760279</v>
       </c>
       <c r="DD16" t="n">
-        <v>1.486388327975874e-06</v>
+        <v>0.004284956492483616</v>
       </c>
       <c r="DE16" t="n">
-        <v>3.282037869212218e-05</v>
+        <v>0.001879997784271836</v>
       </c>
       <c r="DF16" t="n">
-        <v>3.478327926131897e-05</v>
+        <v>0.01569594442844391</v>
       </c>
       <c r="DG16" t="n">
-        <v>2.111302364937728e-06</v>
+        <v>0.0002156617119908333</v>
       </c>
       <c r="DH16" t="n">
-        <v>2.897839294746518e-06</v>
+        <v>0.01682635024189949</v>
       </c>
       <c r="DI16" t="n">
-        <v>4.913972588838078e-07</v>
+        <v>0.004416777286678553</v>
       </c>
       <c r="DJ16" t="n">
-        <v>2.068083858830505e-06</v>
+        <v>0.008508089929819107</v>
       </c>
       <c r="DK16" t="n">
-        <v>3.70363727597578e-06</v>
+        <v>0.000536804087460041</v>
       </c>
       <c r="DL16" t="n">
-        <v>1.05212238850072e-05</v>
+        <v>0.01590597257018089</v>
       </c>
       <c r="DM16" t="n">
-        <v>9.08916445041541e-06</v>
+        <v>0.004531852435320616</v>
       </c>
       <c r="DN16" t="n">
-        <v>6.330839823931456e-06</v>
+        <v>0.004693917464464903</v>
       </c>
       <c r="DO16" t="n">
-        <v>7.044583526294446e-06</v>
+        <v>0.0006796298548579216</v>
       </c>
       <c r="DP16" t="n">
-        <v>1.316239831794519e-06</v>
+        <v>0.001036143046803772</v>
       </c>
       <c r="DQ16" t="n">
-        <v>1.53140751990577e-06</v>
+        <v>0.00863143615424633</v>
       </c>
       <c r="DR16" t="n">
-        <v>1.045594035531394e-05</v>
+        <v>0.008781984448432922</v>
       </c>
       <c r="DS16" t="n">
-        <v>1.017952945403522e-05</v>
+        <v>0.01247057411819696</v>
       </c>
       <c r="DT16" t="n">
-        <v>1.202059320348781e-05</v>
+        <v>0.008754235692322254</v>
       </c>
       <c r="DU16" t="n">
-        <v>1.561360022606095e-06</v>
+        <v>0.002363820327445865</v>
       </c>
       <c r="DV16" t="n">
-        <v>2.72821489488706e-06</v>
+        <v>0.001396854873746634</v>
       </c>
       <c r="DW16" t="n">
-        <v>8.26187533675693e-06</v>
+        <v>0.002106660977005959</v>
       </c>
       <c r="DX16" t="n">
-        <v>4.857674866798334e-06</v>
+        <v>0.003364936448633671</v>
       </c>
       <c r="DY16" t="n">
-        <v>1.112785412260564e-06</v>
+        <v>0.002207541838288307</v>
       </c>
       <c r="DZ16" t="n">
-        <v>4.936330242344411e-06</v>
+        <v>0.0003765970759559423</v>
       </c>
       <c r="EA16" t="n">
-        <v>5.440998393169139e-06</v>
+        <v>0.001399342436343431</v>
       </c>
       <c r="EB16" t="n">
-        <v>5.03265391671448e-06</v>
+        <v>0.003415236249566078</v>
       </c>
       <c r="EC16" t="n">
-        <v>6.829650828876765e-06</v>
+        <v>0.003783621359616518</v>
       </c>
       <c r="ED16" t="n">
-        <v>8.434729352302384e-06</v>
+        <v>0.005820523016154766</v>
       </c>
       <c r="EE16" t="n">
-        <v>7.232711595861474e-06</v>
+        <v>0.006948141381144524</v>
       </c>
       <c r="EF16" t="n">
-        <v>2.254526953038294e-05</v>
+        <v>0.002136814640834928</v>
       </c>
       <c r="EG16" t="n">
-        <v>6.057875452825101e-06</v>
+        <v>0.0007979366928339005</v>
       </c>
       <c r="EH16" t="n">
-        <v>3.927912985091098e-06</v>
+        <v>0.002222395269200206</v>
       </c>
       <c r="EI16" t="n">
-        <v>7.796466888976283e-06</v>
+        <v>0.01268661580979824</v>
       </c>
       <c r="EJ16" t="n">
-        <v>1.990122473216616e-05</v>
+        <v>0.001474079908803105</v>
       </c>
       <c r="EK16" t="n">
-        <v>8.883028385753278e-06</v>
+        <v>0.002615179866552353</v>
       </c>
       <c r="EL16" t="n">
-        <v>6.442518952098908e-06</v>
+        <v>0.002182511612772942</v>
       </c>
       <c r="EM16" t="n">
-        <v>2.500833579688333e-05</v>
+        <v>0.007320595905184746</v>
       </c>
       <c r="EN16" t="n">
-        <v>1.734564420985407e-06</v>
+        <v>0.003687880467623472</v>
       </c>
       <c r="EO16" t="n">
-        <v>2.376652901148191e-06</v>
+        <v>8.908573363441974e-06</v>
       </c>
       <c r="EP16" t="n">
-        <v>4.968784651282476e-06</v>
+        <v>0.003198607126250863</v>
       </c>
       <c r="EQ16" t="n">
-        <v>3.243633727834094e-06</v>
+        <v>0.004504360258579254</v>
       </c>
       <c r="ER16" t="n">
-        <v>2.340831997571513e-06</v>
+        <v>0.007186341099441051</v>
       </c>
       <c r="ES16" t="n">
-        <v>1.606763544259593e-05</v>
+        <v>0.0006004651077091694</v>
       </c>
       <c r="ET16" t="n">
-        <v>1.009609513857868e-05</v>
+        <v>0.0009334840578958392</v>
       </c>
       <c r="EU16" t="n">
-        <v>3.826321062661009e-06</v>
+        <v>0.000669712433591485</v>
       </c>
       <c r="EV16" t="n">
-        <v>1.210833943332545e-05</v>
+        <v>0.01213408913463354</v>
       </c>
       <c r="EW16" t="n">
-        <v>1.600098357812385e-06</v>
+        <v>0.009557468816637993</v>
       </c>
       <c r="EX16" t="n">
-        <v>6.262946499191457e-06</v>
+        <v>0.0009652199223637581</v>
       </c>
       <c r="EY16" t="n">
-        <v>6.60774412608589e-06</v>
+        <v>0.002643762854859233</v>
       </c>
       <c r="EZ16" t="n">
-        <v>2.478416718076915e-06</v>
+        <v>0.000134208588860929</v>
       </c>
       <c r="FA16" t="n">
-        <v>6.439579010475427e-06</v>
+        <v>0.0004264092422090471</v>
       </c>
       <c r="FB16" t="n">
-        <v>1.611753759789281e-05</v>
+        <v>0.000501139264088124</v>
       </c>
       <c r="FC16" t="n">
-        <v>1.222925857291557e-05</v>
+        <v>0.008091969415545464</v>
       </c>
       <c r="FD16" t="n">
-        <v>1.75557283910166e-06</v>
+        <v>0.005711064673960209</v>
       </c>
       <c r="FE16" t="n">
-        <v>2.579230203991756e-05</v>
+        <v>0.008280178532004356</v>
       </c>
       <c r="FF16" t="n">
-        <v>2.363329258514568e-06</v>
+        <v>0.003434610553085804</v>
       </c>
       <c r="FG16" t="n">
-        <v>5.350305400497746e-06</v>
+        <v>0.0004663756117224693</v>
       </c>
       <c r="FH16" t="n">
-        <v>3.284152398919105e-07</v>
+        <v>0.008038723841309547</v>
       </c>
       <c r="FI16" t="n">
-        <v>2.094123829010641e-06</v>
+        <v>0.006116928067058325</v>
       </c>
       <c r="FJ16" t="n">
-        <v>8.752608664508443e-06</v>
+        <v>0.007167419884353876</v>
       </c>
       <c r="FK16" t="n">
-        <v>3.860690412693657e-06</v>
+        <v>0.003881064709275961</v>
       </c>
       <c r="FL16" t="n">
-        <v>5.914644589211093e-06</v>
+        <v>0.009885258972644806</v>
       </c>
       <c r="FM16" t="n">
-        <v>6.937084890523693e-06</v>
+        <v>0.000485082040540874</v>
       </c>
       <c r="FN16" t="n">
-        <v>3.092347469646484e-06</v>
+        <v>0.0008536179084330797</v>
       </c>
       <c r="FO16" t="n">
-        <v>5.458764462673571e-06</v>
+        <v>0.003385864198207855</v>
       </c>
       <c r="FP16" t="n">
-        <v>1.812878144846763e-05</v>
+        <v>0.005637664347887039</v>
       </c>
       <c r="FQ16" t="n">
-        <v>5.292291007208405e-06</v>
+        <v>0.004550040233880281</v>
       </c>
       <c r="FR16" t="n">
-        <v>1.026742097565148e-06</v>
+        <v>0.008107404224574566</v>
       </c>
       <c r="FS16" t="n">
-        <v>5.044154022471048e-06</v>
+        <v>0.003258969634771347</v>
       </c>
       <c r="FT16" t="n">
-        <v>3.913722594006686e-06</v>
+        <v>0.009428140707314014</v>
       </c>
       <c r="FU16" t="n">
-        <v>1.371332291455474e-05</v>
+        <v>0.009252934716641903</v>
       </c>
       <c r="FV16" t="n">
-        <v>9.070437954505906e-06</v>
+        <v>0.003003839636221528</v>
       </c>
       <c r="FW16" t="n">
-        <v>2.773908818198834e-05</v>
+        <v>0.009769473224878311</v>
       </c>
       <c r="FX16" t="n">
-        <v>7.59891281632008e-06</v>
+        <v>0.01062082871794701</v>
       </c>
       <c r="FY16" t="n">
-        <v>3.580187467377982e-06</v>
+        <v>0.0004588047158904374</v>
       </c>
       <c r="FZ16" t="n">
-        <v>2.985151922985096e-06</v>
+        <v>0.001477666548453271</v>
       </c>
       <c r="GA16" t="n">
-        <v>4.296014139981708e-06</v>
+        <v>0.006235009059309959</v>
       </c>
       <c r="GB16" t="n">
-        <v>4.470694420888321e-06</v>
+        <v>0.01060023903846741</v>
       </c>
       <c r="GC16" t="n">
-        <v>4.834240371565102e-06</v>
+        <v>0.02583795972168446</v>
       </c>
       <c r="GD16" t="n">
-        <v>7.345153335336363e-06</v>
+        <v>0.001338962931185961</v>
       </c>
       <c r="GE16" t="n">
-        <v>4.602195076586213e-06</v>
+        <v>0.01005999837070704</v>
       </c>
       <c r="GF16" t="n">
-        <v>2.094804472108081e-07</v>
+        <v>0.007206459529697895</v>
       </c>
       <c r="GG16" t="n">
-        <v>4.160016942478251e-06</v>
+        <v>0.004023682326078415</v>
       </c>
     </row>
   </sheetData>
